--- a/XX_Master_database/Wholesaler_Database.xlsx
+++ b/XX_Master_database/Wholesaler_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/00_Scrapping_git/XX_Master_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1405" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D62B55C4-4118-4546-B945-27AFAFD8584B}"/>
+  <xr:revisionPtr revIDLastSave="1407" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF12493E-5CC5-4207-ADD9-ED89501033C2}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{BB750D66-C71B-4412-8809-92E47E37BD8E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="1" xr2:uid="{BB750D66-C71B-4412-8809-92E47E37BD8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Competitors" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="268">
   <si>
     <t>GMX20902</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Tipo</t>
   </si>
   <si>
-    <t>Línea</t>
-  </si>
-  <si>
     <t>Subcategory</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
   </si>
   <si>
     <t>Price List</t>
-  </si>
-  <si>
-    <t>Roughin</t>
   </si>
   <si>
     <t>Margen</t>
@@ -5084,9 +5078,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A42"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5125,40 +5119,40 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5166,7 +5160,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="15" t="str">
         <f>VLOOKUP(B2,Mansfield!$D$1:$L$20,9,0)</f>
@@ -5180,10 +5174,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H2" s="15" t="str">
         <f>VLOOKUP(E2,[1]query!$D:$O,4,0)</f>
@@ -5193,22 +5187,22 @@
         <v>12</v>
       </c>
       <c r="J2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>57</v>
       </c>
       <c r="L2" s="18">
         <v>1.6</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P2" s="28">
         <v>0.41</v>
@@ -5220,7 +5214,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="15" t="str">
         <f>VLOOKUP(B3,Mansfield!$D$1:$L$20,9,0)</f>
@@ -5234,10 +5228,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H3" s="15" t="str">
         <f>VLOOKUP(E3,[1]query!$D:$O,4,0)</f>
@@ -5247,22 +5241,22 @@
         <v>12</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L3" s="18">
         <v>1.6</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P3" s="28">
         <v>0.41</v>
@@ -5274,7 +5268,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" s="15" t="str">
         <f>VLOOKUP(B4,Mansfield!$D$1:$L$20,9,0)</f>
@@ -5288,10 +5282,10 @@
         <v>5</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H4" s="15" t="str">
         <f>VLOOKUP(E4,[1]query!$D:$O,4,0)</f>
@@ -5301,22 +5295,22 @@
         <v>12</v>
       </c>
       <c r="J4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="15" t="s">
         <v>54</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="L4" s="18">
         <v>1.6</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P4" s="28">
         <v>0.41</v>
@@ -5328,7 +5322,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="15" t="str">
         <f>VLOOKUP(B5,Mansfield!$D$1:$L$20,9,0)</f>
@@ -5342,34 +5336,34 @@
         <v>7</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I5" s="15">
         <v>12</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L5" s="15">
         <v>1.6</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N5" s="17" t="s">
         <v>6</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P5" s="28">
         <v>0.34</v>
@@ -5381,7 +5375,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="15" t="str">
         <f>VLOOKUP(B6,Mansfield!$D$1:$L$20,9,0)</f>
@@ -5392,13 +5386,13 @@
         <v>3</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H6" s="15" t="str">
         <f>VLOOKUP(E6,[1]query!$D:$O,4,0)</f>
@@ -5408,22 +5402,22 @@
         <v>12</v>
       </c>
       <c r="J6" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>57</v>
       </c>
       <c r="L6" s="18">
         <v>1.28</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P6" s="28">
         <v>0.34</v>
@@ -5435,7 +5429,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="15" t="str">
         <f>VLOOKUP(B7,Mansfield!$D$1:$L$20,9,0)</f>
@@ -5446,13 +5440,13 @@
         <v>3</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H7" s="15" t="str">
         <f>VLOOKUP(E7,[1]query!$D:$O,4,0)</f>
@@ -5462,22 +5456,22 @@
         <v>12</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L7" s="18">
         <v>1.28</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P7" s="28">
         <v>0.34</v>
@@ -5489,7 +5483,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="15" t="str">
         <f>VLOOKUP(B8,Mansfield!$D$1:$L$20,9,0)</f>
@@ -5500,13 +5494,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="15" t="str">
         <f>VLOOKUP(E8,[1]query!$D:$O,4,0)</f>
@@ -5516,22 +5510,22 @@
         <v>12</v>
       </c>
       <c r="J8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="15" t="s">
         <v>54</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="L8" s="18">
         <v>1.28</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P8" s="28">
         <v>0.34</v>
@@ -5543,7 +5537,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="15" t="str">
         <f>VLOOKUP(B9,Mansfield!$D$1:$L$20,9,0)</f>
@@ -5554,13 +5548,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H9" s="15" t="str">
         <f>VLOOKUP(E9,[1]query!$D:$O,4,0)</f>
@@ -5570,22 +5564,22 @@
         <v>12</v>
       </c>
       <c r="J9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="15" t="s">
         <v>54</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="L9" s="18">
         <v>1.6</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P9" s="28">
         <v>0.34</v>
@@ -5597,7 +5591,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C10" s="36" t="str">
         <f>VLOOKUP(B10,Mansfield!$D$1:$L$20,9,0)</f>
@@ -5608,13 +5602,13 @@
         <v>2</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="36" t="str">
         <f>VLOOKUP(E10,[1]query!$D:$O,4,0)</f>
@@ -5629,11 +5623,11 @@
         <v>1.6</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N10" s="36"/>
       <c r="O10" s="36" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P10" s="39">
         <v>0.41</v>
@@ -5647,7 +5641,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="36">
@@ -5655,16 +5649,16 @@
         <v>2</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I11" s="38">
         <v>12</v>
@@ -5675,11 +5669,11 @@
         <v>1.28</v>
       </c>
       <c r="M11" s="36" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N11" s="36"/>
       <c r="O11" s="36" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P11" s="39">
         <v>0.41</v>
@@ -5704,16 +5698,16 @@
         <v>2</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I12" s="38">
         <v>12</v>
@@ -5724,11 +5718,11 @@
         <v>1.6</v>
       </c>
       <c r="M12" s="36" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N12" s="36"/>
       <c r="O12" s="36" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P12" s="39">
         <v>0.41</v>
@@ -5742,7 +5736,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="36">
@@ -5750,35 +5744,35 @@
         <v>2</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I13" s="38">
         <v>12</v>
       </c>
       <c r="J13" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="36" t="s">
         <v>54</v>
-      </c>
-      <c r="K13" s="36" t="s">
-        <v>56</v>
       </c>
       <c r="L13" s="38">
         <v>1.28</v>
       </c>
       <c r="M13" s="36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N13" s="36"/>
       <c r="O13" s="36" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P13" s="39">
         <v>0.41</v>
@@ -5792,7 +5786,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="36">
@@ -5800,35 +5794,35 @@
         <v>2</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I14" s="38">
         <v>12</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L14" s="38">
         <v>1.28</v>
       </c>
       <c r="M14" s="36" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N14" s="36"/>
       <c r="O14" s="36" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P14" s="39">
         <v>0.41</v>
@@ -5842,7 +5836,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="36" t="str">
         <f>VLOOKUP(B15,Mansfield!$D$1:$L$20,9,0)</f>
@@ -5853,35 +5847,35 @@
         <v>2</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="38">
         <v>12</v>
       </c>
       <c r="J15" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="38" t="s">
         <v>55</v>
-      </c>
-      <c r="K15" s="38" t="s">
-        <v>57</v>
       </c>
       <c r="L15" s="38">
         <v>1.6</v>
       </c>
       <c r="M15" s="36" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N15" s="36"/>
       <c r="O15" s="36" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P15" s="39">
         <v>0.41</v>
@@ -5895,7 +5889,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C16" s="36" t="str">
         <f>VLOOKUP(B16,Mansfield!$D$1:$L$20,9,0)</f>
@@ -5906,35 +5900,35 @@
         <v>2</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I16" s="38">
         <v>12</v>
       </c>
       <c r="J16" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="38" t="s">
-        <v>56</v>
-      </c>
       <c r="L16" s="38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M16" s="36" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N16" s="36"/>
       <c r="O16" s="36" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P16" s="39">
         <v>0.41</v>
@@ -5948,7 +5942,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C17" s="36" t="str">
         <f>VLOOKUP(B17,Mansfield!$D$1:$L$20,9,0)</f>
@@ -5959,16 +5953,16 @@
         <v>2</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
@@ -5977,11 +5971,11 @@
         <v>1.6</v>
       </c>
       <c r="M17" s="36" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N17" s="36"/>
       <c r="O17" s="36" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P17" s="39">
         <v>0.41</v>
@@ -5995,7 +5989,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C18" s="15" t="str">
         <f>VLOOKUP(B18,Mansfield!$D$1:$L$20,9,0)</f>
@@ -6009,34 +6003,34 @@
         <v>2467016</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>50</v>
       </c>
       <c r="I18" s="15">
         <v>12</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L18" s="15">
         <v>1.6</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P18" s="28">
         <v>0.34</v>
@@ -6048,7 +6042,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" s="15" t="str">
         <f>VLOOKUP(B19,Mansfield!$D$1:$L$20,9,0)</f>
@@ -6062,13 +6056,13 @@
         <v>4142016</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I19" s="19"/>
       <c r="J19" s="15"/>
@@ -6077,13 +6071,13 @@
         <v>1.6</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P19" s="28">
         <v>0.34</v>
@@ -6095,7 +6089,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C20" s="15" t="str">
         <f>VLOOKUP(B20,Mansfield!$D$1:$L$20,9,0)</f>
@@ -6109,34 +6103,34 @@
         <v>3043001</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G20" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="I20" s="18">
         <v>12</v>
       </c>
       <c r="J20" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="K20" s="15" t="s">
-        <v>56</v>
-      </c>
       <c r="L20" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P20" s="28">
         <v>0.34</v>
@@ -6148,7 +6142,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22">
@@ -6156,16 +6150,16 @@
         <v>2</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
@@ -6174,13 +6168,13 @@
         <v>1.28</v>
       </c>
       <c r="M21" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N21" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O21" s="22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P21" s="29">
         <v>0.34</v>
@@ -6203,16 +6197,16 @@
         <v>2</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
@@ -6221,13 +6215,13 @@
         <v>1.6</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P22" s="28">
         <v>0.34</v>
@@ -6239,7 +6233,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22">
@@ -6247,37 +6241,37 @@
         <v>2</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" s="24">
         <v>12</v>
       </c>
       <c r="J23" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="22" t="s">
         <v>54</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>56</v>
       </c>
       <c r="L23" s="24">
         <v>1.28</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O23" s="22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P23" s="29">
         <v>0.34</v>
@@ -6289,7 +6283,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22">
@@ -6297,37 +6291,37 @@
         <v>2</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I24" s="24">
         <v>12</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L24" s="24">
         <v>1.28</v>
       </c>
       <c r="M24" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N24" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P24" s="29">
         <v>0.34</v>
@@ -6339,7 +6333,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C25" s="15" t="str">
         <f>VLOOKUP(B25,Mansfield!$D$1:$L$20,9,0)</f>
@@ -6350,37 +6344,37 @@
         <v>2</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I25" s="18">
         <v>12</v>
       </c>
       <c r="J25" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>57</v>
       </c>
       <c r="L25" s="18">
         <v>1.28</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P25" s="28">
         <v>0.34</v>
@@ -6392,7 +6386,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C26" s="15" t="str">
         <f>VLOOKUP(B26,Mansfield!$D$1:$L$20,9,0)</f>
@@ -6406,34 +6400,34 @@
         <v>3703100</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I26" s="18">
         <v>12</v>
       </c>
       <c r="J26" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26" s="15" t="s">
         <v>54</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="L26" s="18">
         <v>1.1000000000000001</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P26" s="28">
         <v>0.34</v>
@@ -6445,7 +6439,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C27" s="15" t="str">
         <f>VLOOKUP(B27,Mansfield!$D$1:$L$20,9,0)</f>
@@ -6456,16 +6450,16 @@
         <v>2</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
@@ -6474,13 +6468,13 @@
         <v>1.6</v>
       </c>
       <c r="M27" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P27" s="28">
         <v>0.34</v>
@@ -6492,7 +6486,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C28" s="15" t="str">
         <f>VLOOKUP(B28,Mansfield!$D$1:$L$20,9,0)</f>
@@ -6503,37 +6497,37 @@
         <v>2</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I28" s="18">
         <v>10</v>
       </c>
       <c r="J28" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="15" t="s">
         <v>54</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="L28" s="18">
         <v>1.28</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P28" s="28">
         <v>0.41</v>
@@ -6545,7 +6539,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" s="15" t="str">
         <f>VLOOKUP(B29,Mansfield!$D$1:$L$20,9,0)</f>
@@ -6556,37 +6550,37 @@
         <v>2</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I29" s="18">
         <v>12</v>
       </c>
       <c r="J29" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="15" t="s">
         <v>54</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="L29" s="18">
         <v>1.28</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P29" s="28">
         <v>0.41</v>
@@ -6598,7 +6592,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C30" s="15" t="str">
         <f>VLOOKUP(B30,Mansfield!$D$1:$L$20,9,0)</f>
@@ -6609,37 +6603,37 @@
         <v>3</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I30" s="18">
         <v>12</v>
       </c>
       <c r="J30" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>57</v>
       </c>
       <c r="L30" s="18">
         <v>1.6</v>
       </c>
       <c r="M30" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P30" s="28">
         <v>0.41</v>
@@ -6651,7 +6645,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C31" s="15" t="str">
         <f>VLOOKUP(B31,Mansfield!$D$1:$L$20,9,0)</f>
@@ -6662,37 +6656,37 @@
         <v>1</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I31" s="18">
         <v>12</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L31" s="18">
         <v>1.28</v>
       </c>
       <c r="M31" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P31" s="28">
         <v>0.41</v>
@@ -6704,7 +6698,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C32" s="12" t="str">
         <f>VLOOKUP(B32,Mansfield!$D$1:$L$50,9,0)</f>
@@ -6715,10 +6709,10 @@
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -6727,13 +6721,13 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P32" s="30">
         <v>0.41</v>
@@ -6745,7 +6739,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C33" s="12" t="str">
         <f>VLOOKUP(B33,Mansfield!$D$1:$L$50,9,0)</f>
@@ -6756,10 +6750,10 @@
         <v>2</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -6768,13 +6762,13 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N33" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P33" s="30">
         <v>0.41</v>
@@ -6786,7 +6780,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C34" s="12" t="str">
         <f>VLOOKUP(B34,Mansfield!$D$1:$L$50,9,0)</f>
@@ -6797,10 +6791,10 @@
         <v>2</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -6809,13 +6803,13 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P34" s="30">
         <v>0.41</v>
@@ -6827,7 +6821,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C35" s="12" t="str">
         <f>VLOOKUP(B35,Mansfield!$D$1:$L$50,9,0)</f>
@@ -6838,10 +6832,10 @@
         <v>2</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -6850,13 +6844,13 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N35" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P35" s="30">
         <v>0.41</v>
@@ -6868,7 +6862,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C36" s="12" t="str">
         <f>VLOOKUP(B36,Mansfield!$D$1:$L$50,9,0)</f>
@@ -6879,10 +6873,10 @@
         <v>2</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -6891,13 +6885,13 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P36" s="30">
         <v>0.41</v>
@@ -6909,7 +6903,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C37" s="12" t="str">
         <f>VLOOKUP(B37,Mansfield!$D$1:$L$50,9,0)</f>
@@ -6920,10 +6914,10 @@
         <v>1</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -6932,13 +6926,13 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N37" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P37" s="30">
         <v>0.41</v>
@@ -6950,7 +6944,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C38" s="12" t="str">
         <f>VLOOKUP(B38,Mansfield!$D$1:$L$50,9,0)</f>
@@ -6961,10 +6955,10 @@
         <v>2</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -6973,13 +6967,13 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P38" s="30">
         <v>0.41</v>
@@ -6991,7 +6985,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C39" s="12" t="str">
         <f>VLOOKUP(B39,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7002,10 +6996,10 @@
         <v>2</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -7014,13 +7008,13 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P39" s="30">
         <v>0.41</v>
@@ -7032,7 +7026,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C40" s="12" t="str">
         <f>VLOOKUP(B40,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7043,10 +7037,10 @@
         <v>2</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -7055,13 +7049,13 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N40" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P40" s="30">
         <v>0.41</v>
@@ -7073,7 +7067,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C41" s="12" t="str">
         <f>VLOOKUP(B41,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7084,10 +7078,10 @@
         <v>2</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -7096,13 +7090,13 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N41" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="O41" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="O41" s="5" t="s">
-        <v>266</v>
       </c>
       <c r="P41" s="30">
         <v>0.41</v>
@@ -7114,7 +7108,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C42" s="12" t="str">
         <f>VLOOKUP(B42,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7125,10 +7119,10 @@
         <v>2</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -7137,13 +7131,13 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N42" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P42" s="30">
         <v>0.41</v>
@@ -7155,7 +7149,7 @@
         <v>8</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C43" s="25" t="str">
         <f>VLOOKUP(B43,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7166,10 +7160,10 @@
         <v>2</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
@@ -7178,13 +7172,13 @@
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
       <c r="M43" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N43" s="25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O43" s="25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P43" s="31">
         <v>0.34</v>
@@ -7196,7 +7190,7 @@
         <v>8</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C44" s="25" t="str">
         <f>VLOOKUP(B44,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7207,10 +7201,10 @@
         <v>2</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
@@ -7219,13 +7213,13 @@
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
       <c r="M44" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N44" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O44" s="25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P44" s="31">
         <v>0.34</v>
@@ -7237,7 +7231,7 @@
         <v>8</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C45" s="25" t="str">
         <f>VLOOKUP(B45,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7248,10 +7242,10 @@
         <v>2</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
@@ -7260,13 +7254,13 @@
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
       <c r="M45" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N45" s="25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O45" s="25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P45" s="31">
         <v>0.34</v>
@@ -7278,7 +7272,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C46" s="25" t="str">
         <f>VLOOKUP(B46,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7289,10 +7283,10 @@
         <v>2</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
@@ -7301,13 +7295,13 @@
       <c r="K46" s="25"/>
       <c r="L46" s="25"/>
       <c r="M46" s="25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N46" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O46" s="25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P46" s="31">
         <v>0.34</v>
@@ -7319,7 +7313,7 @@
         <v>8</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C47" s="25" t="str">
         <f>VLOOKUP(B47,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7330,10 +7324,10 @@
         <v>2</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
@@ -7342,13 +7336,13 @@
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
       <c r="M47" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N47" s="25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O47" s="25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P47" s="31">
         <v>0.34</v>
@@ -7360,7 +7354,7 @@
         <v>8</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C48" s="25" t="str">
         <f>VLOOKUP(B48,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7371,10 +7365,10 @@
         <v>2</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
@@ -7383,13 +7377,13 @@
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
       <c r="M48" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N48" s="25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O48" s="25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P48" s="31">
         <v>0.34</v>
@@ -7401,7 +7395,7 @@
         <v>8</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C49" s="25" t="str">
         <f>VLOOKUP(B49,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7412,10 +7406,10 @@
         <v>2</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
@@ -7424,13 +7418,13 @@
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
       <c r="M49" s="25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N49" s="25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O49" s="25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P49" s="31">
         <v>0.34</v>
@@ -7442,7 +7436,7 @@
         <v>8</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C50" s="25" t="str">
         <f>VLOOKUP(B50,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7453,10 +7447,10 @@
         <v>2</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
@@ -7465,13 +7459,13 @@
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
       <c r="M50" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N50" s="27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O50" s="25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P50" s="31">
         <v>0.34</v>
@@ -7483,7 +7477,7 @@
         <v>8</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C51" s="25" t="str">
         <f>VLOOKUP(B51,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7494,10 +7488,10 @@
         <v>2</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
@@ -7506,13 +7500,13 @@
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
       <c r="M51" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N51" s="25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O51" s="25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P51" s="31">
         <v>0.34</v>
@@ -7524,7 +7518,7 @@
         <v>8</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C52" s="25" t="str">
         <f>VLOOKUP(B52,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7535,10 +7529,10 @@
         <v>2</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
@@ -7547,13 +7541,13 @@
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
       <c r="M52" s="25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N52" s="25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O52" s="25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P52" s="31">
         <v>0.34</v>
@@ -7596,8 +7590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C581B3-4A49-4D7E-AF67-B0CA84DD1A3A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q21" sqref="L21:Q31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7625,81 +7619,81 @@
         <v>12</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H2" s="5">
         <v>12</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K2" s="6">
         <v>1.6</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O2" s="5">
         <v>0.42749999999999999</v>
@@ -7711,40 +7705,40 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H3" s="5">
         <v>12</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K3" s="6">
         <v>1.6</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O3" s="5">
         <v>0.42749999999999999</v>
@@ -7756,40 +7750,40 @@
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H4" s="5">
         <v>12</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="K4" s="6">
         <v>1.6</v>
       </c>
       <c r="L4" s="34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O4" s="5">
         <v>0.42749999999999999</v>
@@ -7801,38 +7795,38 @@
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H5" s="5">
         <v>12</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K5" s="6">
         <v>1.28</v>
       </c>
       <c r="L5" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O5" s="5">
         <v>0.42749999999999999</v>
@@ -7844,40 +7838,40 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H6" s="5">
         <v>12</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K6" s="6">
         <v>1.28</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O6" s="5">
         <v>0.42749999999999999</v>
@@ -7889,40 +7883,40 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H7" s="5">
         <v>12</v>
       </c>
       <c r="I7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="K7" s="6">
         <v>1.6</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O7" s="5">
         <v>0.42749999999999999</v>
@@ -7934,40 +7928,40 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H8" s="5">
         <v>12</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K8" s="5">
         <v>1.28</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O8" s="5">
         <v>0.42749999999999999</v>
@@ -7979,40 +7973,40 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="5">
         <v>0.42749999999999999</v>
@@ -8024,40 +8018,40 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H10" s="5">
         <v>12</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K10" s="5">
         <v>1.28</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O10" s="5">
         <v>0.42749999999999999</v>
@@ -8069,40 +8063,40 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O11" s="5">
         <v>0.42749999999999999</v>
@@ -8114,40 +8108,40 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H12" s="5">
         <v>10</v>
       </c>
       <c r="I12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="K12" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O12" s="5">
         <v>0.42749999999999999</v>
@@ -8159,40 +8153,40 @@
     </row>
     <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O13" s="5">
         <v>0.42749999999999999</v>
@@ -8204,7 +8198,7 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -8212,32 +8206,32 @@
         <v>160010007</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O14" s="5">
         <v>0.42749999999999999</v>
@@ -8249,40 +8243,40 @@
     </row>
     <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H15" s="5">
         <v>12</v>
       </c>
       <c r="I15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="K15" s="5">
         <v>1.6</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O15" s="5">
         <v>0.42749999999999999</v>
@@ -8294,40 +8288,40 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H16" s="5">
         <v>12</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K16" s="5">
         <v>1.6</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O16" s="5">
         <v>0.42749999999999999</v>
@@ -8339,40 +8333,40 @@
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H17" s="5">
         <v>12</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K17" s="5">
         <v>1.6</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O17" s="5">
         <v>0.42749999999999999</v>
@@ -8384,40 +8378,40 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="K18" s="5">
         <v>1.6</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O18" s="5">
         <v>0.42749999999999999</v>
@@ -8429,40 +8423,40 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O19" s="5">
         <v>0.42749999999999999</v>
@@ -8474,40 +8468,40 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H20" s="8">
         <v>10</v>
       </c>
       <c r="I20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="K20" s="8">
         <v>1.28</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O20" s="5">
         <v>0.42749999999999999</v>
@@ -8519,15 +8513,15 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -8536,7 +8530,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="14"/>
@@ -8546,15 +8540,15 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -8563,7 +8557,7 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="14"/>
@@ -8573,15 +8567,15 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -8590,7 +8584,7 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="14"/>
@@ -8600,15 +8594,15 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -8617,7 +8611,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="14"/>
@@ -8627,15 +8621,15 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -8644,7 +8638,7 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="14"/>
@@ -8654,15 +8648,15 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -8671,7 +8665,7 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="14"/>
@@ -8681,15 +8675,15 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -8698,7 +8692,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="14"/>
@@ -8708,15 +8702,15 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -8725,7 +8719,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="14"/>
@@ -8735,15 +8729,15 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -8752,7 +8746,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="14"/>
@@ -8762,15 +8756,15 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -8779,7 +8773,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="14"/>
@@ -8789,15 +8783,15 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -8806,7 +8800,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="14"/>
@@ -8839,39 +8833,39 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" t="s">
         <v>233</v>
       </c>
-      <c r="B1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" t="s">
-        <v>235</v>
-      </c>
       <c r="E1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2">
         <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E2">
         <v>110</v>
@@ -8886,16 +8880,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C3">
         <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E3">
         <v>96.63</v>
@@ -8910,16 +8904,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C4">
         <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E4">
         <v>128.22999999999999</v>
@@ -8934,16 +8928,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C5">
         <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F5">
         <v>0.42749999999999999</v>
@@ -8955,16 +8949,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C6">
         <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F6">
         <v>0.42749999999999999</v>
@@ -8976,16 +8970,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C7">
         <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F7">
         <v>0.42749999999999999</v>
@@ -8997,16 +8991,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C8">
         <v>3151</v>
       </c>
       <c r="D8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F8">
         <v>0.42749999999999999</v>
@@ -9018,16 +9012,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C9">
         <v>3486</v>
       </c>
       <c r="D9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F9">
         <v>0.42749999999999999</v>
@@ -9039,16 +9033,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C10">
         <v>384</v>
       </c>
       <c r="D10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F10">
         <v>0.42749999999999999</v>
@@ -9060,13 +9054,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11">
         <v>386</v>
       </c>
       <c r="D11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F11">
         <v>0.42749999999999999</v>
@@ -9078,16 +9072,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C12">
         <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F12">
         <v>0.42749999999999999</v>
@@ -9099,13 +9093,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13">
         <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F13">
         <v>0.42749999999999999</v>

--- a/XX_Master_database/Wholesaler_Database.xlsx
+++ b/XX_Master_database/Wholesaler_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/00_Scrapping_git/XX_Master_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1407" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF12493E-5CC5-4207-ADD9-ED89501033C2}"/>
+  <xr:revisionPtr revIDLastSave="1419" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BCDF189-B6DA-450A-8990-3E54315EC67C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="1" xr2:uid="{BB750D66-C71B-4412-8809-92E47E37BD8E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BB750D66-C71B-4412-8809-92E47E37BD8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Competitors" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Competitors!$A$1:$Q$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Competitors!$A$1:$R$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="271">
   <si>
     <t>GMX20902</t>
   </si>
@@ -846,6 +846,15 @@
   </si>
   <si>
     <t>135010007, 103580000</t>
+  </si>
+  <si>
+    <t>URL_img</t>
+  </si>
+  <si>
+    <t>URL_Img</t>
+  </si>
+  <si>
+    <t>https://www.mansfieldplumbing.com/wp-content/uploads/2020/04/Alto_Combo_130-3173_001_Web-1.jpg</t>
   </si>
 </sst>
 </file>
@@ -5076,11 +5085,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5099,12 +5108,13 @@
     <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="60.140625" customWidth="1"/>
     <col min="14" max="14" width="169" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="82.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -5146,16 +5156,19 @@
         <v>19</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
@@ -5201,15 +5214,16 @@
       <c r="N2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="15"/>
+      <c r="P2" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="P2" s="28">
+      <c r="Q2" s="28">
         <v>0.41</v>
       </c>
-      <c r="Q2" s="15"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" s="15"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
@@ -5255,15 +5269,16 @@
       <c r="N3" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="17"/>
+      <c r="P3" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="P3" s="28">
+      <c r="Q3" s="28">
         <v>0.41</v>
       </c>
-      <c r="Q3" s="15"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="15"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
@@ -5309,15 +5324,16 @@
       <c r="N4" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="17"/>
+      <c r="P4" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="P4" s="28">
+      <c r="Q4" s="28">
         <v>0.41</v>
       </c>
-      <c r="Q4" s="15"/>
-    </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R4" s="15"/>
+    </row>
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
@@ -5362,15 +5378,16 @@
       <c r="N5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="17"/>
+      <c r="P5" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="P5" s="28">
+      <c r="Q5" s="28">
         <v>0.34</v>
       </c>
-      <c r="Q5" s="15"/>
-    </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R5" s="15"/>
+    </row>
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
@@ -5416,15 +5433,16 @@
       <c r="N6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="17"/>
+      <c r="P6" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="P6" s="28">
+      <c r="Q6" s="28">
         <v>0.34</v>
       </c>
-      <c r="Q6" s="15"/>
-    </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="15"/>
+    </row>
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
@@ -5470,15 +5488,16 @@
       <c r="N7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="15"/>
+      <c r="P7" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="P7" s="28">
+      <c r="Q7" s="28">
         <v>0.34</v>
       </c>
-      <c r="Q7" s="15"/>
-    </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R7" s="15"/>
+    </row>
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>8</v>
       </c>
@@ -5524,15 +5543,16 @@
       <c r="N8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="O8" s="15"/>
+      <c r="P8" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="P8" s="28">
+      <c r="Q8" s="28">
         <v>0.34</v>
       </c>
-      <c r="Q8" s="15"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" s="15"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>4</v>
       </c>
@@ -5578,15 +5598,16 @@
       <c r="N9" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="O9" s="17"/>
+      <c r="P9" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="P9" s="28">
+      <c r="Q9" s="28">
         <v>0.34</v>
       </c>
-      <c r="Q9" s="15"/>
-    </row>
-    <row r="10" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="15"/>
+    </row>
+    <row r="10" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>4</v>
       </c>
@@ -5626,17 +5647,18 @@
         <v>221</v>
       </c>
       <c r="N10" s="36"/>
-      <c r="O10" s="36" t="s">
+      <c r="O10" s="36"/>
+      <c r="P10" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="P10" s="39">
+      <c r="Q10" s="39">
         <v>0.41</v>
       </c>
-      <c r="Q10" s="36">
+      <c r="R10" s="36">
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>4</v>
       </c>
@@ -5672,17 +5694,18 @@
         <v>222</v>
       </c>
       <c r="N11" s="36"/>
-      <c r="O11" s="36" t="s">
+      <c r="O11" s="36"/>
+      <c r="P11" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="P11" s="39">
+      <c r="Q11" s="39">
         <v>0.41</v>
       </c>
-      <c r="Q11" s="36">
+      <c r="R11" s="36">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>4</v>
       </c>
@@ -5721,17 +5744,18 @@
         <v>223</v>
       </c>
       <c r="N12" s="36"/>
-      <c r="O12" s="36" t="s">
+      <c r="O12" s="36"/>
+      <c r="P12" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="P12" s="39">
+      <c r="Q12" s="39">
         <v>0.41</v>
       </c>
-      <c r="Q12" s="36">
+      <c r="R12" s="36">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
         <v>4</v>
       </c>
@@ -5771,17 +5795,18 @@
         <v>225</v>
       </c>
       <c r="N13" s="36"/>
-      <c r="O13" s="36" t="s">
+      <c r="O13" s="36"/>
+      <c r="P13" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="P13" s="39">
+      <c r="Q13" s="39">
         <v>0.41</v>
       </c>
-      <c r="Q13" s="36">
+      <c r="R13" s="36">
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
         <v>4</v>
       </c>
@@ -5821,17 +5846,18 @@
         <v>224</v>
       </c>
       <c r="N14" s="36"/>
-      <c r="O14" s="36" t="s">
+      <c r="O14" s="36"/>
+      <c r="P14" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="P14" s="39">
+      <c r="Q14" s="39">
         <v>0.41</v>
       </c>
-      <c r="Q14" s="36">
+      <c r="R14" s="36">
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>4</v>
       </c>
@@ -5874,17 +5900,18 @@
         <v>226</v>
       </c>
       <c r="N15" s="36"/>
-      <c r="O15" s="36" t="s">
+      <c r="O15" s="36"/>
+      <c r="P15" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="P15" s="39">
+      <c r="Q15" s="39">
         <v>0.41</v>
       </c>
-      <c r="Q15" s="36">
+      <c r="R15" s="36">
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>4</v>
       </c>
@@ -5927,17 +5954,18 @@
         <v>227</v>
       </c>
       <c r="N16" s="36"/>
-      <c r="O16" s="36" t="s">
+      <c r="O16" s="36"/>
+      <c r="P16" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="P16" s="39">
+      <c r="Q16" s="39">
         <v>0.41</v>
       </c>
-      <c r="Q16" s="36">
+      <c r="R16" s="36">
         <v>546</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
         <v>4</v>
       </c>
@@ -5974,17 +6002,18 @@
         <v>228</v>
       </c>
       <c r="N17" s="36"/>
-      <c r="O17" s="36" t="s">
+      <c r="O17" s="36"/>
+      <c r="P17" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="P17" s="39">
+      <c r="Q17" s="39">
         <v>0.41</v>
       </c>
-      <c r="Q17" s="36">
+      <c r="R17" s="36">
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>8</v>
       </c>
@@ -6029,15 +6058,16 @@
       <c r="N18" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="O18" s="15" t="s">
+      <c r="O18" s="17"/>
+      <c r="P18" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="P18" s="28">
+      <c r="Q18" s="28">
         <v>0.34</v>
       </c>
-      <c r="Q18" s="15"/>
-    </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="15"/>
+    </row>
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>8</v>
       </c>
@@ -6076,15 +6106,16 @@
       <c r="N19" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="O19" s="15" t="s">
+      <c r="O19" s="17"/>
+      <c r="P19" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="P19" s="28">
+      <c r="Q19" s="28">
         <v>0.34</v>
       </c>
-      <c r="Q19" s="15"/>
-    </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R19" s="15"/>
+    </row>
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>8</v>
       </c>
@@ -6129,15 +6160,16 @@
       <c r="N20" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="O20" s="15" t="s">
+      <c r="O20" s="15"/>
+      <c r="P20" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="P20" s="28">
+      <c r="Q20" s="28">
         <v>0.34</v>
       </c>
-      <c r="Q20" s="15"/>
-    </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R20" s="15"/>
+    </row>
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>8</v>
       </c>
@@ -6173,15 +6205,16 @@
       <c r="N21" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="O21" s="22" t="s">
+      <c r="O21" s="22"/>
+      <c r="P21" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="P21" s="29">
+      <c r="Q21" s="29">
         <v>0.34</v>
       </c>
-      <c r="Q21" s="22"/>
-    </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="22"/>
+    </row>
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>8</v>
       </c>
@@ -6220,15 +6253,16 @@
       <c r="N22" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="O22" s="15" t="s">
+      <c r="O22" s="15"/>
+      <c r="P22" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="P22" s="28">
+      <c r="Q22" s="28">
         <v>0.34</v>
       </c>
-      <c r="Q22" s="15"/>
-    </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R22" s="15"/>
+    </row>
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>8</v>
       </c>
@@ -6270,15 +6304,16 @@
       <c r="N23" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="O23" s="22" t="s">
+      <c r="O23" s="22"/>
+      <c r="P23" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="P23" s="29">
+      <c r="Q23" s="29">
         <v>0.34</v>
       </c>
-      <c r="Q23" s="22"/>
-    </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R23" s="22"/>
+    </row>
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>8</v>
       </c>
@@ -6320,15 +6355,16 @@
       <c r="N24" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="O24" s="22" t="s">
+      <c r="O24" s="22"/>
+      <c r="P24" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="P24" s="29">
+      <c r="Q24" s="29">
         <v>0.34</v>
       </c>
-      <c r="Q24" s="22"/>
-    </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R24" s="22"/>
+    </row>
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>8</v>
       </c>
@@ -6373,15 +6409,16 @@
       <c r="N25" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="O25" s="15" t="s">
+      <c r="O25" s="15"/>
+      <c r="P25" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="P25" s="28">
+      <c r="Q25" s="28">
         <v>0.34</v>
       </c>
-      <c r="Q25" s="15"/>
-    </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R25" s="15"/>
+    </row>
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>8</v>
       </c>
@@ -6426,15 +6463,16 @@
       <c r="N26" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="O26" s="15" t="s">
+      <c r="O26" s="15"/>
+      <c r="P26" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="P26" s="28">
+      <c r="Q26" s="28">
         <v>0.34</v>
       </c>
-      <c r="Q26" s="15"/>
-    </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R26" s="15"/>
+    </row>
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>8</v>
       </c>
@@ -6473,15 +6511,16 @@
       <c r="N27" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="O27" s="15" t="s">
+      <c r="O27" s="15"/>
+      <c r="P27" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="P27" s="28">
+      <c r="Q27" s="28">
         <v>0.34</v>
       </c>
-      <c r="Q27" s="15"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27" s="15"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>4</v>
       </c>
@@ -6526,15 +6565,16 @@
       <c r="N28" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="O28" s="15" t="s">
+      <c r="O28" s="15"/>
+      <c r="P28" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="P28" s="28">
+      <c r="Q28" s="28">
         <v>0.41</v>
       </c>
-      <c r="Q28" s="15"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28" s="15"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>4</v>
       </c>
@@ -6579,15 +6619,16 @@
       <c r="N29" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="O29" s="15" t="s">
+      <c r="O29" s="15"/>
+      <c r="P29" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="P29" s="28">
+      <c r="Q29" s="28">
         <v>0.41</v>
       </c>
-      <c r="Q29" s="15"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29" s="15"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>4</v>
       </c>
@@ -6632,15 +6673,16 @@
       <c r="N30" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="O30" s="15" t="s">
+      <c r="O30" s="15"/>
+      <c r="P30" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="P30" s="28">
+      <c r="Q30" s="28">
         <v>0.41</v>
       </c>
-      <c r="Q30" s="15"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30" s="15"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>4</v>
       </c>
@@ -6685,15 +6727,16 @@
       <c r="N31" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="O31" s="15" t="s">
+      <c r="O31" s="15"/>
+      <c r="P31" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="P31" s="28">
+      <c r="Q31" s="28">
         <v>0.41</v>
       </c>
-      <c r="Q31" s="15"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31" s="15"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
@@ -6726,15 +6769,16 @@
       <c r="N32" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="O32" s="5" t="s">
+      <c r="O32" s="13"/>
+      <c r="P32" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="P32" s="30">
+      <c r="Q32" s="30">
         <v>0.41</v>
       </c>
-      <c r="Q32" s="5"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32" s="5"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -6767,15 +6811,16 @@
       <c r="N33" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="O33" s="5" t="s">
+      <c r="O33" s="13"/>
+      <c r="P33" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="P33" s="30">
+      <c r="Q33" s="30">
         <v>0.41</v>
       </c>
-      <c r="Q33" s="5"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33" s="5"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>4</v>
       </c>
@@ -6808,15 +6853,16 @@
       <c r="N34" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="O34" s="5" t="s">
+      <c r="O34" s="5"/>
+      <c r="P34" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="P34" s="30">
+      <c r="Q34" s="30">
         <v>0.41</v>
       </c>
-      <c r="Q34" s="5"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34" s="5"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
@@ -6849,15 +6895,16 @@
       <c r="N35" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="O35" s="5" t="s">
+      <c r="O35" s="13"/>
+      <c r="P35" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="P35" s="30">
+      <c r="Q35" s="30">
         <v>0.41</v>
       </c>
-      <c r="Q35" s="5"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35" s="5"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
@@ -6890,15 +6937,16 @@
       <c r="N36" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="O36" s="5" t="s">
+      <c r="O36" s="13"/>
+      <c r="P36" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="P36" s="30">
+      <c r="Q36" s="30">
         <v>0.41</v>
       </c>
-      <c r="Q36" s="5"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36" s="5"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
@@ -6931,15 +6979,16 @@
       <c r="N37" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="O37" s="5" t="s">
+      <c r="O37" s="13"/>
+      <c r="P37" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="P37" s="30">
+      <c r="Q37" s="30">
         <v>0.41</v>
       </c>
-      <c r="Q37" s="5"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37" s="5"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
@@ -6972,15 +7021,16 @@
       <c r="N38" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="O38" s="5" t="s">
+      <c r="O38" s="13"/>
+      <c r="P38" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="P38" s="30">
+      <c r="Q38" s="30">
         <v>0.41</v>
       </c>
-      <c r="Q38" s="5"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38" s="5"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>4</v>
       </c>
@@ -7013,15 +7063,16 @@
       <c r="N39" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="O39" s="5" t="s">
+      <c r="O39" s="5"/>
+      <c r="P39" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="P39" s="30">
+      <c r="Q39" s="30">
         <v>0.41</v>
       </c>
-      <c r="Q39" s="5"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39" s="5"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>4</v>
       </c>
@@ -7054,15 +7105,16 @@
       <c r="N40" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="O40" s="5" t="s">
+      <c r="O40" s="13"/>
+      <c r="P40" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="P40" s="30">
+      <c r="Q40" s="30">
         <v>0.41</v>
       </c>
-      <c r="Q40" s="5"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40" s="5"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>4</v>
       </c>
@@ -7095,15 +7147,16 @@
       <c r="N41" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="O41" s="5" t="s">
+      <c r="O41" s="13"/>
+      <c r="P41" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="P41" s="30">
+      <c r="Q41" s="30">
         <v>0.41</v>
       </c>
-      <c r="Q41" s="5"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41" s="5"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -7136,15 +7189,16 @@
       <c r="N42" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="O42" s="5" t="s">
+      <c r="O42" s="13"/>
+      <c r="P42" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="P42" s="30">
+      <c r="Q42" s="30">
         <v>0.41</v>
       </c>
-      <c r="Q42" s="5"/>
-    </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R42" s="5"/>
+    </row>
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>8</v>
       </c>
@@ -7177,15 +7231,16 @@
       <c r="N43" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="O43" s="25" t="s">
+      <c r="O43" s="25"/>
+      <c r="P43" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="P43" s="31">
+      <c r="Q43" s="31">
         <v>0.34</v>
       </c>
-      <c r="Q43" s="5"/>
-    </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R43" s="5"/>
+    </row>
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
         <v>8</v>
       </c>
@@ -7218,15 +7273,16 @@
       <c r="N44" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="O44" s="25" t="s">
+      <c r="O44" s="25"/>
+      <c r="P44" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="P44" s="31">
+      <c r="Q44" s="31">
         <v>0.34</v>
       </c>
-      <c r="Q44" s="5"/>
-    </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R44" s="5"/>
+    </row>
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>8</v>
       </c>
@@ -7259,15 +7315,16 @@
       <c r="N45" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="O45" s="25" t="s">
+      <c r="O45" s="25"/>
+      <c r="P45" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="P45" s="31">
+      <c r="Q45" s="31">
         <v>0.34</v>
       </c>
-      <c r="Q45" s="5"/>
-    </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R45" s="5"/>
+    </row>
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
         <v>8</v>
       </c>
@@ -7300,15 +7357,16 @@
       <c r="N46" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="O46" s="25" t="s">
+      <c r="O46" s="25"/>
+      <c r="P46" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="P46" s="31">
+      <c r="Q46" s="31">
         <v>0.34</v>
       </c>
-      <c r="Q46" s="5"/>
-    </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R46" s="5"/>
+    </row>
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
         <v>8</v>
       </c>
@@ -7341,15 +7399,16 @@
       <c r="N47" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="O47" s="25" t="s">
+      <c r="O47" s="25"/>
+      <c r="P47" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="P47" s="31">
+      <c r="Q47" s="31">
         <v>0.34</v>
       </c>
-      <c r="Q47" s="5"/>
-    </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R47" s="5"/>
+    </row>
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
         <v>8</v>
       </c>
@@ -7382,15 +7441,16 @@
       <c r="N48" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="O48" s="25" t="s">
+      <c r="O48" s="25"/>
+      <c r="P48" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="P48" s="31">
+      <c r="Q48" s="31">
         <v>0.34</v>
       </c>
-      <c r="Q48" s="5"/>
-    </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R48" s="5"/>
+    </row>
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
         <v>8</v>
       </c>
@@ -7423,15 +7483,16 @@
       <c r="N49" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="O49" s="25" t="s">
+      <c r="O49" s="25"/>
+      <c r="P49" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="P49" s="31">
+      <c r="Q49" s="31">
         <v>0.34</v>
       </c>
-      <c r="Q49" s="5"/>
-    </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R49" s="5"/>
+    </row>
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
         <v>8</v>
       </c>
@@ -7464,15 +7525,16 @@
       <c r="N50" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="O50" s="25" t="s">
+      <c r="O50" s="27"/>
+      <c r="P50" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="P50" s="31">
+      <c r="Q50" s="31">
         <v>0.34</v>
       </c>
-      <c r="Q50" s="5"/>
-    </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R50" s="5"/>
+    </row>
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
         <v>8</v>
       </c>
@@ -7505,15 +7567,16 @@
       <c r="N51" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="O51" s="25" t="s">
+      <c r="O51" s="25"/>
+      <c r="P51" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="P51" s="31">
+      <c r="Q51" s="31">
         <v>0.34</v>
       </c>
-      <c r="Q51" s="5"/>
-    </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R51" s="5"/>
+    </row>
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
         <v>8</v>
       </c>
@@ -7546,16 +7609,17 @@
       <c r="N52" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="O52" s="25" t="s">
+      <c r="O52" s="25"/>
+      <c r="P52" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="P52" s="31">
+      <c r="Q52" s="31">
         <v>0.34</v>
       </c>
-      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q52" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}">
+  <autoFilter ref="A1:R52" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}">
     <filterColumn colId="0">
       <filters>
         <filter val="Gerber"/>
@@ -7588,10 +7652,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C581B3-4A49-4D7E-AF67-B0CA84DD1A3A}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7601,11 +7665,13 @@
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="62.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.5703125" customWidth="1"/>
+    <col min="14" max="14" width="100.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -7646,19 +7712,22 @@
         <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
@@ -7691,19 +7760,22 @@
       <c r="L2" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="13"/>
+      <c r="N2" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="5">
+      <c r="P2" s="5">
         <v>0.42749999999999999</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5">
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5">
         <v>206.63</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
@@ -7737,18 +7809,19 @@
         <v>121</v>
       </c>
       <c r="M3" s="5"/>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="5">
+      <c r="P3" s="5">
         <v>0.42749999999999999</v>
       </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5">
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5">
         <v>224.85999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
@@ -7782,18 +7855,19 @@
         <v>122</v>
       </c>
       <c r="M4" s="5"/>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="5"/>
+      <c r="O4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="5">
+      <c r="P4" s="5">
         <v>0.42749999999999999</v>
       </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5">
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5">
         <v>317.63</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>39</v>
       </c>
@@ -7825,18 +7899,19 @@
         <v>123</v>
       </c>
       <c r="M5" s="5"/>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="5"/>
+      <c r="O5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>0.42749999999999999</v>
       </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5">
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5">
         <v>354.87</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>38</v>
       </c>
@@ -7870,18 +7945,19 @@
         <v>124</v>
       </c>
       <c r="M6" s="5"/>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="5"/>
+      <c r="O6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="5">
+      <c r="P6" s="5">
         <v>0.42749999999999999</v>
       </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5">
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5">
         <v>357.52</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
@@ -7915,18 +7991,19 @@
         <v>125</v>
       </c>
       <c r="M7" s="5"/>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="5"/>
+      <c r="O7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <v>0.42749999999999999</v>
       </c>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5">
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5">
         <v>644.74</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
@@ -7960,18 +8037,19 @@
         <v>126</v>
       </c>
       <c r="M8" s="5"/>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="5"/>
+      <c r="O8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="5">
         <v>0.42749999999999999</v>
       </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="11">
+      <c r="Q8" s="5"/>
+      <c r="R8" s="11">
         <v>52.257166153334992</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
@@ -8005,18 +8083,19 @@
         <v>143</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="5"/>
+      <c r="O9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="5">
         <v>0.42749999999999999</v>
       </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="11">
+      <c r="Q9" s="5"/>
+      <c r="R9" s="11">
         <v>90.068346141637491</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
@@ -8050,18 +8129,19 @@
         <v>144</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="5">
+      <c r="P10" s="5">
         <v>0.42749999999999999</v>
       </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="11">
+      <c r="Q10" s="5"/>
+      <c r="R10" s="11">
         <v>39.382151105261244</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>38</v>
       </c>
@@ -8095,18 +8175,19 @@
         <v>129</v>
       </c>
       <c r="M11" s="5"/>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="5"/>
+      <c r="O11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="5">
         <v>0.42749999999999999</v>
       </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="11">
+      <c r="Q11" s="5"/>
+      <c r="R11" s="11">
         <v>165.65897915102249</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
@@ -8140,18 +8221,19 @@
         <v>130</v>
       </c>
       <c r="M12" s="5"/>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="5"/>
+      <c r="O12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="5">
+      <c r="P12" s="5">
         <v>0.42749999999999999</v>
       </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="11">
+      <c r="Q12" s="5"/>
+      <c r="R12" s="11">
         <v>117.11139459698248</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
@@ -8185,18 +8267,19 @@
         <v>131</v>
       </c>
       <c r="M13" s="5"/>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="5"/>
+      <c r="O13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P13" s="5">
         <v>0.42749999999999999</v>
       </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="11">
+      <c r="Q13" s="5"/>
+      <c r="R13" s="11">
         <v>41.3095536973387</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
@@ -8230,18 +8313,19 @@
         <v>248</v>
       </c>
       <c r="M14" s="5"/>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="5"/>
+      <c r="O14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O14" s="5">
+      <c r="P14" s="5">
         <v>0.42749999999999999</v>
       </c>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="11">
+      <c r="Q14" s="5"/>
+      <c r="R14" s="11">
         <v>41.309324999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
@@ -8275,18 +8359,19 @@
         <v>132</v>
       </c>
       <c r="M15" s="5"/>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="5"/>
+      <c r="O15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="5">
+      <c r="P15" s="5">
         <v>0.42749999999999999</v>
       </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="11">
+      <c r="Q15" s="5"/>
+      <c r="R15" s="11">
         <v>94.481695102577731</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>38</v>
       </c>
@@ -8320,18 +8405,19 @@
         <v>133</v>
       </c>
       <c r="M16" s="5"/>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="5"/>
+      <c r="O16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="5">
+      <c r="P16" s="5">
         <v>0.42749999999999999</v>
       </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="11">
+      <c r="Q16" s="5"/>
+      <c r="R16" s="11">
         <v>54.817767294848409</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>38</v>
       </c>
@@ -8365,18 +8451,19 @@
         <v>134</v>
       </c>
       <c r="M17" s="5"/>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="5"/>
+      <c r="O17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O17" s="5">
+      <c r="P17" s="5">
         <v>0.42749999999999999</v>
       </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="11">
+      <c r="Q17" s="5"/>
+      <c r="R17" s="11">
         <v>47.024419817793579</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
@@ -8410,18 +8497,19 @@
         <v>135</v>
       </c>
       <c r="M18" s="5"/>
-      <c r="N18" s="5" t="s">
+      <c r="N18" s="5"/>
+      <c r="O18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O18" s="5">
+      <c r="P18" s="5">
         <v>0.42749999999999999</v>
       </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="11">
+      <c r="Q18" s="5"/>
+      <c r="R18" s="11">
         <v>212.23939813904951</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
@@ -8455,18 +8543,19 @@
         <v>136</v>
       </c>
       <c r="M19" s="5"/>
-      <c r="N19" s="5" t="s">
+      <c r="N19" s="5"/>
+      <c r="O19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="5">
+      <c r="P19" s="5">
         <v>0.42749999999999999</v>
       </c>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="11">
+      <c r="Q19" s="5"/>
+      <c r="R19" s="11">
         <v>49.064810425312494</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
@@ -8500,18 +8589,19 @@
         <v>137</v>
       </c>
       <c r="M20" s="5"/>
-      <c r="N20" s="5" t="s">
+      <c r="N20" s="5"/>
+      <c r="O20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O20" s="5">
+      <c r="P20" s="5">
         <v>0.42749999999999999</v>
       </c>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="11">
+      <c r="Q20" s="5"/>
+      <c r="R20" s="11">
         <v>117.11139459698248</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
@@ -8533,12 +8623,13 @@
         <v>246</v>
       </c>
       <c r="M21" s="5"/>
-      <c r="N21" s="14"/>
+      <c r="N21" s="5"/>
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21" s="14"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
@@ -8560,12 +8651,13 @@
         <v>247</v>
       </c>
       <c r="M22" s="5"/>
-      <c r="N22" s="14"/>
+      <c r="N22" s="5"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" s="14"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
@@ -8587,12 +8679,13 @@
         <v>158</v>
       </c>
       <c r="M23" s="5"/>
-      <c r="N23" s="14"/>
+      <c r="N23" s="5"/>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23" s="14"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
@@ -8614,12 +8707,13 @@
         <v>157</v>
       </c>
       <c r="M24" s="5"/>
-      <c r="N24" s="14"/>
+      <c r="N24" s="5"/>
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24" s="14"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
@@ -8641,12 +8735,13 @@
         <v>159</v>
       </c>
       <c r="M25" s="5"/>
-      <c r="N25" s="14"/>
+      <c r="N25" s="5"/>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25" s="14"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>38</v>
       </c>
@@ -8668,12 +8763,13 @@
         <v>160</v>
       </c>
       <c r="M26" s="5"/>
-      <c r="N26" s="14"/>
+      <c r="N26" s="5"/>
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26" s="14"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
@@ -8695,12 +8791,13 @@
         <v>161</v>
       </c>
       <c r="M27" s="5"/>
-      <c r="N27" s="14"/>
+      <c r="N27" s="5"/>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27" s="14"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>38</v>
       </c>
@@ -8722,12 +8819,13 @@
         <v>162</v>
       </c>
       <c r="M28" s="5"/>
-      <c r="N28" s="14"/>
+      <c r="N28" s="5"/>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28" s="14"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>38</v>
       </c>
@@ -8749,12 +8847,13 @@
         <v>163</v>
       </c>
       <c r="M29" s="5"/>
-      <c r="N29" s="14"/>
+      <c r="N29" s="5"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29" s="14"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>38</v>
       </c>
@@ -8776,12 +8875,13 @@
         <v>164</v>
       </c>
       <c r="M30" s="5"/>
-      <c r="N30" s="14"/>
+      <c r="N30" s="5"/>
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
       <c r="Q30" s="14"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30" s="14"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>38</v>
       </c>
@@ -8803,14 +8903,18 @@
         <v>165</v>
       </c>
       <c r="M31" s="5"/>
-      <c r="N31" s="14"/>
+      <c r="N31" s="5"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{6B464FC2-D195-4FF7-BC5B-B0CBC9FFD99F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/XX_Master_database/Wholesaler_Database.xlsx
+++ b/XX_Master_database/Wholesaler_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/00_Scrapping_git/XX_Master_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1419" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BCDF189-B6DA-450A-8990-3E54315EC67C}"/>
+  <xr:revisionPtr revIDLastSave="1445" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4927EF73-2277-4C73-8BF5-4A93B6343DE1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BB750D66-C71B-4412-8809-92E47E37BD8E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{BB750D66-C71B-4412-8809-92E47E37BD8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Competitors" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="303">
   <si>
     <t>GMX20902</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Price Type</t>
   </si>
   <si>
-    <t>Price List</t>
-  </si>
-  <si>
     <t>Margen</t>
   </si>
   <si>
@@ -422,36 +419,15 @@
     <t>QUANTUM 148123 1.6 EL  SMARTHEIGHT Combo</t>
   </si>
   <si>
-    <t xml:space="preserve">OPP 1035 EL  Bowl                                                                               </t>
-  </si>
-  <si>
     <t>Rear</t>
   </si>
   <si>
     <t>Adriatic</t>
   </si>
   <si>
-    <t xml:space="preserve">QUANTUM TANK  123 LH                                                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMEMRCIAL BOWL 1319 EL  1.28                                                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALTO TANK 3173 CTL 1.28                                                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALTO BOWL 137 1.6                                                                                 </t>
-  </si>
-  <si>
     <t>ALTO BOWL 135 EL 1.6</t>
   </si>
   <si>
-    <t xml:space="preserve">ALTO BOWL 130 1.6                                                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALTO BOWL 151 EL ADA 1.6                                                                                 </t>
-  </si>
-  <si>
     <t xml:space="preserve">SUMMIT TANK 386      </t>
   </si>
   <si>
@@ -518,12 +494,6 @@
     <t>328 4" LAV</t>
   </si>
   <si>
-    <t>292 4" LAV</t>
-  </si>
-  <si>
-    <t>218NS PET COVINGTON LAV</t>
-  </si>
-  <si>
     <t>239 4" MS ROUND LAV</t>
   </si>
   <si>
@@ -782,9 +752,6 @@
     <t>Multiplier</t>
   </si>
   <si>
-    <t>237 4" WHT MS OVAL 20X17</t>
-  </si>
-  <si>
     <t>217 Lav</t>
   </si>
   <si>
@@ -854,7 +821,136 @@
     <t>URL_Img</t>
   </si>
   <si>
-    <t>https://www.mansfieldplumbing.com/wp-content/uploads/2020/04/Alto_Combo_130-3173_001_Web-1.jpg</t>
+    <t>https://library.coburns.com/Images/IMAGE_Gerber-Plumbing_28-380.jpg?width=600&amp;height=600&amp;mode=max</t>
+  </si>
+  <si>
+    <t>https://library.coburns.com/Images/IMAGE_Gerber-Plumbing_28-990.jpg?width=600&amp;height=600&amp;mode=max</t>
+  </si>
+  <si>
+    <t>https://library.coburns.com/Images/IMAGE_Gerber-Plumbing_MX-28-990.jpg?width=600&amp;height=600&amp;mode=max</t>
+  </si>
+  <si>
+    <t>https://library.coburns.com/Images/GERBER-GERG00MX21928.PNG.jpg?width=600&amp;height=600&amp;mode=max</t>
+  </si>
+  <si>
+    <t>https://library.coburns.com/Images/GERBER-GERG00MX21962.PNG.jpg?width=600&amp;height=600&amp;mode=max</t>
+  </si>
+  <si>
+    <t>https://library.coburns.com/Images/GERBER-GERG00MX21952.PNG.jpg?width=600&amp;height=600&amp;mode=max</t>
+  </si>
+  <si>
+    <t>https://library.coburns.com/Images/GBR-GUF21375.JPEG.jpg?width=600&amp;height=600&amp;mode=max</t>
+  </si>
+  <si>
+    <t>https://library.coburns.com/Images/IMAGE_Gerber-Plumbing_VP-28-590.jpg?width=600&amp;height=600&amp;mode=max</t>
+  </si>
+  <si>
+    <t>237 Lav</t>
+  </si>
+  <si>
+    <t>292 Lav</t>
+  </si>
+  <si>
+    <t>218 COVINGTON LAV</t>
+  </si>
+  <si>
+    <t>https://www.mansfieldplumbing.com/wp-content/uploads/2020/04/Alto_Combo_130-160_003_Web-768x768.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mansfieldplumbing.com/wp-content/uploads/2020/04/Alto_Combo_135-160_003_Web-1-768x768.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mansfieldplumbing.com/wp-content/uploads/2020/04/Alto_Combo_137-160_003_Web-768x768.jpg</t>
+  </si>
+  <si>
+    <t>http://vortens.com/files/cache/a19439b3473c1b290f856184d8cd0266_f438.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mansfieldplumbing.com/wp-content/uploads/2020/04/Summit_Combo_384-3386_003_Web-768x768.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mansfieldplumbing.com/wp-content/uploads/2020/04/Quantum_Combo_148-10-123_003_Web-768x768.jpg</t>
+  </si>
+  <si>
+    <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-123010000-327.jpg</t>
+  </si>
+  <si>
+    <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-131900001-233.jpg</t>
+  </si>
+  <si>
+    <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-317310000-423.jpg</t>
+  </si>
+  <si>
+    <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-160010007-354.jpg</t>
+  </si>
+  <si>
+    <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-137210040-241.jpg</t>
+  </si>
+  <si>
+    <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-135010007-238.jpg</t>
+  </si>
+  <si>
+    <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-130010007-224.jpg</t>
+  </si>
+  <si>
+    <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-151010000-262.jpg</t>
+  </si>
+  <si>
+    <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-386010000-436.jpg</t>
+  </si>
+  <si>
+    <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-237410000-50.jpg</t>
+  </si>
+  <si>
+    <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-217010070-39.jpg</t>
+  </si>
+  <si>
+    <t>https://www.wfsltd.com/media/catalog/product/cache/ae0bfa1269cee2a368605bd1f5c32441/d/2/d252fe252f9252f4252fde94b9970391ecef84323b92121b079b56c229dd_altoiv_pedestal_lav_292__3.jpg</t>
+  </si>
+  <si>
+    <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-328410000-181.jpg</t>
+  </si>
+  <si>
+    <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-218010001-42.jpg</t>
+  </si>
+  <si>
+    <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-239410000-57.jpg</t>
+  </si>
+  <si>
+    <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-348410040-203.jpg</t>
+  </si>
+  <si>
+    <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-272410070-118.jpg</t>
+  </si>
+  <si>
+    <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-251410000-68.jpg</t>
+  </si>
+  <si>
+    <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-234010001-45.jpg</t>
+  </si>
+  <si>
+    <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-328810000-184.jpg</t>
+  </si>
+  <si>
+    <t>ALTO BOWL 151 EL ADA 1.6</t>
+  </si>
+  <si>
+    <t>OPP 1035 EL  Bowl</t>
+  </si>
+  <si>
+    <t>QUANTUM TANK  123 LH</t>
+  </si>
+  <si>
+    <t>ALTO TANK 3173 CTL 1.28</t>
+  </si>
+  <si>
+    <t>ALTO BOWL 137 1.6</t>
+  </si>
+  <si>
+    <t>ALTO BOWL 130 1.6</t>
+  </si>
+  <si>
+    <t>COMEMRCIAL BOWL 1319 EL  1.28</t>
   </si>
 </sst>
 </file>
@@ -864,7 +960,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -887,13 +983,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -902,20 +991,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1018,17 +1094,11 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1038,19 +1108,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1066,19 +1133,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1087,6 +1148,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -5084,12 +5149,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5108,7 +5172,7 @@
     <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="60.140625" customWidth="1"/>
     <col min="14" max="14" width="169" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="82.140625" customWidth="1"/>
+    <col min="15" max="15" width="105.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -5135,10 +5199,10 @@
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>15</v>
@@ -5156,7 +5220,7 @@
         <v>19</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>20</v>
@@ -5164,2468 +5228,2478 @@
       <c r="Q1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>264</v>
+      <c r="R1" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="15" t="str">
+      <c r="B2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="12" t="str">
         <f>VLOOKUP(B2,Mansfield!$D$1:$L$20,9,0)</f>
         <v>Alto 130/160 RF 1.6 Combo</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="12">
         <f t="shared" ref="D2:D33" si="0">COUNTIF($B$2:$B$52,B2)</f>
         <v>3</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="15" t="str">
+      <c r="F2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="12" t="str">
         <f>VLOOKUP(E2,[1]query!$D:$O,4,0)</f>
         <v>Maxwell</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="15">
         <v>12</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="18">
+      <c r="J2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="15">
         <v>1.6</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="N2" s="15" t="s">
+      <c r="M2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q2" s="28">
+      <c r="O2" s="12"/>
+      <c r="P2" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q2" s="25">
         <v>0.41</v>
       </c>
-      <c r="R2" s="15"/>
+      <c r="R2" s="12"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="15" t="str">
+      <c r="B3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="12" t="str">
         <f>VLOOKUP(B3,Mansfield!$D$1:$L$20,9,0)</f>
         <v>Alto 135/160  El 1.6 Combo</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="15" t="str">
+      <c r="F3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="12" t="str">
         <f>VLOOKUP(E3,[1]query!$D:$O,4,0)</f>
         <v>Maxwell</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="15">
         <v>12</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="18">
+      <c r="L3" s="15">
         <v>1.6</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="N3" s="17" t="s">
+      <c r="M3" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="O3" s="14"/>
+      <c r="P3" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q3" s="28">
+      <c r="Q3" s="25">
         <v>0.41</v>
       </c>
-      <c r="R3" s="15"/>
+      <c r="R3" s="12"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="15" t="str">
+      <c r="B4" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="12" t="str">
         <f>VLOOKUP(B4,Mansfield!$D$1:$L$20,9,0)</f>
         <v>Summit 384/386  ADA 1.28 Combo</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="15" t="str">
+      <c r="F4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="12" t="str">
         <f>VLOOKUP(E4,[1]query!$D:$O,4,0)</f>
         <v>Viper</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="15">
         <v>12</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="18">
+      <c r="J4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="15">
         <v>1.6</v>
       </c>
-      <c r="M4" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q4" s="28">
+      <c r="M4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="O4" s="14"/>
+      <c r="P4" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q4" s="25">
         <v>0.41</v>
       </c>
-      <c r="R4" s="15"/>
-    </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="R4" s="12"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="15" t="str">
+      <c r="B5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="12" t="str">
         <f>VLOOKUP(B5,Mansfield!$D$1:$L$20,9,0)</f>
         <v>Alto 135/160  El 1.6 Combo</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="15">
+      <c r="F5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="12">
         <v>12</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="15">
+      <c r="L5" s="12">
         <v>1.6</v>
       </c>
-      <c r="M5" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="N5" s="17" t="s">
+      <c r="M5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q5" s="28">
+      <c r="O5" s="14"/>
+      <c r="P5" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q5" s="25">
         <v>0.34</v>
       </c>
-      <c r="R5" s="15"/>
-    </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="R5" s="12"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="15" t="str">
+      <c r="B6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="12" t="str">
         <f>VLOOKUP(B6,Mansfield!$D$1:$L$20,9,0)</f>
         <v>Alto 130/160 RF 1.6 Combo</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="15" t="str">
+      <c r="E6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="12" t="str">
         <f>VLOOKUP(E6,[1]query!$D:$O,4,0)</f>
         <v>Reliant</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="15">
         <v>12</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="18">
+      <c r="J6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="15">
         <v>1.28</v>
       </c>
-      <c r="M6" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q6" s="28">
+      <c r="M6" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q6" s="25">
         <v>0.34</v>
       </c>
-      <c r="R6" s="15"/>
-    </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="R6" s="12"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="15" t="str">
+      <c r="B7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="12" t="str">
         <f>VLOOKUP(B7,Mansfield!$D$1:$L$20,9,0)</f>
         <v>Alto 135/160  El 1.6 Combo</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="15" t="str">
+      <c r="E7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="12" t="str">
         <f>VLOOKUP(E7,[1]query!$D:$O,4,0)</f>
         <v>Reliant</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="15">
         <v>12</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="18">
+      <c r="L7" s="15">
         <v>1.28</v>
       </c>
-      <c r="M7" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q7" s="28">
+      <c r="M7" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q7" s="25">
         <v>0.34</v>
       </c>
-      <c r="R7" s="15"/>
-    </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="R7" s="12"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="15" t="str">
+      <c r="B8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="12" t="str">
         <f>VLOOKUP(B8,Mansfield!$D$1:$L$20,9,0)</f>
         <v>Alto 137/160 ADA EL 1.6 Combo</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="15" t="str">
+      <c r="E8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="12" t="str">
         <f>VLOOKUP(E8,[1]query!$D:$O,4,0)</f>
         <v>Reliant</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="15">
         <v>12</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="18">
+      <c r="J8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="15">
         <v>1.28</v>
       </c>
-      <c r="M8" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q8" s="28">
+      <c r="M8" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q8" s="25">
         <v>0.34</v>
       </c>
-      <c r="R8" s="15"/>
+      <c r="R8" s="12"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="15" t="str">
+      <c r="B9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="12" t="str">
         <f>VLOOKUP(B9,Mansfield!$D$1:$L$20,9,0)</f>
         <v>QUANTUM 148123 1.6 EL  SMARTHEIGHT Combo</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="15" t="str">
+      <c r="G9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="12" t="str">
         <f>VLOOKUP(E9,[1]query!$D:$O,4,0)</f>
         <v>Ultra Flush</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="15">
         <v>12</v>
       </c>
-      <c r="J9" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="18">
+      <c r="J9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="15">
         <v>1.6</v>
       </c>
-      <c r="M9" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q9" s="28">
+      <c r="M9" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="O9" s="14"/>
+      <c r="P9" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q9" s="25">
         <v>0.34</v>
       </c>
-      <c r="R9" s="15"/>
-    </row>
-    <row r="10" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="R9" s="12"/>
+    </row>
+    <row r="10" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="36" t="str">
+      <c r="B10" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="31" t="str">
         <f>VLOOKUP(B10,Mansfield!$D$1:$L$20,9,0)</f>
-        <v xml:space="preserve">QUANTUM TANK  123 LH                                                                           </v>
-      </c>
-      <c r="D10" s="36">
+        <v>QUANTUM TANK  123 LH</v>
+      </c>
+      <c r="D10" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E10" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="36" t="str">
+      <c r="E10" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="31" t="str">
         <f>VLOOKUP(E10,[1]query!$D:$O,4,0)</f>
         <v>Ultra Flush</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="33">
         <v>12</v>
       </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="38">
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="33">
         <v>1.6</v>
       </c>
-      <c r="M10" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q10" s="39">
+      <c r="M10" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="P10" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q10" s="34">
         <v>0.41</v>
       </c>
-      <c r="R10" s="36">
+      <c r="R10" s="31">
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+    <row r="11" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36">
+      <c r="B11" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E11" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="38">
+      <c r="E11" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="33">
         <v>12</v>
       </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="38">
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="33">
         <v>1.28</v>
       </c>
-      <c r="M11" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q11" s="39">
+      <c r="M11" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q11" s="34">
         <v>0.41</v>
       </c>
-      <c r="R11" s="36">
+      <c r="R11" s="31">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+    <row r="12" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="36">
         <v>160010007</v>
       </c>
-      <c r="C12" s="36" t="str">
+      <c r="C12" s="31" t="str">
         <f>VLOOKUP(B12,Mansfield!$D$1:$L$20,9,0)</f>
         <v>ALTO TANK 160 1.6</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E12" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="38">
+      <c r="E12" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="33">
         <v>12</v>
       </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="38">
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="33">
         <v>1.6</v>
       </c>
-      <c r="M12" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q12" s="39">
+      <c r="M12" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="P12" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q12" s="34">
         <v>0.41</v>
       </c>
-      <c r="R12" s="36">
+      <c r="R12" s="31">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36">
+      <c r="B13" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E13" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" s="38">
+      <c r="E13" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="33">
         <v>12</v>
       </c>
-      <c r="J13" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13" s="38">
+      <c r="J13" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="33">
         <v>1.28</v>
       </c>
-      <c r="M13" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q13" s="39">
+      <c r="M13" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="N13" s="31"/>
+      <c r="O13" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="P13" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q13" s="34">
         <v>0.41</v>
       </c>
-      <c r="R13" s="36">
+      <c r="R13" s="31">
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36">
+      <c r="B14" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E14" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="38">
+      <c r="E14" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="33">
         <v>12</v>
       </c>
-      <c r="J14" s="38" t="s">
+      <c r="J14" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14" s="38">
+      <c r="L14" s="33">
         <v>1.28</v>
       </c>
-      <c r="M14" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q14" s="39">
+      <c r="M14" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="P14" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q14" s="34">
         <v>0.41</v>
       </c>
-      <c r="R14" s="36">
+      <c r="R14" s="31">
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="36" t="str">
+      <c r="B15" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="31" t="str">
         <f>VLOOKUP(B15,Mansfield!$D$1:$L$20,9,0)</f>
-        <v xml:space="preserve">ALTO BOWL 130 1.6                                                                                 </v>
-      </c>
-      <c r="D15" s="36">
+        <v>ALTO BOWL 130 1.6</v>
+      </c>
+      <c r="D15" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E15" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="38">
+      <c r="E15" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="33">
         <v>12</v>
       </c>
-      <c r="J15" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="L15" s="38">
+      <c r="J15" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="33">
         <v>1.6</v>
       </c>
-      <c r="M15" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36" t="s">
+      <c r="M15" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="Q15" s="39">
+      <c r="P15" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q15" s="34">
         <v>0.41</v>
       </c>
-      <c r="R15" s="36">
+      <c r="R15" s="31">
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+    <row r="16" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="36" t="str">
+      <c r="B16" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="31" t="str">
         <f>VLOOKUP(B16,Mansfield!$D$1:$L$20,9,0)</f>
-        <v xml:space="preserve">ALTO BOWL 151 EL ADA 1.6                                                                                 </v>
-      </c>
-      <c r="D16" s="36">
+        <v>ALTO BOWL 151 EL ADA 1.6</v>
+      </c>
+      <c r="D16" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E16" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="I16" s="38">
+      <c r="E16" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="I16" s="33">
         <v>12</v>
       </c>
-      <c r="J16" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="L16" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="M16" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q16" s="39">
+      <c r="J16" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="P16" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q16" s="34">
         <v>0.41</v>
       </c>
-      <c r="R16" s="36">
+      <c r="R16" s="31">
         <v>546</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+    <row r="17" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="36" t="str">
+      <c r="B17" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="31" t="str">
         <f>VLOOKUP(B17,Mansfield!$D$1:$L$20,9,0)</f>
         <v xml:space="preserve">SUMMIT TANK 386      </v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E17" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38">
+      <c r="E17" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33">
         <v>1.6</v>
       </c>
-      <c r="M17" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q17" s="39">
+      <c r="M17" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="P17" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q17" s="34">
         <v>0.41</v>
       </c>
-      <c r="R17" s="36">
+      <c r="R17" s="31">
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="15" t="str">
+      <c r="B18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="12" t="str">
         <f>VLOOKUP(B18,Mansfield!$D$1:$L$20,9,0)</f>
         <v>QUANTUM 148123 1.6 EL  SMARTHEIGHT Combo</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="13">
         <v>2467016</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="15">
+      <c r="F18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="12">
         <v>12</v>
       </c>
-      <c r="J18" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="L18" s="15">
+      <c r="J18" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="12">
         <v>1.6</v>
       </c>
-      <c r="M18" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="N18" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="O18" s="17"/>
-      <c r="P18" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q18" s="28">
+      <c r="M18" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="O18" s="14"/>
+      <c r="P18" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q18" s="25">
         <v>0.34</v>
       </c>
-      <c r="R18" s="15"/>
-    </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="R18" s="12"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="15" t="str">
+      <c r="B19" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="12" t="str">
         <f>VLOOKUP(B19,Mansfield!$D$1:$L$20,9,0)</f>
-        <v xml:space="preserve">QUANTUM TANK  123 LH                                                                           </v>
-      </c>
-      <c r="D19" s="15">
+        <v>QUANTUM TANK  123 LH</v>
+      </c>
+      <c r="D19" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="17">
         <v>4142016</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="15">
+      <c r="F19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="12">
         <v>1.6</v>
       </c>
-      <c r="M19" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="N19" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="O19" s="17"/>
-      <c r="P19" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q19" s="28">
+      <c r="M19" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O19" s="14"/>
+      <c r="P19" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q19" s="25">
         <v>0.34</v>
       </c>
-      <c r="R19" s="15"/>
-    </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="R19" s="12"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="15" t="str">
+      <c r="B20" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="12" t="str">
         <f>VLOOKUP(B20,Mansfield!$D$1:$L$20,9,0)</f>
-        <v xml:space="preserve">COMEMRCIAL BOWL 1319 EL  1.28                                                                           </v>
-      </c>
-      <c r="D20" s="15">
+        <v>COMEMRCIAL BOWL 1319 EL  1.28</v>
+      </c>
+      <c r="D20" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="17">
         <v>3043001</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="18">
+      <c r="F20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="15">
         <v>12</v>
       </c>
-      <c r="J20" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="L20" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="M20" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="N20" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q20" s="28">
+      <c r="J20" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q20" s="25">
         <v>0.34</v>
       </c>
-      <c r="R20" s="15"/>
-    </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="R20" s="12"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22">
+      <c r="B21" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E21" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="24">
+      <c r="E21" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="21">
         <v>1.28</v>
       </c>
-      <c r="M21" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="N21" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q21" s="29">
+      <c r="M21" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="N21" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q21" s="26">
         <v>0.34</v>
       </c>
-      <c r="R21" s="22"/>
-    </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="R21" s="19"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="16">
         <v>160010007</v>
       </c>
-      <c r="C22" s="15" t="str">
+      <c r="C22" s="12" t="str">
         <f>VLOOKUP(B22,Mansfield!$D$1:$L$20,9,0)</f>
         <v>ALTO TANK 160 1.6</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="18">
+      <c r="E22" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="15">
         <v>1.6</v>
       </c>
-      <c r="M22" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="N22" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q22" s="28">
+      <c r="M22" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q22" s="25">
         <v>0.34</v>
       </c>
-      <c r="R22" s="15"/>
-    </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="R22" s="12"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22">
+      <c r="B23" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E23" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="24">
+      <c r="E23" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="21">
         <v>12</v>
       </c>
-      <c r="J23" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="L23" s="24">
+      <c r="J23" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="21">
         <v>1.28</v>
       </c>
-      <c r="M23" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="N23" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q23" s="29">
+      <c r="M23" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q23" s="26">
         <v>0.34</v>
       </c>
-      <c r="R23" s="22"/>
-    </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="R23" s="19"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22">
+      <c r="B24" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E24" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I24" s="24">
+      <c r="E24" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="21">
         <v>12</v>
       </c>
-      <c r="J24" s="22" t="s">
+      <c r="J24" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K24" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="L24" s="24">
+      <c r="L24" s="21">
         <v>1.28</v>
       </c>
-      <c r="M24" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="N24" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q24" s="29">
+      <c r="M24" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q24" s="26">
         <v>0.34</v>
       </c>
-      <c r="R24" s="22"/>
-    </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="R24" s="19"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="15" t="str">
+      <c r="B25" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="12" t="str">
         <f>VLOOKUP(B25,Mansfield!$D$1:$L$20,9,0)</f>
-        <v xml:space="preserve">ALTO BOWL 130 1.6                                                                                 </v>
-      </c>
-      <c r="D25" s="15">
+        <v>ALTO BOWL 130 1.6</v>
+      </c>
+      <c r="D25" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I25" s="18">
+      <c r="E25" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="15">
         <v>12</v>
       </c>
-      <c r="J25" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="L25" s="18">
+      <c r="J25" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L25" s="15">
         <v>1.28</v>
       </c>
-      <c r="M25" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="N25" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q25" s="28">
+      <c r="M25" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q25" s="25">
         <v>0.34</v>
       </c>
-      <c r="R25" s="15"/>
-    </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="R25" s="12"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="15" t="str">
+      <c r="B26" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="12" t="str">
         <f>VLOOKUP(B26,Mansfield!$D$1:$L$20,9,0)</f>
-        <v xml:space="preserve">ALTO BOWL 151 EL ADA 1.6                                                                                 </v>
-      </c>
-      <c r="D26" s="15">
+        <v>ALTO BOWL 151 EL ADA 1.6</v>
+      </c>
+      <c r="D26" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="17">
         <v>3703100</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I26" s="18">
+      <c r="F26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="15">
         <v>12</v>
       </c>
-      <c r="J26" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="L26" s="18">
+      <c r="J26" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L26" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M26" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="N26" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q26" s="28">
+      <c r="M26" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q26" s="25">
         <v>0.34</v>
       </c>
-      <c r="R26" s="15"/>
-    </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="R26" s="12"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="15" t="str">
+      <c r="B27" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="12" t="str">
         <f>VLOOKUP(B27,Mansfield!$D$1:$L$20,9,0)</f>
         <v xml:space="preserve">SUMMIT TANK 386      </v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="18">
+      <c r="E27" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="15">
         <v>1.6</v>
       </c>
-      <c r="M27" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="N27" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q27" s="28">
+      <c r="M27" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q27" s="25">
         <v>0.34</v>
       </c>
-      <c r="R27" s="15"/>
+      <c r="R27" s="12"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="15" t="str">
+      <c r="B28" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="12" t="str">
         <f>VLOOKUP(B28,Mansfield!$D$1:$L$20,9,0)</f>
-        <v xml:space="preserve">COMEMRCIAL BOWL 1319 EL  1.28                                                                           </v>
-      </c>
-      <c r="D28" s="15">
+        <v>COMEMRCIAL BOWL 1319 EL  1.28</v>
+      </c>
+      <c r="D28" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="I28" s="18">
+      <c r="E28" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="15">
         <v>10</v>
       </c>
-      <c r="J28" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="L28" s="18">
+      <c r="J28" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L28" s="15">
         <v>1.28</v>
       </c>
-      <c r="M28" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="N28" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q28" s="28">
+      <c r="M28" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q28" s="25">
         <v>0.41</v>
       </c>
-      <c r="R28" s="15"/>
+      <c r="R28" s="12"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="15" t="str">
+      <c r="B29" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="12" t="str">
         <f>VLOOKUP(B29,Mansfield!$D$1:$L$20,9,0)</f>
         <v>Alto 137/160 ADA EL 1.6 Combo</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I29" s="18">
+      <c r="E29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" s="15">
         <v>12</v>
       </c>
-      <c r="J29" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="L29" s="18">
+      <c r="J29" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" s="15">
         <v>1.28</v>
       </c>
-      <c r="M29" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="N29" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q29" s="28">
+      <c r="M29" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q29" s="25">
         <v>0.41</v>
       </c>
-      <c r="R29" s="15"/>
+      <c r="R29" s="12"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="15" t="str">
+      <c r="B30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="12" t="str">
         <f>VLOOKUP(B30,Mansfield!$D$1:$L$20,9,0)</f>
         <v>Alto 130/160 RF 1.6 Combo</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I30" s="18">
+      <c r="E30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I30" s="15">
         <v>12</v>
       </c>
-      <c r="J30" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="L30" s="18">
+      <c r="J30" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L30" s="15">
         <v>1.6</v>
       </c>
-      <c r="M30" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="N30" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q30" s="28">
+      <c r="M30" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q30" s="25">
         <v>0.41</v>
       </c>
-      <c r="R30" s="15"/>
+      <c r="R30" s="12"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="15" t="str">
+      <c r="B31" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="12" t="str">
         <f>VLOOKUP(B31,Mansfield!$D$1:$L$20,9,0)</f>
         <v>HET 3489-V El 1.28 Combo </v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E31" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I31" s="18">
+      <c r="E31" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="15">
         <v>12</v>
       </c>
-      <c r="J31" s="15" t="s">
+      <c r="J31" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K31" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="L31" s="18">
+      <c r="L31" s="15">
         <v>1.28</v>
       </c>
-      <c r="M31" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="N31" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q31" s="28">
+      <c r="M31" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q31" s="25">
         <v>0.41</v>
       </c>
-      <c r="R31" s="15"/>
+      <c r="R31" s="12"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C32" s="12" t="str">
+      <c r="B32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="9" t="str">
         <f>VLOOKUP(B32,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>237 4" WHT MS OVAL 20X17</v>
-      </c>
-      <c r="D32" s="12">
+        <v>237 Lav</v>
+      </c>
+      <c r="D32" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="N32" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="O32" s="13"/>
-      <c r="P32" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q32" s="30">
+      <c r="E32" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="O32" s="10"/>
+      <c r="P32" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q32" s="27">
         <v>0.41</v>
       </c>
-      <c r="R32" s="5"/>
+      <c r="R32" s="3"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C33" s="12" t="str">
+      <c r="B33" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="9" t="str">
         <f>VLOOKUP(B33,Mansfield!$D$1:$L$50,9,0)</f>
         <v>217 Lav</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="N33" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="O33" s="13"/>
-      <c r="P33" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q33" s="30">
+      <c r="E33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="O33" s="10"/>
+      <c r="P33" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q33" s="27">
         <v>0.41</v>
       </c>
-      <c r="R33" s="5"/>
+      <c r="R33" s="3"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C34" s="12" t="str">
+      <c r="B34" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="9" t="str">
         <f>VLOOKUP(B34,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>292 4" LAV</v>
-      </c>
-      <c r="D34" s="12">
+        <v>292 Lav</v>
+      </c>
+      <c r="D34" s="9">
         <f t="shared" ref="D34:D52" si="1">COUNTIF($B$2:$B$52,B34)</f>
         <v>2</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q34" s="30">
+      <c r="E34" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q34" s="27">
         <v>0.41</v>
       </c>
-      <c r="R34" s="5"/>
+      <c r="R34" s="3"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" s="12" t="str">
+      <c r="B35" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="9" t="str">
         <f>VLOOKUP(B35,Mansfield!$D$1:$L$50,9,0)</f>
         <v>328 4" LAV</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="N35" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="O35" s="13"/>
-      <c r="P35" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q35" s="30">
+      <c r="E35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="O35" s="10"/>
+      <c r="P35" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q35" s="27">
         <v>0.41</v>
       </c>
-      <c r="R35" s="5"/>
+      <c r="R35" s="3"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="12" t="str">
+      <c r="B36" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="9" t="str">
         <f>VLOOKUP(B36,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>218NS PET COVINGTON LAV</v>
-      </c>
-      <c r="D36" s="12">
+        <v>218 COVINGTON LAV</v>
+      </c>
+      <c r="D36" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N36" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="O36" s="13"/>
-      <c r="P36" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q36" s="30">
+      <c r="E36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="O36" s="10"/>
+      <c r="P36" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q36" s="27">
         <v>0.41</v>
       </c>
-      <c r="R36" s="5"/>
+      <c r="R36" s="3"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C37" s="12" t="str">
+      <c r="B37" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="9" t="str">
         <f>VLOOKUP(B37,Mansfield!$D$1:$L$50,9,0)</f>
         <v>239 4" MS ROUND LAV</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="N37" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="O37" s="13"/>
-      <c r="P37" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q37" s="30">
+      <c r="E37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="O37" s="10"/>
+      <c r="P37" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q37" s="27">
         <v>0.41</v>
       </c>
-      <c r="R37" s="5"/>
+      <c r="R37" s="3"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C38" s="12" t="str">
+      <c r="B38" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="9" t="str">
         <f>VLOOKUP(B38,Mansfield!$D$1:$L$50,9,0)</f>
         <v xml:space="preserve">348 4" LAV                                                          </v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="N38" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="O38" s="13"/>
-      <c r="P38" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q38" s="30">
+      <c r="E38" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="O38" s="10"/>
+      <c r="P38" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q38" s="27">
         <v>0.41</v>
       </c>
-      <c r="R38" s="5"/>
+      <c r="R38" s="3"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C39" s="12" t="str">
+      <c r="B39" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="9" t="str">
         <f>VLOOKUP(B39,Mansfield!$D$1:$L$50,9,0)</f>
         <v>272 4" LAV</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F39" s="5" t="s">
+      <c r="E39" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q39" s="30">
+      <c r="F39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q39" s="27">
         <v>0.41</v>
       </c>
-      <c r="R39" s="5"/>
+      <c r="R39" s="3"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C40" s="12" t="str">
+      <c r="B40" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" s="9" t="str">
         <f>VLOOKUP(B40,Mansfield!$D$1:$L$50,9,0)</f>
         <v>251 4" LAV</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="N40" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="O40" s="13"/>
-      <c r="P40" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q40" s="30">
+      <c r="E40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N40" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="O40" s="10"/>
+      <c r="P40" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q40" s="27">
         <v>0.41</v>
       </c>
-      <c r="R40" s="5"/>
+      <c r="R40" s="3"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C41" s="12" t="str">
+      <c r="B41" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="9" t="str">
         <f>VLOOKUP(B41,Mansfield!$D$1:$L$50,9,0)</f>
         <v>234 BRENTWOOD LAV</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="N41" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="O41" s="13"/>
-      <c r="P41" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q41" s="30">
+      <c r="E41" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N41" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="O41" s="10"/>
+      <c r="P41" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q41" s="27">
         <v>0.41</v>
       </c>
-      <c r="R41" s="5"/>
+      <c r="R41" s="3"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C42" s="12" t="str">
+      <c r="B42" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" s="9" t="str">
         <f>VLOOKUP(B42,Mansfield!$D$1:$L$50,9,0)</f>
         <v>328 8" LAV</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="O42" s="10"/>
+      <c r="P42" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q42" s="27">
+        <v>0.41</v>
+      </c>
+      <c r="R42" s="3"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="N42" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="O42" s="13"/>
-      <c r="P42" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q42" s="30">
-        <v>0.41</v>
-      </c>
-      <c r="R42" s="5"/>
-    </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="C43" s="25" t="str">
+      <c r="C43" s="22" t="str">
         <f>VLOOKUP(B43,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>237 4" WHT MS OVAL 20X17</v>
-      </c>
-      <c r="D43" s="25">
+        <v>237 Lav</v>
+      </c>
+      <c r="D43" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E43" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="F43" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="N43" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q43" s="31">
+      <c r="E43" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="N43" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q43" s="28">
         <v>0.34</v>
       </c>
-      <c r="R43" s="5"/>
-    </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
+      <c r="R43" s="3"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C44" s="25" t="str">
+      <c r="B44" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="22" t="str">
         <f>VLOOKUP(B44,Mansfield!$D$1:$L$50,9,0)</f>
         <v>217 Lav</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D44" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E44" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="N44" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q44" s="31">
+      <c r="E44" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="N44" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q44" s="28">
         <v>0.34</v>
       </c>
-      <c r="R44" s="5"/>
-    </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+      <c r="R44" s="3"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="C45" s="25" t="str">
+      <c r="B45" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="22" t="str">
         <f>VLOOKUP(B45,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>292 4" LAV</v>
-      </c>
-      <c r="D45" s="25">
+        <v>292 Lav</v>
+      </c>
+      <c r="D45" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E45" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="N45" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q45" s="31">
+      <c r="E45" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="N45" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q45" s="28">
         <v>0.34</v>
       </c>
-      <c r="R45" s="5"/>
-    </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
+      <c r="R45" s="3"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C46" s="25" t="str">
+      <c r="B46" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="22" t="str">
         <f>VLOOKUP(B46,Mansfield!$D$1:$L$50,9,0)</f>
         <v>328 4" LAV</v>
       </c>
-      <c r="D46" s="25">
+      <c r="D46" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E46" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="N46" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q46" s="31">
+      <c r="E46" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="N46" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q46" s="28">
         <v>0.34</v>
       </c>
-      <c r="R46" s="5"/>
-    </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
+      <c r="R46" s="3"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="C47" s="25" t="str">
+      <c r="B47" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="22" t="str">
         <f>VLOOKUP(B47,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>218NS PET COVINGTON LAV</v>
-      </c>
-      <c r="D47" s="25">
+        <v>218 COVINGTON LAV</v>
+      </c>
+      <c r="D47" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E47" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="F47" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="N47" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q47" s="31">
+      <c r="E47" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="N47" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q47" s="28">
         <v>0.34</v>
       </c>
-      <c r="R47" s="5"/>
-    </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="R47" s="3"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="C48" s="25" t="str">
+      <c r="B48" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="22" t="str">
         <f>VLOOKUP(B48,Mansfield!$D$1:$L$50,9,0)</f>
         <v xml:space="preserve">348 4" LAV                                                          </v>
       </c>
-      <c r="D48" s="25">
+      <c r="D48" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E48" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="N48" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q48" s="31">
+      <c r="E48" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="N48" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q48" s="28">
         <v>0.34</v>
       </c>
-      <c r="R48" s="5"/>
-    </row>
-    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
+      <c r="R48" s="3"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="C49" s="25" t="str">
+      <c r="B49" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="22" t="str">
         <f>VLOOKUP(B49,Mansfield!$D$1:$L$50,9,0)</f>
         <v>272 4" LAV</v>
       </c>
-      <c r="D49" s="25">
+      <c r="D49" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E49" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="F49" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="N49" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q49" s="31">
+      <c r="E49" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="N49" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q49" s="28">
         <v>0.34</v>
       </c>
-      <c r="R49" s="5"/>
-    </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
+      <c r="R49" s="3"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="C50" s="25" t="str">
+      <c r="B50" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" s="22" t="str">
         <f>VLOOKUP(B50,Mansfield!$D$1:$L$50,9,0)</f>
         <v>251 4" LAV</v>
       </c>
-      <c r="D50" s="25">
+      <c r="D50" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E50" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="F50" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="N50" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="O50" s="27"/>
-      <c r="P50" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q50" s="31">
+      <c r="E50" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="N50" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="O50" s="24"/>
+      <c r="P50" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q50" s="28">
         <v>0.34</v>
       </c>
-      <c r="R50" s="5"/>
-    </row>
-    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
+      <c r="R50" s="3"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="C51" s="25" t="str">
+      <c r="B51" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="22" t="str">
         <f>VLOOKUP(B51,Mansfield!$D$1:$L$50,9,0)</f>
         <v>234 BRENTWOOD LAV</v>
       </c>
-      <c r="D51" s="25">
+      <c r="D51" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E51" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="N51" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q51" s="31">
+      <c r="E51" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="N51" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q51" s="28">
         <v>0.34</v>
       </c>
-      <c r="R51" s="5"/>
-    </row>
-    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
+      <c r="R51" s="3"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="C52" s="25" t="str">
+      <c r="B52" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" s="22" t="str">
         <f>VLOOKUP(B52,Mansfield!$D$1:$L$50,9,0)</f>
         <v>328 8" LAV</v>
       </c>
-      <c r="D52" s="25">
+      <c r="D52" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E52" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="F52" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="N52" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q52" s="31">
+      <c r="E52" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="N52" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q52" s="28">
         <v>0.34</v>
       </c>
-      <c r="R52" s="5"/>
+      <c r="R52" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R52" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Gerber"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R52" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}"/>
   <hyperlinks>
     <hyperlink ref="N6" r:id="rId1" xr:uid="{EF7953C9-ED02-4DDB-9445-D95A01E86511}"/>
     <hyperlink ref="N18" r:id="rId2" xr:uid="{CD91D937-81FC-495B-9B8D-2E8D7673C161}"/>
@@ -7644,18 +7718,22 @@
     <hyperlink ref="N40" r:id="rId15" xr:uid="{1515F505-E4F5-43A7-A068-D4C92341112C}"/>
     <hyperlink ref="N41" r:id="rId16" xr:uid="{1E8E0998-C4EC-48BC-8445-39D26C94D065}"/>
     <hyperlink ref="N42" r:id="rId17" xr:uid="{6C553BF5-CDFB-415A-8EA1-065521322AC3}"/>
+    <hyperlink ref="O13" r:id="rId18" xr:uid="{B3A4AC13-7BED-45E9-A2E7-413F39FCC9AC}"/>
+    <hyperlink ref="N21" r:id="rId19" xr:uid="{733DEA3E-9B23-4503-A490-0AB978FEFE69}"/>
+    <hyperlink ref="N22" r:id="rId20" xr:uid="{2DAD8D07-0D2B-4F9B-8144-3DE45BAA9CC2}"/>
+    <hyperlink ref="N7" r:id="rId21" xr:uid="{3360E79D-3758-4E75-B584-1F6C54804F8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C581B3-4A49-4D7E-AF67-B0CA84DD1A3A}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7664,55 +7742,55 @@
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="49.85546875" customWidth="1"/>
     <col min="13" max="13" width="35.5703125" customWidth="1"/>
-    <col min="14" max="14" width="100.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="184.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="G1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>20</v>
@@ -7721,1197 +7799,1321 @@
         <v>3</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="3">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3">
+        <v>206.63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="3">
+        <v>12</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3">
+        <v>224.85999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="3">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3">
+        <v>317.63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="3">
+        <v>12</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1.28</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3">
+        <v>354.87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="3">
+        <v>12</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.28</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3">
+        <v>357.52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="3">
+        <v>12</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3">
+        <v>644.74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="G8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="3">
         <v>12</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="6">
+      <c r="K8" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="8">
+        <v>52.257166153334992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="8">
+        <v>90.068346141637491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="3">
+        <v>12</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="8">
+        <v>39.382151105261244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="8">
+        <v>165.65897915102249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="3">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="8">
+        <v>117.11139459698248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="8">
+        <v>41.3095536973387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="29">
+        <v>160010007</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="8">
+        <v>41.309324999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="3">
+        <v>12</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="3">
         <v>1.6</v>
       </c>
-      <c r="L2" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="5">
+      <c r="L15" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P15" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5">
-        <v>206.63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="Q15" s="3"/>
+      <c r="R15" s="8">
+        <v>94.481695102577731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="G16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="3">
         <v>12</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="6">
+      <c r="K16" s="3">
         <v>1.6</v>
       </c>
-      <c r="L3" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="5">
+      <c r="L16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P16" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5">
-        <v>224.85999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="8">
+        <v>54.817767294848409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="G17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="3">
         <v>12</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="6">
+      <c r="J17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="3">
         <v>1.6</v>
       </c>
-      <c r="L4" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="5">
+      <c r="L17" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P17" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5">
-        <v>317.63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="12" t="s">
+      <c r="Q17" s="3"/>
+      <c r="R17" s="8">
+        <v>47.024419817793579</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="5">
-        <v>12</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="6">
+      <c r="G18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="8">
+        <v>212.23939813904951</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="8">
+        <v>49.064810425312494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="6">
+        <v>10</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" s="6">
         <v>1.28</v>
       </c>
-      <c r="L5" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="5">
+      <c r="L20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P20" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5">
-        <v>354.87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" s="5">
-        <v>12</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="6">
-        <v>1.28</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="5">
+      <c r="Q20" s="3"/>
+      <c r="R20" s="8">
+        <v>117.11139459698248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P21" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5">
-        <v>357.52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="5">
-        <v>12</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="L7" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="5">
+      <c r="Q21" s="9"/>
+      <c r="R21" s="38">
+        <v>52.942869297499996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P22" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5">
-        <v>644.74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H8" s="5">
-        <v>12</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="5">
-        <v>1.28</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="5">
+      <c r="Q22" s="9"/>
+      <c r="R22" s="38">
+        <v>85.042520952999979</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P23" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="11">
-        <v>52.257166153334992</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P9" s="5">
+      <c r="Q23" s="9"/>
+      <c r="R23" s="38">
+        <v>157.47435999099997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P24" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="11">
-        <v>90.068346141637491</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" s="5">
-        <v>12</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="5">
-        <v>1.28</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P10" s="5">
+      <c r="Q24" s="9"/>
+      <c r="R24" s="38">
+        <v>216.42350989999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P25" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="11">
-        <v>39.382151105261244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P11" s="5">
+      <c r="Q25" s="9"/>
+      <c r="R25" s="38">
+        <v>143.22306508899996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P26" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="11">
-        <v>165.65897915102249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="5">
-        <v>10</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="5">
+      <c r="Q26" s="9"/>
+      <c r="R26" s="38">
+        <v>53.863614850499999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P27" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="11">
-        <v>117.11139459698248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="5">
+      <c r="Q27" s="9"/>
+      <c r="R27" s="38">
+        <v>127.29442705849998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P28" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="11">
-        <v>41.3095536973387</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="32">
-        <v>160010007</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P14" s="5">
+      <c r="Q28" s="9"/>
+      <c r="R28" s="38">
+        <v>112.84723806849998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P29" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="11">
-        <v>41.309324999999994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="5">
-        <v>12</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" s="5">
+      <c r="Q29" s="9"/>
+      <c r="R29" s="38">
+        <v>96.55129862299998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P30" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="11">
-        <v>94.481695102577731</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="5">
-        <v>12</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K16" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P16" s="5">
+      <c r="Q30" s="9"/>
+      <c r="R30" s="38">
+        <v>179.00866749999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P31" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="11">
-        <v>54.817767294848409</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="5">
-        <v>12</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K17" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P17" s="5">
-        <v>0.42749999999999999</v>
-      </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="11">
-        <v>47.024419817793579</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K18" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="5">
-        <v>0.42749999999999999</v>
-      </c>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="11">
-        <v>212.23939813904951</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P19" s="5">
-        <v>0.42749999999999999</v>
-      </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="11">
-        <v>49.064810425312494</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H20" s="8">
-        <v>10</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K20" s="8">
-        <v>1.28</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P20" s="5">
-        <v>0.42749999999999999</v>
-      </c>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="11">
-        <v>117.11139459698248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="38">
+        <v>216.42350989999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q32" s="39"/>
+    </row>
+    <row r="33" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q33" s="39"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" xr:uid="{6B464FC2-D195-4FF7-BC5B-B0CBC9FFD99F}"/>
+    <hyperlink ref="N25" r:id="rId1" xr:uid="{1EF3E070-C7E3-490E-964F-83955FC35B0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -8937,39 +9139,39 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2">
         <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E2">
         <v>110</v>
@@ -8977,23 +9179,23 @@
       <c r="F2">
         <v>0.42749999999999999</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="5">
         <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
         <v>47.024999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3">
         <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E3">
         <v>96.63</v>
@@ -9001,23 +9203,23 @@
       <c r="F3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
         <v>41.309324999999994</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4">
         <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E4">
         <v>128.22999999999999</v>
@@ -9025,190 +9227,190 @@
       <c r="F4">
         <v>0.42749999999999999</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
         <v>54.818324999999994</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5">
         <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F5">
         <v>0.42749999999999999</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6">
         <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="F6">
         <v>0.42749999999999999</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7">
         <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F7">
         <v>0.42749999999999999</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8">
         <v>3151</v>
       </c>
       <c r="D8" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F8">
         <v>0.42749999999999999</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9">
         <v>3486</v>
       </c>
       <c r="D9" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F9">
         <v>0.42749999999999999</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10">
         <v>384</v>
       </c>
       <c r="D10" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="F10">
         <v>0.42749999999999999</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>386</v>
       </c>
       <c r="D11" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F11">
         <v>0.42749999999999999</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="5">
         <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12">
         <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F12">
         <v>0.42749999999999999</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="5">
         <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13">
         <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="F13">
         <v>0.42749999999999999</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="5">
         <f>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</f>
         <v>0</v>
       </c>

--- a/XX_Master_database/Wholesaler_Database.xlsx
+++ b/XX_Master_database/Wholesaler_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/00_Scrapping_git/XX_Master_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1445" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4927EF73-2277-4C73-8BF5-4A93B6343DE1}"/>
+  <xr:revisionPtr revIDLastSave="1453" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A72EBF33-37F3-4F92-9DF8-703553D88A34}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{BB750D66-C71B-4412-8809-92E47E37BD8E}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="302">
   <si>
     <t>GMX20902</t>
   </si>
@@ -813,9 +813,6 @@
   </si>
   <si>
     <t>135010007, 103580000</t>
-  </si>
-  <si>
-    <t>URL_img</t>
   </si>
   <si>
     <t>URL_Img</t>
@@ -5151,14 +5148,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
@@ -5712,7 +5709,7 @@
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P10" s="31" t="s">
         <v>253</v>
@@ -5761,7 +5758,7 @@
       </c>
       <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P11" s="31" t="s">
         <v>253</v>
@@ -5813,7 +5810,7 @@
       </c>
       <c r="N12" s="31"/>
       <c r="O12" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P12" s="31" t="s">
         <v>253</v>
@@ -5866,7 +5863,7 @@
       </c>
       <c r="N13" s="31"/>
       <c r="O13" s="37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P13" s="31" t="s">
         <v>253</v>
@@ -5919,7 +5916,7 @@
       </c>
       <c r="N14" s="31"/>
       <c r="O14" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P14" s="31" t="s">
         <v>253</v>
@@ -5975,7 +5972,7 @@
       </c>
       <c r="N15" s="31"/>
       <c r="O15" s="31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P15" s="31" t="s">
         <v>253</v>
@@ -6031,7 +6028,7 @@
       </c>
       <c r="N16" s="31"/>
       <c r="O16" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P16" s="31" t="s">
         <v>253</v>
@@ -6081,7 +6078,7 @@
       </c>
       <c r="N17" s="31"/>
       <c r="O17" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P17" s="31" t="s">
         <v>253</v>
@@ -7686,7 +7683,7 @@
       <c r="M52" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="N52" s="22" t="s">
+      <c r="N52" s="24" t="s">
         <v>204</v>
       </c>
       <c r="O52" s="22"/>
@@ -7722,9 +7719,10 @@
     <hyperlink ref="N21" r:id="rId19" xr:uid="{733DEA3E-9B23-4503-A490-0AB978FEFE69}"/>
     <hyperlink ref="N22" r:id="rId20" xr:uid="{2DAD8D07-0D2B-4F9B-8144-3DE45BAA9CC2}"/>
     <hyperlink ref="N7" r:id="rId21" xr:uid="{3360E79D-3758-4E75-B584-1F6C54804F8E}"/>
+    <hyperlink ref="N52" r:id="rId22" xr:uid="{0FEA31B0-3DE4-45A4-A8D7-5CAE3AD57EAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -7732,8 +7730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C581B3-4A49-4D7E-AF67-B0CA84DD1A3A}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7790,7 +7788,7 @@
         <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>20</v>
@@ -7840,7 +7838,7 @@
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>253</v>
@@ -7888,7 +7886,7 @@
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>253</v>
@@ -7936,7 +7934,7 @@
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>253</v>
@@ -7982,7 +7980,7 @@
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>253</v>
@@ -8030,7 +8028,7 @@
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>253</v>
@@ -8078,7 +8076,7 @@
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>253</v>
@@ -8122,7 +8120,7 @@
         <v>1.28</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -8260,11 +8258,11 @@
         <v>50</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>253</v>
@@ -8308,11 +8306,11 @@
         <v>50</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>253</v>
@@ -8356,11 +8354,11 @@
         <v>50</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>253</v>
@@ -8408,7 +8406,7 @@
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>253</v>
@@ -8452,11 +8450,11 @@
         <v>1.6</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>253</v>
@@ -8504,7 +8502,7 @@
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>253</v>
@@ -8548,11 +8546,11 @@
         <v>1.6</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>253</v>
@@ -8596,11 +8594,11 @@
         <v>1.6</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>253</v>
@@ -8648,7 +8646,7 @@
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>253</v>
@@ -8696,7 +8694,7 @@
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>253</v>
@@ -8728,11 +8726,11 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>253</v>
@@ -8768,7 +8766,7 @@
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>253</v>
@@ -8800,11 +8798,11 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>253</v>
@@ -8840,7 +8838,7 @@
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>253</v>
@@ -8872,11 +8870,11 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O25" s="3" t="s">
         <v>253</v>
@@ -8912,7 +8910,7 @@
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>253</v>
@@ -8948,7 +8946,7 @@
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>253</v>
@@ -8984,7 +8982,7 @@
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>253</v>
@@ -9020,7 +9018,7 @@
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>253</v>
@@ -9056,7 +9054,7 @@
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>253</v>
@@ -9092,7 +9090,7 @@
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>253</v>

--- a/XX_Master_database/Wholesaler_Database.xlsx
+++ b/XX_Master_database/Wholesaler_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/00_Scrapping_git/XX_Master_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1453" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A72EBF33-37F3-4F92-9DF8-703553D88A34}"/>
+  <xr:revisionPtr revIDLastSave="1455" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2628352-0777-442E-9D56-8360547E9846}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{BB750D66-C71B-4412-8809-92E47E37BD8E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BB750D66-C71B-4412-8809-92E47E37BD8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Competitors" sheetId="1" r:id="rId1"/>
@@ -497,9 +497,6 @@
     <t>239 4" MS ROUND LAV</t>
   </si>
   <si>
-    <t xml:space="preserve">348 4" LAV                                                          </t>
-  </si>
-  <si>
     <t>272 4" LAV</t>
   </si>
   <si>
@@ -947,7 +944,10 @@
     <t>ALTO BOWL 130 1.6</t>
   </si>
   <si>
-    <t>COMEMRCIAL BOWL 1319 EL  1.28</t>
+    <t>COMMERCIAL BOWL 1319 EL  1.28</t>
+  </si>
+  <si>
+    <t>348 4" LAV</t>
   </si>
 </sst>
 </file>
@@ -5148,7 +5148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
@@ -5196,10 +5196,10 @@
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>15</v>
@@ -5217,7 +5217,7 @@
         <v>19</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>20</v>
@@ -5226,7 +5226,7 @@
         <v>3</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -5277,7 +5277,7 @@
       </c>
       <c r="O2" s="12"/>
       <c r="P2" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q2" s="25">
         <v>0.41</v>
@@ -5328,11 +5328,11 @@
         <v>101</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q3" s="25">
         <v>0.41</v>
@@ -5383,11 +5383,11 @@
         <v>102</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q4" s="25">
         <v>0.41</v>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="25">
         <v>0.34</v>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q6" s="25">
         <v>0.34</v>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="O7" s="12"/>
       <c r="P7" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="25">
         <v>0.34</v>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="O8" s="12"/>
       <c r="P8" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="25">
         <v>0.34</v>
@@ -5657,11 +5657,11 @@
         <v>111</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O9" s="14"/>
       <c r="P9" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q9" s="25">
         <v>0.34</v>
@@ -5684,7 +5684,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F10" s="31" t="s">
         <v>31</v>
@@ -5705,14 +5705,14 @@
         <v>1.6</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P10" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="34">
         <v>0.41</v>
@@ -5726,7 +5726,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31">
@@ -5754,14 +5754,14 @@
         <v>1.28</v>
       </c>
       <c r="M11" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P11" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q11" s="34">
         <v>0.41</v>
@@ -5786,7 +5786,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F12" s="31" t="s">
         <v>31</v>
@@ -5806,14 +5806,14 @@
         <v>1.6</v>
       </c>
       <c r="M12" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N12" s="31"/>
       <c r="O12" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P12" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q12" s="34">
         <v>0.41</v>
@@ -5827,7 +5827,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="31">
@@ -5859,14 +5859,14 @@
         <v>1.28</v>
       </c>
       <c r="M13" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N13" s="31"/>
       <c r="O13" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P13" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="34">
         <v>0.41</v>
@@ -5880,7 +5880,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="31">
@@ -5912,14 +5912,14 @@
         <v>1.28</v>
       </c>
       <c r="M14" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N14" s="31"/>
       <c r="O14" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P14" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="34">
         <v>0.41</v>
@@ -5944,7 +5944,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F15" s="31" t="s">
         <v>31</v>
@@ -5968,14 +5968,14 @@
         <v>1.6</v>
       </c>
       <c r="M15" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N15" s="31"/>
       <c r="O15" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q15" s="34">
         <v>0.41</v>
@@ -6000,7 +6000,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F16" s="31" t="s">
         <v>33</v>
@@ -6009,7 +6009,7 @@
         <v>46</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I16" s="33">
         <v>12</v>
@@ -6021,17 +6021,17 @@
         <v>53</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M16" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N16" s="31"/>
       <c r="O16" s="31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P16" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q16" s="34">
         <v>0.41</v>
@@ -6056,7 +6056,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F17" s="31" t="s">
         <v>30</v>
@@ -6074,14 +6074,14 @@
         <v>1.6</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N17" s="31"/>
       <c r="O17" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P17" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="34">
         <v>0.41</v>
@@ -6130,14 +6130,14 @@
         <v>1.6</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N18" s="14" t="s">
         <v>100</v>
       </c>
       <c r="O18" s="14"/>
       <c r="P18" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q18" s="25">
         <v>0.34</v>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="O19" s="14"/>
       <c r="P19" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q19" s="25">
         <v>0.34</v>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="C20" s="12" t="str">
         <f>VLOOKUP(B20,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>COMEMRCIAL BOWL 1319 EL  1.28</v>
+        <v>COMMERCIAL BOWL 1319 EL  1.28</v>
       </c>
       <c r="D20" s="12">
         <f t="shared" si="0"/>
@@ -6229,7 +6229,7 @@
         <v>53</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M20" s="12" t="s">
         <v>115</v>
@@ -6239,7 +6239,7 @@
       </c>
       <c r="O20" s="12"/>
       <c r="P20" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="25">
         <v>0.34</v>
@@ -6251,7 +6251,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19">
@@ -6284,7 +6284,7 @@
       </c>
       <c r="O21" s="19"/>
       <c r="P21" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q21" s="26">
         <v>0.34</v>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="O22" s="12"/>
       <c r="P22" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q22" s="25">
         <v>0.34</v>
@@ -6344,7 +6344,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="O23" s="19"/>
       <c r="P23" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q23" s="26">
         <v>0.34</v>
@@ -6395,7 +6395,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="O24" s="19"/>
       <c r="P24" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q24" s="26">
         <v>0.34</v>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="O25" s="12"/>
       <c r="P25" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q25" s="25">
         <v>0.34</v>
@@ -6542,7 +6542,7 @@
       </c>
       <c r="O26" s="12"/>
       <c r="P26" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q26" s="25">
         <v>0.34</v>
@@ -6590,7 +6590,7 @@
       </c>
       <c r="O27" s="12"/>
       <c r="P27" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q27" s="25">
         <v>0.34</v>
@@ -6606,7 +6606,7 @@
       </c>
       <c r="C28" s="12" t="str">
         <f>VLOOKUP(B28,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>COMEMRCIAL BOWL 1319 EL  1.28</v>
+        <v>COMMERCIAL BOWL 1319 EL  1.28</v>
       </c>
       <c r="D28" s="12">
         <f t="shared" si="0"/>
@@ -6644,7 +6644,7 @@
       </c>
       <c r="O28" s="12"/>
       <c r="P28" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q28" s="25">
         <v>0.41</v>
@@ -6698,7 +6698,7 @@
       </c>
       <c r="O29" s="12"/>
       <c r="P29" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q29" s="25">
         <v>0.41</v>
@@ -6752,7 +6752,7 @@
       </c>
       <c r="O30" s="12"/>
       <c r="P30" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q30" s="25">
         <v>0.41</v>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="O31" s="12"/>
       <c r="P31" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q31" s="25">
         <v>0.41</v>
@@ -6818,7 +6818,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C32" s="9" t="str">
         <f>VLOOKUP(B32,Mansfield!$D$1:$L$50,9,0)</f>
@@ -6841,14 +6841,14 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O32" s="10"/>
       <c r="P32" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q32" s="27">
         <v>0.41</v>
@@ -6860,7 +6860,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C33" s="9" t="str">
         <f>VLOOKUP(B33,Mansfield!$D$1:$L$50,9,0)</f>
@@ -6883,14 +6883,14 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O33" s="10"/>
       <c r="P33" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q33" s="27">
         <v>0.41</v>
@@ -6902,7 +6902,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C34" s="9" t="str">
         <f>VLOOKUP(B34,Mansfield!$D$1:$L$50,9,0)</f>
@@ -6925,14 +6925,14 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q34" s="27">
         <v>0.41</v>
@@ -6944,7 +6944,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C35" s="9" t="str">
         <f>VLOOKUP(B35,Mansfield!$D$1:$L$50,9,0)</f>
@@ -6967,14 +6967,14 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O35" s="10"/>
       <c r="P35" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q35" s="27">
         <v>0.41</v>
@@ -6986,7 +6986,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C36" s="9" t="str">
         <f>VLOOKUP(B36,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7009,14 +7009,14 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O36" s="10"/>
       <c r="P36" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q36" s="27">
         <v>0.41</v>
@@ -7028,7 +7028,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C37" s="9" t="str">
         <f>VLOOKUP(B37,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7051,14 +7051,14 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O37" s="10"/>
       <c r="P37" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q37" s="27">
         <v>0.41</v>
@@ -7070,11 +7070,11 @@
         <v>4</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C38" s="9" t="str">
         <f>VLOOKUP(B38,Mansfield!$D$1:$L$50,9,0)</f>
-        <v xml:space="preserve">348 4" LAV                                                          </v>
+        <v>348 4" LAV</v>
       </c>
       <c r="D38" s="9">
         <f t="shared" si="1"/>
@@ -7093,14 +7093,14 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O38" s="10"/>
       <c r="P38" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q38" s="27">
         <v>0.41</v>
@@ -7112,7 +7112,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C39" s="9" t="str">
         <f>VLOOKUP(B39,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7135,14 +7135,14 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q39" s="27">
         <v>0.41</v>
@@ -7154,7 +7154,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C40" s="9" t="str">
         <f>VLOOKUP(B40,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7177,14 +7177,14 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O40" s="10"/>
       <c r="P40" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q40" s="27">
         <v>0.41</v>
@@ -7196,7 +7196,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C41" s="9" t="str">
         <f>VLOOKUP(B41,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7219,14 +7219,14 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O41" s="10"/>
       <c r="P41" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q41" s="27">
         <v>0.41</v>
@@ -7238,7 +7238,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C42" s="9" t="str">
         <f>VLOOKUP(B42,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7261,14 +7261,14 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O42" s="10"/>
       <c r="P42" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q42" s="27">
         <v>0.41</v>
@@ -7280,7 +7280,7 @@
         <v>8</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C43" s="22" t="str">
         <f>VLOOKUP(B43,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7291,7 +7291,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F43" s="22" t="s">
         <v>138</v>
@@ -7303,14 +7303,14 @@
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N43" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O43" s="22"/>
       <c r="P43" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q43" s="28">
         <v>0.34</v>
@@ -7322,7 +7322,7 @@
         <v>8</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C44" s="22" t="str">
         <f>VLOOKUP(B44,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7333,7 +7333,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F44" s="22" t="s">
         <v>138</v>
@@ -7345,14 +7345,14 @@
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N44" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O44" s="22"/>
       <c r="P44" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q44" s="28">
         <v>0.34</v>
@@ -7364,7 +7364,7 @@
         <v>8</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C45" s="22" t="str">
         <f>VLOOKUP(B45,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7375,7 +7375,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F45" s="22" t="s">
         <v>138</v>
@@ -7387,14 +7387,14 @@
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N45" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O45" s="22"/>
       <c r="P45" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q45" s="28">
         <v>0.34</v>
@@ -7406,7 +7406,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C46" s="22" t="str">
         <f>VLOOKUP(B46,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7417,7 +7417,7 @@
         <v>2</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F46" s="22" t="s">
         <v>138</v>
@@ -7429,14 +7429,14 @@
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N46" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O46" s="22"/>
       <c r="P46" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q46" s="28">
         <v>0.34</v>
@@ -7448,7 +7448,7 @@
         <v>8</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C47" s="22" t="str">
         <f>VLOOKUP(B47,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7459,7 +7459,7 @@
         <v>2</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F47" s="22" t="s">
         <v>138</v>
@@ -7471,14 +7471,14 @@
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N47" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O47" s="22"/>
       <c r="P47" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q47" s="28">
         <v>0.34</v>
@@ -7490,18 +7490,18 @@
         <v>8</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C48" s="22" t="str">
         <f>VLOOKUP(B48,Mansfield!$D$1:$L$50,9,0)</f>
-        <v xml:space="preserve">348 4" LAV                                                          </v>
+        <v>348 4" LAV</v>
       </c>
       <c r="D48" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F48" s="22" t="s">
         <v>138</v>
@@ -7513,14 +7513,14 @@
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N48" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O48" s="22"/>
       <c r="P48" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q48" s="28">
         <v>0.34</v>
@@ -7532,7 +7532,7 @@
         <v>8</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C49" s="22" t="str">
         <f>VLOOKUP(B49,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7543,7 +7543,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F49" s="22" t="s">
         <v>138</v>
@@ -7555,14 +7555,14 @@
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N49" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O49" s="22"/>
       <c r="P49" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q49" s="28">
         <v>0.34</v>
@@ -7574,7 +7574,7 @@
         <v>8</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C50" s="22" t="str">
         <f>VLOOKUP(B50,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7585,7 +7585,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F50" s="22" t="s">
         <v>138</v>
@@ -7597,14 +7597,14 @@
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N50" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O50" s="24"/>
       <c r="P50" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q50" s="28">
         <v>0.34</v>
@@ -7616,7 +7616,7 @@
         <v>8</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C51" s="22" t="str">
         <f>VLOOKUP(B51,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7627,7 +7627,7 @@
         <v>2</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F51" s="22" t="s">
         <v>138</v>
@@ -7639,14 +7639,14 @@
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N51" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O51" s="22"/>
       <c r="P51" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q51" s="28">
         <v>0.34</v>
@@ -7658,7 +7658,7 @@
         <v>8</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C52" s="22" t="str">
         <f>VLOOKUP(B52,Mansfield!$D$1:$L$50,9,0)</f>
@@ -7669,7 +7669,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F52" s="22" t="s">
         <v>138</v>
@@ -7681,14 +7681,14 @@
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N52" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O52" s="22"/>
       <c r="P52" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q52" s="28">
         <v>0.34</v>
@@ -7730,8 +7730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C581B3-4A49-4D7E-AF67-B0CA84DD1A3A}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7767,10 +7767,10 @@
         <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>15</v>
@@ -7788,7 +7788,7 @@
         <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>20</v>
@@ -7838,10 +7838,10 @@
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P2" s="3">
         <v>0.42749999999999999</v>
@@ -7886,10 +7886,10 @@
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P3" s="3">
         <v>0.42749999999999999</v>
@@ -7934,10 +7934,10 @@
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P4" s="3">
         <v>0.42749999999999999</v>
@@ -7980,10 +7980,10 @@
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P5" s="3">
         <v>0.42749999999999999</v>
@@ -8028,10 +8028,10 @@
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P6" s="3">
         <v>0.42749999999999999</v>
@@ -8076,10 +8076,10 @@
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P7" s="3">
         <v>0.42749999999999999</v>
@@ -8120,12 +8120,12 @@
         <v>1.28</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P8" s="3">
         <v>0.42749999999999999</v>
@@ -8171,7 +8171,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P9" s="3">
         <v>0.42749999999999999</v>
@@ -8217,7 +8217,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P10" s="3">
         <v>0.42749999999999999</v>
@@ -8258,14 +8258,14 @@
         <v>50</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P11" s="3">
         <v>0.42749999999999999</v>
@@ -8306,14 +8306,14 @@
         <v>50</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P12" s="3">
         <v>0.42749999999999999</v>
@@ -8354,14 +8354,14 @@
         <v>50</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P13" s="3">
         <v>0.42749999999999999</v>
@@ -8402,14 +8402,14 @@
         <v>50</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P14" s="3">
         <v>0.42749999999999999</v>
@@ -8450,14 +8450,14 @@
         <v>1.6</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P15" s="3">
         <v>0.42749999999999999</v>
@@ -8502,10 +8502,10 @@
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P16" s="3">
         <v>0.42749999999999999</v>
@@ -8546,14 +8546,14 @@
         <v>1.6</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P17" s="3">
         <v>0.42749999999999999</v>
@@ -8594,14 +8594,14 @@
         <v>1.6</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P18" s="3">
         <v>0.42749999999999999</v>
@@ -8646,10 +8646,10 @@
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P19" s="3">
         <v>0.42749999999999999</v>
@@ -8694,10 +8694,10 @@
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P20" s="3">
         <v>0.42749999999999999</v>
@@ -8714,7 +8714,7 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>138</v>
@@ -8726,14 +8726,14 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P21" s="3">
         <v>0.42749999999999999</v>
@@ -8750,7 +8750,7 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>138</v>
@@ -8762,14 +8762,14 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P22" s="3">
         <v>0.42749999999999999</v>
@@ -8786,7 +8786,7 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>138</v>
@@ -8798,14 +8798,14 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P23" s="3">
         <v>0.42749999999999999</v>
@@ -8822,7 +8822,7 @@
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>138</v>
@@ -8838,10 +8838,10 @@
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P24" s="3">
         <v>0.42749999999999999</v>
@@ -8858,7 +8858,7 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>138</v>
@@ -8870,14 +8870,14 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P25" s="3">
         <v>0.42749999999999999</v>
@@ -8894,7 +8894,7 @@
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>138</v>
@@ -8910,10 +8910,10 @@
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P26" s="3">
         <v>0.42749999999999999</v>
@@ -8930,7 +8930,7 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>138</v>
@@ -8942,14 +8942,14 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3" t="s">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P27" s="3">
         <v>0.42749999999999999</v>
@@ -8966,7 +8966,7 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>138</v>
@@ -8978,14 +8978,14 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P28" s="3">
         <v>0.42749999999999999</v>
@@ -9002,7 +9002,7 @@
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>138</v>
@@ -9014,14 +9014,14 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P29" s="3">
         <v>0.42749999999999999</v>
@@ -9038,7 +9038,7 @@
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>138</v>
@@ -9050,14 +9050,14 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P30" s="3">
         <v>0.42749999999999999</v>
@@ -9074,7 +9074,7 @@
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>138</v>
@@ -9086,14 +9086,14 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P31" s="3">
         <v>0.42749999999999999</v>
@@ -9137,22 +9137,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" t="s">
         <v>221</v>
       </c>
-      <c r="B1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>222</v>
       </c>
-      <c r="D1" t="s">
-        <v>223</v>
-      </c>
       <c r="E1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G1" t="s">
         <v>22</v>
@@ -9169,7 +9169,7 @@
         <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E2">
         <v>110</v>
@@ -9193,7 +9193,7 @@
         <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E3">
         <v>96.63</v>
@@ -9217,7 +9217,7 @@
         <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E4">
         <v>128.22999999999999</v>
@@ -9241,7 +9241,7 @@
         <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F5">
         <v>0.42749999999999999</v>
@@ -9262,7 +9262,7 @@
         <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F6">
         <v>0.42749999999999999</v>
@@ -9283,7 +9283,7 @@
         <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F7">
         <v>0.42749999999999999</v>
@@ -9304,7 +9304,7 @@
         <v>3151</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F8">
         <v>0.42749999999999999</v>
@@ -9325,7 +9325,7 @@
         <v>3486</v>
       </c>
       <c r="D9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F9">
         <v>0.42749999999999999</v>
@@ -9346,7 +9346,7 @@
         <v>384</v>
       </c>
       <c r="D10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F10">
         <v>0.42749999999999999</v>
@@ -9364,7 +9364,7 @@
         <v>386</v>
       </c>
       <c r="D11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F11">
         <v>0.42749999999999999</v>
@@ -9385,7 +9385,7 @@
         <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F12">
         <v>0.42749999999999999</v>
@@ -9403,7 +9403,7 @@
         <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F13">
         <v>0.42749999999999999</v>

--- a/XX_Master_database/Wholesaler_Database.xlsx
+++ b/XX_Master_database/Wholesaler_Database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/00_Scrapping_git/XX_Master_database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/01_APP_Dash/01_APP_Production/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1455" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2628352-0777-442E-9D56-8360547E9846}"/>
+  <xr:revisionPtr revIDLastSave="1472" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57E4482F-A39E-4C0A-90E6-46F22F6BD394}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BB750D66-C71B-4412-8809-92E47E37BD8E}"/>
   </bookViews>
@@ -21,7 +21,8 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Competitors!$A$1:$R$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Competitors!$A$1:$R$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mansfield!$A$1:$R$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="295">
   <si>
     <t>GMX20902</t>
   </si>
@@ -62,12 +63,6 @@
     <t>GVP21518</t>
   </si>
   <si>
-    <t>https://www.americanstandard-us.com/Floor-Standing-Toilets/Cadet-3-Elongated-16-gpf-Toilet/WHITE-270CA001020</t>
-  </si>
-  <si>
-    <t>270CA001</t>
-  </si>
-  <si>
     <t>American Standard</t>
   </si>
   <si>
@@ -218,9 +213,6 @@
     <t>GWS20918</t>
   </si>
   <si>
-    <t>GVP21502</t>
-  </si>
-  <si>
     <t>317310000</t>
   </si>
   <si>
@@ -290,9 +282,6 @@
     <t>https://www.americanstandard-us.com/Floor-Standing-Toilets/Reliant-Standard-Height-Round-Front-Bowl-Less-Seat/WHITE-3437D101020</t>
   </si>
   <si>
-    <t>https://www.gerber-us.com/viper-1-6-gpf-12-rough-in-two-piece-round-front-toilet/products/us-GVP21502</t>
-  </si>
-  <si>
     <t>https://www.gerber-us.com/maxwell-1-28-gpf-12-rough-in-two-piece-elongated-toilet/products/us-GWS20912</t>
   </si>
   <si>
@@ -353,9 +342,6 @@
     <t>Viper 12" ADA EL Combo 1.6</t>
   </si>
   <si>
-    <t>Cadet 3 1.6 EL Combo</t>
-  </si>
-  <si>
     <t>Alto 130/160 RF 1.6 Combo</t>
   </si>
   <si>
@@ -371,9 +357,6 @@
     <t>Maxwell  12 ADA EL 1.28 Combo</t>
   </si>
   <si>
-    <t>Viper 12 Std RF 1.6 Combo</t>
-  </si>
-  <si>
     <t>Maxwell 12 Std EL 1.28 Combo</t>
   </si>
   <si>
@@ -942,9 +925,6 @@
   </si>
   <si>
     <t>ALTO BOWL 130 1.6</t>
-  </si>
-  <si>
-    <t>COMMERCIAL BOWL 1319 EL  1.28</t>
   </si>
   <si>
     <t>348 4" LAV</t>
@@ -5146,11 +5126,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}">
-  <dimension ref="A1:R52"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5177,81 +5158,81 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="12" t="str">
-        <f>VLOOKUP(B2,Mansfield!$D$1:$L$20,9,0)</f>
+        <f>VLOOKUP(B2,Mansfield!$D$1:$L$19,9,0)</f>
         <v>Alto 130/160 RF 1.6 Combo</v>
       </c>
       <c r="D2" s="12">
-        <f t="shared" ref="D2:D33" si="0">COUNTIF($B$2:$B$52,B2)</f>
-        <v>3</v>
+        <f t="shared" ref="D2:D33" si="0">COUNTIF($B$2:$B$50,B2)</f>
+        <v>2</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H2" s="12" t="str">
         <f>VLOOKUP(E2,[1]query!$D:$O,4,0)</f>
@@ -5261,52 +5242,52 @@
         <v>12</v>
       </c>
       <c r="J2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="L2" s="15">
         <v>1.6</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="O2" s="12"/>
       <c r="P2" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q2" s="25">
         <v>0.41</v>
       </c>
       <c r="R2" s="12"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="12" t="str">
-        <f>VLOOKUP(B3,Mansfield!$D$1:$L$20,9,0)</f>
+        <f>VLOOKUP(B3,Mansfield!$D$1:$L$19,9,0)</f>
         <v>Alto 135/160  El 1.6 Combo</v>
       </c>
       <c r="D3" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H3" s="12" t="str">
         <f>VLOOKUP(E3,[1]query!$D:$O,4,0)</f>
@@ -5316,38 +5297,38 @@
         <v>12</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L3" s="15">
         <v>1.6</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q3" s="25">
         <v>0.41</v>
       </c>
       <c r="R3" s="12"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C4" s="12" t="str">
-        <f>VLOOKUP(B4,Mansfield!$D$1:$L$20,9,0)</f>
+        <f>VLOOKUP(B4,Mansfield!$D$1:$L$19,9,0)</f>
         <v>Summit 384/386  ADA 1.28 Combo</v>
       </c>
       <c r="D4" s="12">
@@ -5358,10 +5339,10 @@
         <v>5</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H4" s="12" t="str">
         <f>VLOOKUP(E4,[1]query!$D:$O,4,0)</f>
@@ -5371,106 +5352,107 @@
         <v>12</v>
       </c>
       <c r="J4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="L4" s="15">
         <v>1.6</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q4" s="25">
         <v>0.41</v>
       </c>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C5" s="12" t="str">
-        <f>VLOOKUP(B5,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>Alto 135/160  El 1.6 Combo</v>
+        <f>VLOOKUP(B5,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>Alto 130/160 RF 1.6 Combo</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="12">
+        <v>43</v>
+      </c>
+      <c r="H5" s="12" t="str">
+        <f>VLOOKUP(E5,[1]query!$D:$O,4,0)</f>
+        <v>Reliant</v>
+      </c>
+      <c r="I5" s="15">
         <v>12</v>
       </c>
       <c r="J5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="12">
-        <v>1.6</v>
+      <c r="L5" s="15">
+        <v>1.28</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="25">
         <v>0.34</v>
       </c>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C6" s="12" t="str">
-        <f>VLOOKUP(B6,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>Alto 130/160 RF 1.6 Combo</v>
+        <f>VLOOKUP(B6,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>Alto 135/160  El 1.6 Combo</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H6" s="12" t="str">
         <f>VLOOKUP(E6,[1]query!$D:$O,4,0)</f>
@@ -5480,52 +5462,52 @@
         <v>12</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L6" s="15">
         <v>1.28</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="O6" s="12"/>
       <c r="P6" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q6" s="25">
         <v>0.34</v>
       </c>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="12" t="str">
-        <f>VLOOKUP(B7,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>Alto 135/160  El 1.6 Combo</v>
+        <f>VLOOKUP(B7,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>Alto 137/160 ADA EL 1.6 Combo</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H7" s="12" t="str">
         <f>VLOOKUP(E7,[1]query!$D:$O,4,0)</f>
@@ -5535,23 +5517,23 @@
         <v>12</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L7" s="15">
         <v>1.28</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>28</v>
+        <v>106</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="O7" s="12"/>
       <c r="P7" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q7" s="25">
         <v>0.34</v>
@@ -5560,141 +5542,135 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C8" s="12" t="str">
-        <f>VLOOKUP(B8,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>Alto 137/160 ADA EL 1.6 Combo</v>
+        <f>VLOOKUP(B8,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>QUANTUM 148123 1.6 EL  SMARTHEIGHT Combo</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H8" s="12" t="str">
         <f>VLOOKUP(E8,[1]query!$D:$O,4,0)</f>
-        <v>Reliant</v>
+        <v>Ultra Flush</v>
       </c>
       <c r="I8" s="15">
         <v>12</v>
       </c>
       <c r="J8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="L8" s="15">
-        <v>1.28</v>
+        <v>1.6</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="12"/>
+        <v>105</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="O8" s="14"/>
       <c r="P8" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q8" s="25">
         <v>0.34</v>
       </c>
       <c r="R8" s="12"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:18" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="12" t="str">
-        <f>VLOOKUP(B9,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>QUANTUM 148123 1.6 EL  SMARTHEIGHT Combo</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="B9" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="31" t="str">
+        <f>VLOOKUP(B9,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>QUANTUM TANK  123 LH</v>
+      </c>
+      <c r="D9" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="12" t="str">
+      <c r="E9" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="31" t="str">
         <f>VLOOKUP(E9,[1]query!$D:$O,4,0)</f>
         <v>Ultra Flush</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="33">
         <v>12</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="15">
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="33">
         <v>1.6</v>
       </c>
-      <c r="M9" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="O9" s="14"/>
-      <c r="P9" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q9" s="25">
-        <v>0.34</v>
-      </c>
-      <c r="R9" s="12"/>
-    </row>
-    <row r="10" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q9" s="34">
+        <v>0.41</v>
+      </c>
+      <c r="R9" s="31">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="31" t="str">
-        <f>VLOOKUP(B10,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>QUANTUM TANK  123 LH</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C10" s="31"/>
       <c r="D10" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>204</v>
+        <v>126</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="31" t="str">
-        <f>VLOOKUP(E10,[1]query!$D:$O,4,0)</f>
-        <v>Ultra Flush</v>
+        <v>42</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>65</v>
       </c>
       <c r="I10" s="33">
         <v>12</v>
@@ -5702,48 +5678,51 @@
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
       <c r="L10" s="33">
-        <v>1.6</v>
+        <v>1.28</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P10" s="31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q10" s="34">
         <v>0.41</v>
       </c>
       <c r="R10" s="31">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="C11" s="31"/>
+      <c r="B11" s="36">
+        <v>160010007</v>
+      </c>
+      <c r="C11" s="31" t="str">
+        <f>VLOOKUP(B11,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>ALTO TANK 160 1.6</v>
+      </c>
       <c r="D11" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I11" s="33">
         <v>12</v>
@@ -5751,17 +5730,17 @@
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
       <c r="L11" s="33">
-        <v>1.28</v>
+        <v>1.6</v>
       </c>
       <c r="M11" s="31" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P11" s="31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q11" s="34">
         <v>0.41</v>
@@ -5770,64 +5749,65 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="36">
-        <v>160010007</v>
-      </c>
-      <c r="C12" s="31" t="str">
-        <f>VLOOKUP(B12,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>ALTO TANK 160 1.6</v>
-      </c>
+      <c r="B12" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" s="31"/>
       <c r="D12" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12" s="31" t="s">
         <v>44</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I12" s="33">
         <v>12</v>
       </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
+      <c r="J12" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="L12" s="33">
-        <v>1.6</v>
+        <v>1.28</v>
       </c>
       <c r="M12" s="31" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="N12" s="31"/>
-      <c r="O12" s="31" t="s">
-        <v>259</v>
+      <c r="O12" s="37" t="s">
+        <v>254</v>
       </c>
       <c r="P12" s="31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q12" s="34">
         <v>0.41</v>
       </c>
       <c r="R12" s="31">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="31">
@@ -5835,97 +5815,100 @@
         <v>2</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I13" s="33">
         <v>12</v>
       </c>
       <c r="J13" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="33" t="s">
         <v>51</v>
-      </c>
-      <c r="K13" s="31" t="s">
-        <v>53</v>
       </c>
       <c r="L13" s="33">
         <v>1.28</v>
       </c>
       <c r="M13" s="31" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="N13" s="31"/>
-      <c r="O13" s="37" t="s">
-        <v>260</v>
+      <c r="O13" s="31" t="s">
+        <v>255</v>
       </c>
       <c r="P13" s="31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q13" s="34">
         <v>0.41</v>
       </c>
       <c r="R13" s="31">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="C14" s="31"/>
+        <v>60</v>
+      </c>
+      <c r="C14" s="31" t="str">
+        <f>VLOOKUP(B14,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>ALTO BOWL 130 1.6</v>
+      </c>
       <c r="D14" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I14" s="33">
         <v>12</v>
       </c>
       <c r="J14" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="33" t="s">
-        <v>53</v>
-      </c>
       <c r="L14" s="33">
-        <v>1.28</v>
+        <v>1.6</v>
       </c>
       <c r="M14" s="31" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="N14" s="31"/>
       <c r="O14" s="31" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="P14" s="31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="34">
         <v>0.41</v>
       </c>
       <c r="R14" s="31">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -5933,211 +5916,203 @@
         <v>4</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C15" s="31" t="str">
-        <f>VLOOKUP(B15,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>ALTO BOWL 130 1.6</v>
+        <f>VLOOKUP(B15,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>ALTO BOWL 151 EL ADA 1.6</v>
       </c>
       <c r="D15" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F15" s="31" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>68</v>
+        <v>202</v>
       </c>
       <c r="I15" s="33">
         <v>12</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="L15" s="33">
-        <v>1.6</v>
+        <v>51</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>234</v>
       </c>
       <c r="M15" s="31" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N15" s="31"/>
       <c r="O15" s="31" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q15" s="34">
         <v>0.41</v>
       </c>
       <c r="R15" s="31">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C16" s="31" t="str">
-        <f>VLOOKUP(B16,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>ALTO BOWL 151 EL ADA 1.6</v>
+        <f>VLOOKUP(B16,Mansfield!$D$1:$L$19,9,0)</f>
+        <v xml:space="preserve">SUMMIT TANK 386      </v>
       </c>
       <c r="D16" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="I16" s="33">
-        <v>12</v>
-      </c>
-      <c r="J16" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="33" t="s">
-        <v>240</v>
+        <v>66</v>
+      </c>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33">
+        <v>1.6</v>
       </c>
       <c r="M16" s="31" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="N16" s="31"/>
       <c r="O16" s="31" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="P16" s="31" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="34">
         <v>0.41</v>
       </c>
       <c r="R16" s="31">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="31" t="str">
-        <f>VLOOKUP(B17,Mansfield!$D$1:$L$20,9,0)</f>
-        <v xml:space="preserve">SUMMIT TANK 386      </v>
-      </c>
-      <c r="D17" s="31">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="12" t="str">
+        <f>VLOOKUP(B17,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>QUANTUM 148123 1.6 EL  SMARTHEIGHT Combo</v>
+      </c>
+      <c r="D17" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E17" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33">
+      <c r="E17" s="13">
+        <v>2467016</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="12">
+        <v>12</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="12">
         <v>1.6</v>
       </c>
-      <c r="M17" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="P17" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q17" s="34">
-        <v>0.41</v>
-      </c>
-      <c r="R17" s="31">
-        <v>132</v>
-      </c>
+      <c r="M17" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="O17" s="14"/>
+      <c r="P17" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q17" s="25">
+        <v>0.34</v>
+      </c>
+      <c r="R17" s="12"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>8</v>
+      <c r="A18" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="C18" s="12" t="str">
-        <f>VLOOKUP(B18,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>QUANTUM 148123 1.6 EL  SMARTHEIGHT Combo</v>
+        <f>VLOOKUP(B18,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>QUANTUM TANK  123 LH</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E18" s="13">
-        <v>2467016</v>
+      <c r="E18" s="17">
+        <v>4142016</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="12">
-        <v>12</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="16"/>
       <c r="L18" s="12">
         <v>1.6</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>218</v>
+        <v>108</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="O18" s="14"/>
       <c r="P18" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q18" s="25">
         <v>0.34</v>
@@ -6145,206 +6120,209 @@
       <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>8</v>
+      <c r="A19" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C19" s="12" t="str">
-        <f>VLOOKUP(B19,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>QUANTUM TANK  123 LH</v>
+        <f>VLOOKUP(B19,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>COMMERCIAL BOWL 1319 EL ADA  1.28</v>
       </c>
       <c r="D19" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E19" s="17">
-        <v>4142016</v>
+        <v>3043001</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>44</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="12">
-        <v>1.6</v>
+        <v>46</v>
+      </c>
+      <c r="I19" s="15">
+        <v>12</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>233</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="N19" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="O19" s="14"/>
+        <v>109</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O19" s="12"/>
       <c r="P19" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q19" s="25">
         <v>0.34</v>
       </c>
       <c r="R19" s="12"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="12" t="str">
-        <f>VLOOKUP(B20,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>COMMERCIAL BOWL 1319 EL  1.28</v>
-      </c>
-      <c r="D20" s="12">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E20" s="17">
-        <v>3043001</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="15">
-        <v>12</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L20" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="N20" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q20" s="25">
+      <c r="E20" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="21">
+        <v>1.28</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="N20" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q20" s="26">
         <v>0.34</v>
       </c>
-      <c r="R20" s="12"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19">
+      <c r="R20" s="19"/>
+    </row>
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="16">
+        <v>160010007</v>
+      </c>
+      <c r="C21" s="12" t="str">
+        <f>VLOOKUP(B21,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>ALTO TANK 160 1.6</v>
+      </c>
+      <c r="D21" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E21" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="21">
-        <v>1.28</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="N21" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q21" s="26">
+      <c r="E21" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q21" s="25">
         <v>0.34</v>
       </c>
-      <c r="R21" s="19"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="16">
-        <v>160010007</v>
-      </c>
-      <c r="C22" s="12" t="str">
-        <f>VLOOKUP(B22,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>ALTO TANK 160 1.6</v>
-      </c>
-      <c r="D22" s="12">
+      <c r="R21" s="12"/>
+    </row>
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="12" t="s">
+      <c r="E22" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="21">
+        <v>12</v>
+      </c>
+      <c r="J22" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="15">
-        <v>1.6</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="N22" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q22" s="25">
+      <c r="K22" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" s="21">
+        <v>1.28</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="N22" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q22" s="26">
         <v>0.34</v>
       </c>
-      <c r="R22" s="12"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R22" s="19"/>
+    </row>
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19">
@@ -6352,143 +6330,146 @@
         <v>2</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I23" s="21">
         <v>12</v>
       </c>
       <c r="J23" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="19" t="s">
         <v>51</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="L23" s="21">
         <v>1.28</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O23" s="19"/>
       <c r="P23" s="19" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q23" s="26">
         <v>0.34</v>
       </c>
       <c r="R23" s="19"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="12" t="str">
+        <f>VLOOKUP(B24,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>ALTO BOWL 130 1.6</v>
+      </c>
+      <c r="D24" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E24" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="21">
+      <c r="E24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="15">
         <v>12</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="K24" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24" s="21">
+      <c r="L24" s="15">
         <v>1.28</v>
       </c>
-      <c r="M24" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="N24" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q24" s="26">
+      <c r="M24" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q24" s="25">
         <v>0.34</v>
       </c>
-      <c r="R24" s="19"/>
+      <c r="R24" s="12"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C25" s="12" t="str">
-        <f>VLOOKUP(B25,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>ALTO BOWL 130 1.6</v>
+        <f>VLOOKUP(B25,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>ALTO BOWL 151 EL ADA 1.6</v>
       </c>
       <c r="D25" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>43</v>
+      <c r="E25" s="17">
+        <v>3703100</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="I25" s="15">
         <v>12</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L25" s="15">
-        <v>1.28</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="O25" s="12"/>
       <c r="P25" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q25" s="25">
         <v>0.34</v>
@@ -6497,52 +6478,46 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C26" s="12" t="str">
-        <f>VLOOKUP(B26,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>ALTO BOWL 151 EL ADA 1.6</v>
+        <f>VLOOKUP(B26,Mansfield!$D$1:$L$19,9,0)</f>
+        <v xml:space="preserve">SUMMIT TANK 386      </v>
       </c>
       <c r="D26" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E26" s="17">
-        <v>3703100</v>
+      <c r="E26" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" s="15">
-        <v>12</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>53</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
       <c r="L26" s="15">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O26" s="12"/>
       <c r="P26" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q26" s="25">
         <v>0.34</v>
@@ -6551,288 +6526,270 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C27" s="12" t="str">
-        <f>VLOOKUP(B27,Mansfield!$D$1:$L$20,9,0)</f>
-        <v xml:space="preserve">SUMMIT TANK 386      </v>
+        <f>VLOOKUP(B27,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>COMMERCIAL BOWL 1319 EL ADA  1.28</v>
       </c>
       <c r="D27" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>44</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
+        <v>64</v>
+      </c>
+      <c r="I27" s="15">
+        <v>10</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="L27" s="15">
-        <v>1.6</v>
+        <v>1.28</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O27" s="12"/>
       <c r="P27" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q27" s="25">
-        <v>0.34</v>
+        <v>0.41</v>
       </c>
       <c r="R27" s="12"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="C28" s="12" t="str">
-        <f>VLOOKUP(B28,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>COMMERCIAL BOWL 1319 EL  1.28</v>
+        <f>VLOOKUP(B28,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>Alto 137/160 ADA EL 1.6 Combo</v>
       </c>
       <c r="D28" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I28" s="15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J28" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="L28" s="15">
         <v>1.28</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O28" s="12"/>
       <c r="P28" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q28" s="25">
         <v>0.41</v>
       </c>
       <c r="R28" s="12"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="12" t="str">
-        <f>VLOOKUP(B29,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>Alto 137/160 ADA EL 1.6 Combo</v>
+        <f>VLOOKUP(B29,Mansfield!$D$1:$L$19,9,0)</f>
+        <v>HET 3489-V El 1.28 Combo </v>
       </c>
       <c r="D29" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I29" s="15">
         <v>12</v>
       </c>
       <c r="J29" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="L29" s="15">
         <v>1.28</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="N29" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O29" s="12"/>
       <c r="P29" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q29" s="25">
         <v>0.41</v>
       </c>
       <c r="R29" s="12"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="12" t="str">
-        <f>VLOOKUP(B30,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>Alto 130/160 RF 1.6 Combo</v>
-      </c>
-      <c r="D30" s="12">
+      <c r="B30" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="9" t="str">
+        <f>VLOOKUP(B30,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>237 Lav</v>
+      </c>
+      <c r="D30" s="9">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I30" s="15">
-        <v>12</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L30" s="15">
-        <v>1.6</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="N30" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q30" s="25">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="O30" s="10"/>
+      <c r="P30" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q30" s="27">
         <v>0.41</v>
       </c>
-      <c r="R30" s="12"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="12" t="str">
-        <f>VLOOKUP(B31,Mansfield!$D$1:$L$20,9,0)</f>
-        <v>HET 3489-V El 1.28 Combo </v>
-      </c>
-      <c r="D31" s="12">
+      <c r="B31" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="9" t="str">
+        <f>VLOOKUP(B31,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>217 Lav</v>
+      </c>
+      <c r="D31" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I31" s="15">
-        <v>12</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L31" s="15">
-        <v>1.28</v>
-      </c>
-      <c r="M31" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q31" s="25">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="O31" s="10"/>
+      <c r="P31" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q31" s="27">
         <v>0.41</v>
       </c>
-      <c r="R31" s="12"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>VLOOKUP(B32,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>237 Lav</v>
+        <f>VLOOKUP(B32,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>292 Lav</v>
       </c>
       <c r="D32" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -6840,41 +6797,41 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="N32" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="O32" s="10"/>
+      <c r="M32" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="O32" s="3"/>
       <c r="P32" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q32" s="27">
         <v>0.41</v>
       </c>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>VLOOKUP(B33,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>217 Lav</v>
+        <f>VLOOKUP(B33,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>328 4" LAV</v>
       </c>
       <c r="D33" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -6883,40 +6840,40 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="O33" s="10"/>
       <c r="P33" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q33" s="27">
         <v>0.41</v>
       </c>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>VLOOKUP(B34,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>292 Lav</v>
+        <f>VLOOKUP(B34,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>218 COVINGTON LAV</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" ref="D34:D52" si="1">COUNTIF($B$2:$B$52,B34)</f>
+        <f t="shared" ref="D34:D50" si="1">COUNTIF($B$2:$B$50,B34)</f>
         <v>2</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -6924,41 +6881,41 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
-      <c r="M34" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O34" s="3"/>
+      <c r="M34" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="O34" s="10"/>
       <c r="P34" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q34" s="27">
         <v>0.41</v>
       </c>
       <c r="R34" s="3"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>VLOOKUP(B35,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>328 4" LAV</v>
+        <f>VLOOKUP(B35,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>239 4" MS ROUND LAV</v>
       </c>
       <c r="D35" s="9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -6967,40 +6924,40 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="O35" s="10"/>
       <c r="P35" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q35" s="27">
         <v>0.41</v>
       </c>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>VLOOKUP(B36,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>218 COVINGTON LAV</v>
+        <f>VLOOKUP(B36,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>348 4" LAV</v>
       </c>
       <c r="D36" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -7009,40 +6966,40 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="O36" s="10"/>
       <c r="P36" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q36" s="27">
         <v>0.41</v>
       </c>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>VLOOKUP(B37,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>239 4" MS ROUND LAV</v>
+        <f>VLOOKUP(B37,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>272 4" LAV</v>
       </c>
       <c r="D37" s="9">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -7051,40 +7008,40 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N37" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="N37" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="O37" s="10"/>
+      <c r="O37" s="3"/>
       <c r="P37" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q37" s="27">
         <v>0.41</v>
       </c>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>VLOOKUP(B38,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>348 4" LAV</v>
+        <f>VLOOKUP(B38,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>251 4" LAV</v>
       </c>
       <c r="D38" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -7093,40 +7050,40 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="O38" s="10"/>
       <c r="P38" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q38" s="27">
         <v>0.41</v>
       </c>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>VLOOKUP(B39,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>272 4" LAV</v>
+        <f>VLOOKUP(B39,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>234 BRENTWOOD LAV</v>
       </c>
       <c r="D39" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -7135,40 +7092,40 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="O39" s="3"/>
+        <v>185</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="O39" s="10"/>
       <c r="P39" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q39" s="27">
         <v>0.41</v>
       </c>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>VLOOKUP(B40,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>251 4" LAV</v>
+        <f>VLOOKUP(B40,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>328 8" LAV</v>
       </c>
       <c r="D40" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -7177,124 +7134,124 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O40" s="10"/>
       <c r="P40" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q40" s="27">
         <v>0.41</v>
       </c>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C41" s="9" t="str">
-        <f>VLOOKUP(B41,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>234 BRENTWOOD LAV</v>
-      </c>
-      <c r="D41" s="9">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="22" t="str">
+        <f>VLOOKUP(B41,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>237 Lav</v>
+      </c>
+      <c r="D41" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="N41" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="O41" s="10"/>
-      <c r="P41" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q41" s="27">
-        <v>0.41</v>
+      <c r="E41" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="N41" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q41" s="28">
+        <v>0.34</v>
       </c>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C42" s="9" t="str">
-        <f>VLOOKUP(B42,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>328 8" LAV</v>
-      </c>
-      <c r="D42" s="9">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="22" t="str">
+        <f>VLOOKUP(B42,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>217 Lav</v>
+      </c>
+      <c r="D42" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="N42" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="O42" s="10"/>
-      <c r="P42" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q42" s="27">
-        <v>0.41</v>
+      <c r="E42" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="N42" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q42" s="28">
+        <v>0.34</v>
       </c>
       <c r="R42" s="3"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C43" s="22" t="str">
-        <f>VLOOKUP(B43,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>237 Lav</v>
+        <f>VLOOKUP(B43,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>292 Lav</v>
       </c>
       <c r="D43" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
@@ -7303,40 +7260,40 @@
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="N43" s="22" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="O43" s="22"/>
       <c r="P43" s="22" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q43" s="28">
         <v>0.34</v>
       </c>
       <c r="R43" s="3"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C44" s="22" t="str">
-        <f>VLOOKUP(B44,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>217 Lav</v>
+        <f>VLOOKUP(B44,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>328 4" LAV</v>
       </c>
       <c r="D44" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E44" s="22" t="s">
-        <v>167</v>
+      <c r="E44" s="23" t="s">
+        <v>192</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
@@ -7345,40 +7302,40 @@
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N44" s="22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O44" s="22"/>
       <c r="P44" s="22" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q44" s="28">
         <v>0.34</v>
       </c>
       <c r="R44" s="3"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C45" s="22" t="str">
-        <f>VLOOKUP(B45,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>292 Lav</v>
+        <f>VLOOKUP(B45,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>218 COVINGTON LAV</v>
       </c>
       <c r="D45" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
@@ -7387,40 +7344,40 @@
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N45" s="22" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O45" s="22"/>
       <c r="P45" s="22" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q45" s="28">
         <v>0.34</v>
       </c>
       <c r="R45" s="3"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C46" s="22" t="str">
-        <f>VLOOKUP(B46,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>328 4" LAV</v>
+        <f>VLOOKUP(B46,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>348 4" LAV</v>
       </c>
       <c r="D46" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E46" s="23" t="s">
-        <v>198</v>
+      <c r="E46" s="22" t="s">
+        <v>164</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G46" s="22"/>
       <c r="H46" s="22"/>
@@ -7429,40 +7386,40 @@
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N46" s="22" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="O46" s="22"/>
       <c r="P46" s="22" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q46" s="28">
         <v>0.34</v>
       </c>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C47" s="22" t="str">
-        <f>VLOOKUP(B47,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>218 COVINGTON LAV</v>
+        <f>VLOOKUP(B47,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>272 4" LAV</v>
       </c>
       <c r="D47" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
@@ -7471,40 +7428,40 @@
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N47" s="22" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="O47" s="22"/>
       <c r="P47" s="22" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q47" s="28">
         <v>0.34</v>
       </c>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C48" s="22" t="str">
-        <f>VLOOKUP(B48,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>348 4" LAV</v>
+        <f>VLOOKUP(B48,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>251 4" LAV</v>
       </c>
       <c r="D48" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
@@ -7513,40 +7470,40 @@
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="N48" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="O48" s="22"/>
+        <v>168</v>
+      </c>
+      <c r="N48" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="O48" s="24"/>
       <c r="P48" s="22" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q48" s="28">
         <v>0.34</v>
       </c>
       <c r="R48" s="3"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C49" s="22" t="str">
-        <f>VLOOKUP(B49,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>272 4" LAV</v>
+        <f>VLOOKUP(B49,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>234 BRENTWOOD LAV</v>
       </c>
       <c r="D49" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
@@ -7555,40 +7512,40 @@
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N49" s="22" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O49" s="22"/>
       <c r="P49" s="22" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q49" s="28">
         <v>0.34</v>
       </c>
       <c r="R49" s="3"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C50" s="22" t="str">
-        <f>VLOOKUP(B50,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>251 4" LAV</v>
+        <f>VLOOKUP(B50,Mansfield!$D$1:$L$49,9,0)</f>
+        <v>328 8" LAV</v>
       </c>
       <c r="D50" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
@@ -7597,141 +7554,62 @@
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N50" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="O50" s="24"/>
+        <v>197</v>
+      </c>
+      <c r="O50" s="22"/>
       <c r="P50" s="22" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q50" s="28">
         <v>0.34</v>
       </c>
       <c r="R50" s="3"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C51" s="22" t="str">
-        <f>VLOOKUP(B51,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>234 BRENTWOOD LAV</v>
-      </c>
-      <c r="D51" s="22">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="N51" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q51" s="28">
-        <v>0.34</v>
-      </c>
-      <c r="R51" s="3"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="C52" s="22" t="str">
-        <f>VLOOKUP(B52,Mansfield!$D$1:$L$50,9,0)</f>
-        <v>328 8" LAV</v>
-      </c>
-      <c r="D52" s="22">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="N52" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q52" s="28">
-        <v>0.34</v>
-      </c>
-      <c r="R52" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:R52" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}"/>
+  <autoFilter ref="A1:R50" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Commercial"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="N6" r:id="rId1" xr:uid="{EF7953C9-ED02-4DDB-9445-D95A01E86511}"/>
-    <hyperlink ref="N18" r:id="rId2" xr:uid="{CD91D937-81FC-495B-9B8D-2E8D7673C161}"/>
-    <hyperlink ref="N5" r:id="rId3" xr:uid="{E3330B5E-87F5-49AA-8053-64A164A612C6}"/>
-    <hyperlink ref="N19" r:id="rId4" xr:uid="{F8CC36D8-B3D6-4CE7-8BB1-39588FC65DFD}"/>
-    <hyperlink ref="N50" r:id="rId5" xr:uid="{E3B9BAE2-78EC-4625-BD19-698C4A48EC97}"/>
-    <hyperlink ref="N3" r:id="rId6" xr:uid="{EF43BBC5-D734-48E3-8E51-41FA4C5BBAAC}"/>
-    <hyperlink ref="N4" r:id="rId7" xr:uid="{22484C09-4856-4889-8D85-F3AB32A71518}"/>
-    <hyperlink ref="N9" r:id="rId8" xr:uid="{6A10DF77-5DF5-4F15-83CF-4EE626A1CEE3}"/>
-    <hyperlink ref="N32" r:id="rId9" xr:uid="{F37460DF-2564-4429-91B1-6BA15AE0C40D}"/>
-    <hyperlink ref="N33" r:id="rId10" xr:uid="{5FA15A89-8D97-4347-8409-801BF0EB34DA}"/>
-    <hyperlink ref="N35" r:id="rId11" xr:uid="{3F809B5C-0F80-4242-A83A-CB2D74BB3A0E}"/>
-    <hyperlink ref="N36" r:id="rId12" xr:uid="{6D20289D-9F93-42B1-A99D-4583DD5D70FA}"/>
-    <hyperlink ref="N37" r:id="rId13" xr:uid="{F473458B-5628-44DC-BD66-D3DDD7DD07A2}"/>
-    <hyperlink ref="N38" r:id="rId14" xr:uid="{2B8A67F9-2D5C-4A93-9C82-E5B32B266FA4}"/>
-    <hyperlink ref="N40" r:id="rId15" xr:uid="{1515F505-E4F5-43A7-A068-D4C92341112C}"/>
-    <hyperlink ref="N41" r:id="rId16" xr:uid="{1E8E0998-C4EC-48BC-8445-39D26C94D065}"/>
-    <hyperlink ref="N42" r:id="rId17" xr:uid="{6C553BF5-CDFB-415A-8EA1-065521322AC3}"/>
-    <hyperlink ref="O13" r:id="rId18" xr:uid="{B3A4AC13-7BED-45E9-A2E7-413F39FCC9AC}"/>
-    <hyperlink ref="N21" r:id="rId19" xr:uid="{733DEA3E-9B23-4503-A490-0AB978FEFE69}"/>
-    <hyperlink ref="N22" r:id="rId20" xr:uid="{2DAD8D07-0D2B-4F9B-8144-3DE45BAA9CC2}"/>
-    <hyperlink ref="N7" r:id="rId21" xr:uid="{3360E79D-3758-4E75-B584-1F6C54804F8E}"/>
-    <hyperlink ref="N52" r:id="rId22" xr:uid="{0FEA31B0-3DE4-45A4-A8D7-5CAE3AD57EAE}"/>
+    <hyperlink ref="N5" r:id="rId1" xr:uid="{EF7953C9-ED02-4DDB-9445-D95A01E86511}"/>
+    <hyperlink ref="N17" r:id="rId2" xr:uid="{CD91D937-81FC-495B-9B8D-2E8D7673C161}"/>
+    <hyperlink ref="N18" r:id="rId3" xr:uid="{F8CC36D8-B3D6-4CE7-8BB1-39588FC65DFD}"/>
+    <hyperlink ref="N48" r:id="rId4" xr:uid="{E3B9BAE2-78EC-4625-BD19-698C4A48EC97}"/>
+    <hyperlink ref="N3" r:id="rId5" xr:uid="{EF43BBC5-D734-48E3-8E51-41FA4C5BBAAC}"/>
+    <hyperlink ref="N4" r:id="rId6" xr:uid="{22484C09-4856-4889-8D85-F3AB32A71518}"/>
+    <hyperlink ref="N8" r:id="rId7" xr:uid="{6A10DF77-5DF5-4F15-83CF-4EE626A1CEE3}"/>
+    <hyperlink ref="N30" r:id="rId8" xr:uid="{F37460DF-2564-4429-91B1-6BA15AE0C40D}"/>
+    <hyperlink ref="N31" r:id="rId9" xr:uid="{5FA15A89-8D97-4347-8409-801BF0EB34DA}"/>
+    <hyperlink ref="N33" r:id="rId10" xr:uid="{3F809B5C-0F80-4242-A83A-CB2D74BB3A0E}"/>
+    <hyperlink ref="N34" r:id="rId11" xr:uid="{6D20289D-9F93-42B1-A99D-4583DD5D70FA}"/>
+    <hyperlink ref="N35" r:id="rId12" xr:uid="{F473458B-5628-44DC-BD66-D3DDD7DD07A2}"/>
+    <hyperlink ref="N36" r:id="rId13" xr:uid="{2B8A67F9-2D5C-4A93-9C82-E5B32B266FA4}"/>
+    <hyperlink ref="N38" r:id="rId14" xr:uid="{1515F505-E4F5-43A7-A068-D4C92341112C}"/>
+    <hyperlink ref="N39" r:id="rId15" xr:uid="{1E8E0998-C4EC-48BC-8445-39D26C94D065}"/>
+    <hyperlink ref="N40" r:id="rId16" xr:uid="{6C553BF5-CDFB-415A-8EA1-065521322AC3}"/>
+    <hyperlink ref="O12" r:id="rId17" xr:uid="{B3A4AC13-7BED-45E9-A2E7-413F39FCC9AC}"/>
+    <hyperlink ref="N20" r:id="rId18" xr:uid="{733DEA3E-9B23-4503-A490-0AB978FEFE69}"/>
+    <hyperlink ref="N21" r:id="rId19" xr:uid="{2DAD8D07-0D2B-4F9B-8144-3DE45BAA9CC2}"/>
+    <hyperlink ref="N6" r:id="rId20" xr:uid="{3360E79D-3758-4E75-B584-1F6C54804F8E}"/>
+    <hyperlink ref="N50" r:id="rId21" xr:uid="{0FEA31B0-3DE4-45A4-A8D7-5CAE3AD57EAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C581B3-4A49-4D7E-AF67-B0CA84DD1A3A}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7749,99 +7627,99 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H2" s="3">
         <v>12</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K2" s="4">
         <v>1.6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P2" s="3">
         <v>0.42749999999999999</v>
@@ -7853,43 +7731,43 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H3" s="3">
         <v>12</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K3" s="4">
         <v>1.6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P3" s="3">
         <v>0.42749999999999999</v>
@@ -7901,43 +7779,43 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H4" s="3">
         <v>12</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="K4" s="4">
         <v>1.6</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P4" s="3">
         <v>0.42749999999999999</v>
@@ -7949,41 +7827,41 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H5" s="3">
         <v>12</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K5" s="4">
         <v>1.28</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P5" s="3">
         <v>0.42749999999999999</v>
@@ -7995,43 +7873,43 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H6" s="3">
         <v>12</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K6" s="4">
         <v>1.28</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P6" s="3">
         <v>0.42749999999999999</v>
@@ -8043,43 +7921,43 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H7" s="3">
         <v>12</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="K7" s="4">
         <v>1.6</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P7" s="3">
         <v>0.42749999999999999</v>
@@ -8091,41 +7969,41 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H8" s="3">
         <v>12</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K8" s="3">
         <v>1.28</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P8" s="3">
         <v>0.42749999999999999</v>
@@ -8137,41 +8015,41 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P9" s="3">
         <v>0.42749999999999999</v>
@@ -8183,41 +8061,41 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H10" s="3">
         <v>12</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K10" s="3">
         <v>1.28</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P10" s="3">
         <v>0.42749999999999999</v>
@@ -8229,43 +8107,43 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P11" s="3">
         <v>0.42749999999999999</v>
@@ -8277,447 +8155,435 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="9" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="3">
-        <v>10</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>51</v>
+        <v>29</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P12" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="8">
-        <v>117.11139459698248</v>
+        <v>41.3095536973387</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="9" t="s">
-        <v>59</v>
+      <c r="D13" s="29">
+        <v>160010007</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>297</v>
+        <v>230</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P13" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="8">
-        <v>41.3095536973387</v>
+        <v>41.309324999999994</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="29">
-        <v>160010007</v>
+      <c r="D14" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>50</v>
+        <v>29</v>
+      </c>
+      <c r="H14" s="3">
+        <v>12</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.6</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P14" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="8">
-        <v>41.309324999999994</v>
+        <v>94.481695102577731</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H15" s="3">
         <v>12</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="K15" s="3">
         <v>1.6</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>298</v>
+        <v>121</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P15" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="8">
-        <v>94.481695102577731</v>
+        <v>54.817767294848409</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H16" s="3">
         <v>12</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K16" s="3">
         <v>1.6</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>127</v>
+        <v>293</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P16" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="8">
-        <v>54.817767294848409</v>
+        <v>47.024419817793579</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="9" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="3">
-        <v>12</v>
+        <v>82</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="K17" s="3">
         <v>1.6</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P17" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="8">
-        <v>47.024419817793579</v>
+        <v>212.23939813904951</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1.6</v>
+        <v>48</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>294</v>
+        <v>122</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P18" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="8">
-        <v>212.23939813904951</v>
+        <v>49.064810425312494</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="A19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>50</v>
+      <c r="G19" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="6">
+        <v>10</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1.28</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P19" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="8">
-        <v>49.064810425312494</v>
+        <v>117.11139459698248</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H20" s="6">
-        <v>10</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K20" s="6">
-        <v>1.28</v>
-      </c>
+      <c r="A20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
       <c r="L20" s="3" t="s">
-        <v>129</v>
+        <v>259</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P20" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="8">
-        <v>117.11139459698248</v>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="38">
+        <v>52.942869297499996</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -8726,34 +8592,34 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P21" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q21" s="9"/>
       <c r="R21" s="38">
-        <v>52.942869297499996</v>
+        <v>85.042520952999979</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -8762,34 +8628,34 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P22" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q22" s="9"/>
       <c r="R22" s="38">
-        <v>85.042520952999979</v>
+        <v>157.47435999099997</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -8798,34 +8664,34 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3" t="s">
-        <v>266</v>
+        <v>143</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P23" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q23" s="9"/>
       <c r="R23" s="38">
-        <v>157.47435999099997</v>
+        <v>216.42350989999997</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -8834,34 +8700,34 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="M24" s="3"/>
-      <c r="N24" s="3" t="s">
-        <v>286</v>
+      <c r="N24" s="10" t="s">
+        <v>281</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P24" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q24" s="9"/>
       <c r="R24" s="38">
-        <v>216.42350989999997</v>
+        <v>143.22306508899996</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -8870,34 +8736,34 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3" t="s">
-        <v>267</v>
+        <v>144</v>
       </c>
       <c r="M25" s="3"/>
-      <c r="N25" s="10" t="s">
-        <v>287</v>
+      <c r="N25" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P25" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q25" s="9"/>
       <c r="R25" s="38">
-        <v>143.22306508899996</v>
+        <v>53.863614850499999</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -8906,34 +8772,34 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3" t="s">
-        <v>150</v>
+        <v>294</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P26" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q26" s="9"/>
       <c r="R26" s="38">
-        <v>53.863614850499999</v>
+        <v>127.29442705849998</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -8942,34 +8808,34 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3" t="s">
-        <v>301</v>
+        <v>145</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P27" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q27" s="9"/>
       <c r="R27" s="38">
-        <v>127.29442705849998</v>
+        <v>112.84723806849998</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -8978,34 +8844,34 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P28" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q28" s="9"/>
       <c r="R28" s="38">
-        <v>112.84723806849998</v>
+        <v>96.55129862299998</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -9014,34 +8880,34 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P29" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q29" s="9"/>
       <c r="R29" s="38">
-        <v>96.55129862299998</v>
+        <v>179.00866749999997</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -9050,68 +8916,33 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P30" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q30" s="9"/>
       <c r="R30" s="38">
-        <v>179.00866749999997</v>
+        <v>216.42350989999997</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="P31" s="3">
-        <v>0.42749999999999999</v>
-      </c>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="38">
-        <v>216.42350989999997</v>
-      </c>
+      <c r="Q31" s="39"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q32" s="39"/>
     </row>
-    <row r="33" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q33" s="39"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:R30" xr:uid="{85C581B3-4A49-4D7E-AF67-B0CA84DD1A3A}"/>
   <hyperlinks>
-    <hyperlink ref="N25" r:id="rId1" xr:uid="{1EF3E070-C7E3-490E-964F-83955FC35B0B}"/>
+    <hyperlink ref="N24" r:id="rId1" xr:uid="{1EF3E070-C7E3-490E-964F-83955FC35B0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -9137,39 +8968,39 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C2">
         <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E2">
         <v>110</v>
@@ -9184,16 +9015,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C3">
         <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E3">
         <v>96.63</v>
@@ -9208,16 +9039,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C4">
         <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E4">
         <v>128.22999999999999</v>
@@ -9232,16 +9063,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C5">
         <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F5">
         <v>0.42749999999999999</v>
@@ -9253,16 +9084,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C6">
         <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F6">
         <v>0.42749999999999999</v>
@@ -9274,16 +9105,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C7">
         <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F7">
         <v>0.42749999999999999</v>
@@ -9295,16 +9126,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C8">
         <v>3151</v>
       </c>
       <c r="D8" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F8">
         <v>0.42749999999999999</v>
@@ -9316,16 +9147,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C9">
         <v>3486</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F9">
         <v>0.42749999999999999</v>
@@ -9337,16 +9168,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C10">
         <v>384</v>
       </c>
       <c r="D10" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F10">
         <v>0.42749999999999999</v>
@@ -9358,13 +9189,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>386</v>
       </c>
       <c r="D11" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F11">
         <v>0.42749999999999999</v>
@@ -9376,16 +9207,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C12">
         <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F12">
         <v>0.42749999999999999</v>
@@ -9397,13 +9228,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F13">
         <v>0.42749999999999999</v>

--- a/XX_Master_database/Wholesaler_Database.xlsx
+++ b/XX_Master_database/Wholesaler_Database.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/01_APP_Dash/01_APP_Production/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1472" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57E4482F-A39E-4C0A-90E6-46F22F6BD394}"/>
+  <xr:revisionPtr revIDLastSave="1718" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38585AF7-133C-4CA6-9061-985FDD8215ED}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BB750D66-C71B-4412-8809-92E47E37BD8E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BB750D66-C71B-4412-8809-92E47E37BD8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Competitors" sheetId="1" r:id="rId1"/>
     <sheet name="Mansfield" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Competitors!$A$1:$R$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mansfield!$A$1:$R$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mansfield!$A$1:$R$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="299">
   <si>
     <t>GMX20902</t>
   </si>
@@ -147,9 +147,6 @@
     <t>137 Combo</t>
   </si>
   <si>
-    <t>3489-V</t>
-  </si>
-  <si>
     <t>Mansfield</t>
   </si>
   <si>
@@ -258,9 +255,6 @@
     <t>https://www.gerber-us.com/north-point-1-28-or-1-6-gpf-elongated-ergoheight-top-spud-bowl/products/us-G0025733</t>
   </si>
   <si>
-    <t>https://www.gerber-us.com/maxwell-1-28-gpf-12-rough-in-two-piece-elongated-ergoheight-toilet/products/us-GWS20918</t>
-  </si>
-  <si>
     <t>https://www.americanstandard-us.com/Toilets-Commercial/Pressure-Assist-16-gpf-60-Lpf-Left-Hand-Trip-Lever-EverClean-Tank/WHITE-4142016020</t>
   </si>
   <si>
@@ -270,9 +264,6 @@
     <t>https://www.americanstandard-us.com/Floor-Standing-Toilets/Reliant-Toilet-Tank-Only/WHITE-4425A104020</t>
   </si>
   <si>
-    <t>https://www.americanstandard-us.com/Floor-Standing-Toilets/Colony-16-gpf-60-Lpf-12-Inch-Rough-Tank/BONE-4192A004021</t>
-  </si>
-  <si>
     <t>https://www.americanstandard-us.com/Floor-Standing-Toilets/Reliant-Chair-Height-Elongated-Bowl-Only-Less-Seat/WHITE-3437A101020</t>
   </si>
   <si>
@@ -318,9 +309,6 @@
     <t>OPP</t>
   </si>
   <si>
-    <t>123010000</t>
-  </si>
-  <si>
     <t>131900001</t>
   </si>
   <si>
@@ -354,9 +342,6 @@
     <t>North Point ADA EL Bowl</t>
   </si>
   <si>
-    <t>Maxwell  12 ADA EL 1.28 Combo</t>
-  </si>
-  <si>
     <t>Maxwell 12 Std EL 1.28 Combo</t>
   </si>
   <si>
@@ -402,9 +387,6 @@
     <t>QUANTUM 148123 1.6 EL  SMARTHEIGHT Combo</t>
   </si>
   <si>
-    <t>Rear</t>
-  </si>
-  <si>
     <t>Adriatic</t>
   </si>
   <si>
@@ -450,36 +432,18 @@
     <t>G0012780</t>
   </si>
   <si>
-    <t>G0012514</t>
-  </si>
-  <si>
     <t>G0012585</t>
   </si>
   <si>
     <t>G0012760</t>
   </si>
   <si>
-    <t>G0012884CH</t>
-  </si>
-  <si>
-    <t>G0013595</t>
-  </si>
-  <si>
-    <t>G0012504</t>
-  </si>
-  <si>
     <t>G0012791</t>
   </si>
   <si>
-    <t>G0012589</t>
-  </si>
-  <si>
     <t>328 4" LAV</t>
   </si>
   <si>
-    <t>239 4" MS ROUND LAV</t>
-  </si>
-  <si>
     <t>272 4" LAV</t>
   </si>
   <si>
@@ -507,9 +471,6 @@
     <t>218010001</t>
   </si>
   <si>
-    <t>239410000</t>
-  </si>
-  <si>
     <t>348410040</t>
   </si>
   <si>
@@ -591,9 +552,6 @@
     <t xml:space="preserve">Logan Square Undercounter Sink </t>
   </si>
   <si>
-    <t>Maxwell Round Self-Rimming Sink 4"</t>
-  </si>
-  <si>
     <t>Avalanche Pedestal Sink 4"</t>
   </si>
   <si>
@@ -765,15 +723,9 @@
     <t>https://www.gerber-us.com/luxoval-oval-standard-undercounter-bathroom-sink/products/us-G0012780</t>
   </si>
   <si>
-    <t>https://www.gerber-us.com/logan-square-4-centers-standard-pedestal-bathroom-sink/products/us-G0022585</t>
-  </si>
-  <si>
     <t>https://www.gerber-us.com/logan-square-rectangular-standard-undercounter-bathroom-sink/products/us-G0012760</t>
   </si>
   <si>
-    <t>https://www.gerber-us.com/maxwell-round-4-centers-self-rimming-bathroom-sink/products/us-G0012884CH</t>
-  </si>
-  <si>
     <t>https://www.gerber-us.com/avalanche-4-centers-standard-pedestal-bathroom-sink/products/us-G0023595</t>
   </si>
   <si>
@@ -786,15 +738,6 @@
     <t>List Price</t>
   </si>
   <si>
-    <t>317310000, 107380000</t>
-  </si>
-  <si>
-    <t>137210040, 103780000</t>
-  </si>
-  <si>
-    <t>135010007, 103580000</t>
-  </si>
-  <si>
     <t>URL_Img</t>
   </si>
   <si>
@@ -870,9 +813,6 @@
     <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-130010007-224.jpg</t>
   </si>
   <si>
-    <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-151010000-262.jpg</t>
-  </si>
-  <si>
     <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-386010000-436.jpg</t>
   </si>
   <si>
@@ -891,9 +831,6 @@
     <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-218010001-42.jpg</t>
   </si>
   <si>
-    <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-239410000-57.jpg</t>
-  </si>
-  <si>
     <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-348410040-203.jpg</t>
   </si>
   <si>
@@ -909,15 +846,9 @@
     <t>https://s3.img-b.com/image/private/c_lpad,f_auto,h_1200,t_base,w_1200/v3/product/mansfield/mansfield-328810000-184.jpg</t>
   </si>
   <si>
-    <t>ALTO BOWL 151 EL ADA 1.6</t>
-  </si>
-  <si>
     <t>OPP 1035 EL  Bowl</t>
   </si>
   <si>
-    <t>QUANTUM TANK  123 LH</t>
-  </si>
-  <si>
     <t>ALTO TANK 3173 CTL 1.28</t>
   </si>
   <si>
@@ -928,6 +859,87 @@
   </si>
   <si>
     <t>348 4" LAV</t>
+  </si>
+  <si>
+    <t>3151/3486 combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantum 1,6 tank </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TANK 155 LH QTM 1.28GPF WHT                                                                         </t>
+  </si>
+  <si>
+    <t>4142100</t>
+  </si>
+  <si>
+    <t>https://www.americanstandard-us.com/Toilets-Commercial/Pressure-Assist-11-gpf-42-Lpf-Left-Hand-Trip-Lever-EverClean-Tank/WHITE-4142100020</t>
+  </si>
+  <si>
+    <t>https://do5nkkzntcenb.cloudfront.net/ASUS/Commercial/Commercial%20Toilets/Toilets%20Commercial/4142100/7y6fxtpx513p2b48fzt3wvq448n6hkm2.jpg</t>
+  </si>
+  <si>
+    <t>270CA001</t>
+  </si>
+  <si>
+    <t>VorMax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VorMax 12" ADA EL Combo </t>
+  </si>
+  <si>
+    <t>https://www.americanstandard-us.com/Floor-Standing-Toilets/Cadet-3-Elongated-16-gpf-Toilet/WHITE-270CA001020</t>
+  </si>
+  <si>
+    <t>https://do5nkkzntcenb.cloudfront.net/ASUS/Bathroom/Toilets/Floor%20Standing%20Toilets/270CA001/e2tgz8b4vosw9whq3b3wd7lfr8ep1wp3.jpg</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>GHE28380</t>
+  </si>
+  <si>
+    <t>https://static.grainger.com/rp/s/is/image/Grainger/55DL86_AS01?hei=804&amp;wid=804</t>
+  </si>
+  <si>
+    <t>Oval</t>
+  </si>
+  <si>
+    <t>Undercounter</t>
+  </si>
+  <si>
+    <t>G0022514</t>
+  </si>
+  <si>
+    <t>Pedestal</t>
+  </si>
+  <si>
+    <t>G0023595</t>
+  </si>
+  <si>
+    <t>G0022504</t>
+  </si>
+  <si>
+    <t>Elongated ADA Rear outlet</t>
+  </si>
+  <si>
+    <t>Competencia</t>
+  </si>
+  <si>
+    <t>https://www.americanstandard-us.com/Pedestal-Bathroom-Sinks/Clean-Pedestal-Lav-4-Inch-CC/BONE-0236004EC021</t>
+  </si>
+  <si>
+    <t>G0022589</t>
+  </si>
+  <si>
+    <t>https://www.americanstandard-us.com/Floor-Standing-Toilets/Colony-16-gpf-60-Lpf-12-Inch-Rough-Tank/WHITE-4192A004020</t>
+  </si>
+  <si>
+    <t>Maxwell  12 ADA EL 1.6 Combo</t>
+  </si>
+  <si>
+    <t>https://www.gerber-us.com/maxwell-1-6-gpf-12-rough-in-two-piece-elongated-ergoheight-toilet/products/us-GMX20918</t>
   </si>
 </sst>
 </file>
@@ -974,7 +986,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1001,12 +1013,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1014,6 +1020,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,7 +1097,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1084,7 +1108,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1104,31 +1127,45 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -4812,16 +4849,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED469AA4-A78E-4B5E-BAD5-DDEAAC3BA3CB}" name="Tabla1" displayName="Tabla1" ref="A1:G13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBBAC25D-F7DD-4CD9-B923-30774C72A643}" name="Tabla1" displayName="Tabla1" ref="A1:G13" totalsRowShown="0">
   <autoFilter ref="A1:G13" xr:uid="{ED469AA4-A78E-4B5E-BAD5-DDEAAC3BA3CB}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{CB74C943-EB9C-4480-80B6-5E9F02E61F2A}" name="Marca"/>
-    <tableColumn id="2" xr3:uid="{600C6BD9-C0D8-4BAC-93AA-EEB723EABF48}" name="Descripcion  SKU"/>
-    <tableColumn id="3" xr3:uid="{66E1D603-32EC-4C0F-B0D3-456BC326C87F}" name="Codigo componente"/>
-    <tableColumn id="4" xr3:uid="{6B9571F0-9968-4A39-9033-31277A4A1A90}" name="Descripcion componente"/>
-    <tableColumn id="5" xr3:uid="{0F31CDE3-B055-4802-939F-B1F8EEDA4E87}" name="Price list"/>
-    <tableColumn id="6" xr3:uid="{911932A1-EC3B-4289-AE5A-81E7542EC922}" name="Multiplier"/>
-    <tableColumn id="7" xr3:uid="{1E74023B-F77F-40C8-908B-E3A8822A7EA2}" name="Platinum Price" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{36BF39CF-2866-4489-8D34-BD0C45308BC0}" name="Marca"/>
+    <tableColumn id="2" xr3:uid="{C93CF15B-73AD-4922-9023-64A37F5FE0C6}" name="Descripcion  SKU"/>
+    <tableColumn id="3" xr3:uid="{DE2A1496-B769-4FE5-AD7F-C319633FC748}" name="Codigo componente"/>
+    <tableColumn id="4" xr3:uid="{1BF22C22-AABF-49CC-AA8B-2216E0498ACF}" name="Descripcion componente"/>
+    <tableColumn id="5" xr3:uid="{ED8D28BB-DF9B-45AA-8736-340620E9783B}" name="Price list"/>
+    <tableColumn id="6" xr3:uid="{16AA7729-ACCB-4C8A-801D-13361AE09C7D}" name="Multiplier"/>
+    <tableColumn id="7" xr3:uid="{F2AEFDF7-2C01-485C-A49E-C54B4612E3A8}" name="Platinum Price" dataDxfId="0">
       <calculatedColumnFormula>Tabla1[[#This Row],[Price list]]*Tabla1[[#This Row],[Multiplier]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5126,28 +5163,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="N76" sqref="N76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="60.140625" customWidth="1"/>
     <col min="14" max="14" width="169" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="105.7109375" bestFit="1" customWidth="1"/>
@@ -5177,10 +5213,10 @@
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>13</v>
@@ -5198,7 +5234,7 @@
         <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>18</v>
@@ -5207,2397 +5243,2445 @@
         <v>3</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="12" t="str">
-        <f>VLOOKUP(B2,Mansfield!$D$1:$L$19,9,0)</f>
+      <c r="C2" s="11" t="str">
+        <f>VLOOKUP(B2,Mansfield!$D$1:$L$18,9,0)</f>
         <v>Alto 130/160 RF 1.6 Combo</v>
       </c>
-      <c r="D2" s="12">
-        <f t="shared" ref="D2:D33" si="0">COUNTIF($B$2:$B$50,B2)</f>
+      <c r="D2" s="11">
+        <f>COUNTIF($B$2:$B$51,B2)</f>
         <v>2</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="12" t="str">
+      <c r="G2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="11" t="str">
         <f>VLOOKUP(E2,[1]query!$D:$O,4,0)</f>
         <v>Maxwell</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="14">
         <v>12</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="15">
+      <c r="J2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="14">
         <v>1.6</v>
       </c>
-      <c r="M2" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="N2" s="12" t="s">
+      <c r="M2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q2" s="25">
+      <c r="O2" s="11"/>
+      <c r="P2" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q2" s="21">
         <v>0.41</v>
       </c>
-      <c r="R2" s="12"/>
+      <c r="R2" s="11"/>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="12" t="str">
-        <f>VLOOKUP(B3,Mansfield!$D$1:$L$19,9,0)</f>
+      <c r="C3" s="11" t="str">
+        <f>VLOOKUP(B3,Mansfield!$D$1:$L$18,9,0)</f>
         <v>Alto 135/160  El 1.6 Combo</v>
       </c>
-      <c r="D3" s="12">
-        <f t="shared" si="0"/>
+      <c r="D3" s="11">
+        <f>COUNTIF($B$2:$B$51,B3)</f>
         <v>2</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="12" t="str">
+      <c r="G3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="11" t="str">
         <f>VLOOKUP(E3,[1]query!$D:$O,4,0)</f>
         <v>Maxwell</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="14">
         <v>12</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="15">
+      <c r="L3" s="14">
         <v>1.6</v>
       </c>
-      <c r="M3" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q3" s="25">
+      <c r="M3" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q3" s="21">
         <v>0.41</v>
       </c>
-      <c r="R3" s="12"/>
+      <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="12" t="str">
-        <f>VLOOKUP(B4,Mansfield!$D$1:$L$19,9,0)</f>
+      <c r="B4" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="11" t="str">
+        <f>VLOOKUP(B4,Mansfield!$D$1:$L$18,9,0)</f>
         <v>Summit 384/386  ADA 1.28 Combo</v>
       </c>
-      <c r="D4" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="11">
+        <f>COUNTIF($B$2:$B$51,B4)</f>
+        <v>2</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="12" t="str">
+      <c r="G4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="11" t="str">
         <f>VLOOKUP(E4,[1]query!$D:$O,4,0)</f>
         <v>Viper</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="14">
         <v>12</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="15">
+      <c r="J4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="14">
         <v>1.6</v>
       </c>
-      <c r="M4" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q4" s="25">
+      <c r="M4" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="O4" s="13"/>
+      <c r="P4" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q4" s="21">
         <v>0.41</v>
       </c>
-      <c r="R4" s="12"/>
+      <c r="R4" s="11"/>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="12" t="str">
-        <f>VLOOKUP(B5,Mansfield!$D$1:$L$19,9,0)</f>
+      <c r="C5" s="11" t="str">
+        <f>VLOOKUP(B5,Mansfield!$D$1:$L$18,9,0)</f>
         <v>Alto 130/160 RF 1.6 Combo</v>
       </c>
-      <c r="D5" s="12">
-        <f t="shared" si="0"/>
+      <c r="D5" s="11">
+        <f>COUNTIF($B$2:$B$51,B5)</f>
         <v>2</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="12" t="str">
+      <c r="G5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="11" t="str">
         <f>VLOOKUP(E5,[1]query!$D:$O,4,0)</f>
         <v>Reliant</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <v>12</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="15">
+      <c r="J5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="14">
         <v>1.28</v>
       </c>
-      <c r="M5" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="N5" s="14" t="s">
+      <c r="M5" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q5" s="25">
+      <c r="O5" s="13"/>
+      <c r="P5" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q5" s="21">
         <v>0.34</v>
       </c>
-      <c r="R5" s="12"/>
+      <c r="R5" s="11"/>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="12" t="str">
-        <f>VLOOKUP(B6,Mansfield!$D$1:$L$19,9,0)</f>
+      <c r="C6" s="11" t="str">
+        <f>VLOOKUP(B6,Mansfield!$D$1:$L$18,9,0)</f>
         <v>Alto 135/160  El 1.6 Combo</v>
       </c>
-      <c r="D6" s="12">
-        <f t="shared" si="0"/>
+      <c r="D6" s="11">
+        <f>COUNTIF($B$2:$B$51,B6)</f>
         <v>2</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="12" t="str">
+      <c r="G6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="11" t="str">
         <f>VLOOKUP(E6,[1]query!$D:$O,4,0)</f>
         <v>Reliant</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <v>12</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="15">
+      <c r="L6" s="14">
         <v>1.28</v>
       </c>
-      <c r="M6" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="N6" s="14" t="s">
+      <c r="M6" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="N6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q6" s="25">
+      <c r="O6" s="11"/>
+      <c r="P6" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q6" s="21">
         <v>0.34</v>
       </c>
-      <c r="R6" s="12"/>
+      <c r="R6" s="11"/>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="12" t="str">
-        <f>VLOOKUP(B7,Mansfield!$D$1:$L$19,9,0)</f>
+      <c r="C7" s="11" t="str">
+        <f>VLOOKUP(B7,Mansfield!$D$1:$L$18,9,0)</f>
         <v>Alto 137/160 ADA EL 1.6 Combo</v>
       </c>
-      <c r="D7" s="12">
-        <f t="shared" si="0"/>
+      <c r="D7" s="11">
+        <f>COUNTIF($B$2:$B$51,B7)</f>
         <v>2</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="12" t="str">
+      <c r="G7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="11" t="str">
         <f>VLOOKUP(E7,[1]query!$D:$O,4,0)</f>
         <v>Reliant</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <v>12</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="15">
+      <c r="J7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="14">
         <v>1.28</v>
       </c>
-      <c r="M7" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="N7" s="12" t="s">
+      <c r="M7" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q7" s="25">
+      <c r="O7" s="11"/>
+      <c r="P7" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q7" s="21">
         <v>0.34</v>
       </c>
-      <c r="R7" s="12"/>
+      <c r="R7" s="11"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="12" t="str">
-        <f>VLOOKUP(B8,Mansfield!$D$1:$L$19,9,0)</f>
+      <c r="B8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="11" t="str">
+        <f>VLOOKUP(B8,Mansfield!$D$1:$L$18,9,0)</f>
         <v>QUANTUM 148123 1.6 EL  SMARTHEIGHT Combo</v>
       </c>
-      <c r="D8" s="12">
-        <f t="shared" si="0"/>
+      <c r="D8" s="11">
+        <f>COUNTIF($B$2:$B$51,B8)</f>
         <v>2</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="12" t="str">
+      <c r="G8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="11" t="str">
         <f>VLOOKUP(E8,[1]query!$D:$O,4,0)</f>
         <v>Ultra Flush</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="14">
         <v>12</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="15">
+      <c r="J8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="14">
         <v>1.6</v>
       </c>
-      <c r="M8" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q8" s="25">
+      <c r="M8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="O8" s="13"/>
+      <c r="P8" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q8" s="21">
         <v>0.34</v>
       </c>
-      <c r="R8" s="12"/>
+      <c r="R8" s="11"/>
     </row>
-    <row r="9" spans="1:18" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="31" t="str">
-        <f>VLOOKUP(B9,Mansfield!$D$1:$L$19,9,0)</f>
-        <v>QUANTUM TANK  123 LH</v>
-      </c>
-      <c r="D9" s="31">
-        <f t="shared" si="0"/>
+      <c r="B9" s="11">
+        <v>123010000</v>
+      </c>
+      <c r="C9" s="11" t="str">
+        <f>VLOOKUP(B9,Mansfield!$D$1:$L$18,9,0)</f>
+        <v xml:space="preserve">Quantum 1,6 tank </v>
+      </c>
+      <c r="D9" s="11">
+        <f>COUNTIF($B$2:$B$51,B9)</f>
         <v>2</v>
       </c>
-      <c r="E9" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="31" t="str">
+      <c r="E9" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="11" t="str">
         <f>VLOOKUP(E9,[1]query!$D:$O,4,0)</f>
         <v>Ultra Flush</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="14">
         <v>12</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="33">
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="14">
         <v>1.6</v>
       </c>
-      <c r="M9" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="P9" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q9" s="34">
+      <c r="M9" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q9" s="21">
         <v>0.41</v>
       </c>
-      <c r="R9" s="31">
+      <c r="R9" s="11">
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+    <row r="10" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31">
-        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C10" s="26" t="str">
+        <f>VLOOKUP(B10,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>ALTO TANK 3173 CTL 1.28</v>
+      </c>
+      <c r="D10" s="26">
+        <f>COUNTIF($B$2:$B$51,B10)</f>
         <v>2</v>
       </c>
-      <c r="E10" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="31" t="s">
+      <c r="E10" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="28">
+        <v>12</v>
+      </c>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="28">
+        <v>1.28</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q10" s="29">
+        <v>0.41</v>
+      </c>
+      <c r="R10" s="26">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="31">
+        <v>160010007</v>
+      </c>
+      <c r="C11" s="26" t="str">
+        <f>VLOOKUP(B11,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>ALTO TANK 160 1.6</v>
+      </c>
+      <c r="D11" s="26">
+        <f>COUNTIF($B$2:$B$51,B11)</f>
+        <v>2</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="28">
+        <v>12</v>
+      </c>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="28">
+        <v>1.6</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="P11" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q11" s="29">
+        <v>0.41</v>
+      </c>
+      <c r="R11" s="26">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="26" t="str">
+        <f>VLOOKUP(B12,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>ALTO BOWL 137 1.6</v>
+      </c>
+      <c r="D12" s="26">
+        <f>COUNTIF($B$2:$B$51,B12)</f>
+        <v>2</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="28">
+        <v>12</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="28">
+        <v>1.28</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="N12" s="26"/>
+      <c r="O12" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="P12" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q12" s="29">
+        <v>0.41</v>
+      </c>
+      <c r="R12" s="26">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="26" t="str">
+        <f>VLOOKUP(B13,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>ALTO BOWL 135 EL 1.6</v>
+      </c>
+      <c r="D13" s="26">
+        <f>COUNTIF($B$2:$B$51,B13)</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="28">
+        <v>12</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="28">
+        <v>1.28</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="P13" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q13" s="29">
+        <v>0.41</v>
+      </c>
+      <c r="R13" s="26">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="26" t="str">
+        <f>VLOOKUP(B14,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>ALTO BOWL 130 1.6</v>
+      </c>
+      <c r="D14" s="26">
+        <f>COUNTIF($B$2:$B$51,B14)</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="28">
+        <v>12</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="28">
+        <v>1.6</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q14" s="29">
+        <v>0.41</v>
+      </c>
+      <c r="R14" s="26">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="26" t="str">
+        <f>VLOOKUP(B15,Mansfield!$D$1:$L$18,9,0)</f>
+        <v xml:space="preserve">SUMMIT TANK 386      </v>
+      </c>
+      <c r="D15" s="26">
+        <f>COUNTIF($B$2:$B$51,B15)</f>
+        <v>2</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28">
+        <v>1.6</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q15" s="29">
+        <v>0.41</v>
+      </c>
+      <c r="R15" s="26">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="11" t="str">
+        <f>VLOOKUP(B16,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>QUANTUM 148123 1.6 EL  SMARTHEIGHT Combo</v>
+      </c>
+      <c r="D16" s="11">
+        <f>COUNTIF($B$2:$B$51,B16)</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="12">
+        <v>2467016</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="33">
+      <c r="H16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="11">
         <v>12</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="33">
-        <v>1.28</v>
-      </c>
-      <c r="M10" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="P10" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q10" s="34">
-        <v>0.41</v>
-      </c>
-      <c r="R10" s="31">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="36">
-        <v>160010007</v>
-      </c>
-      <c r="C11" s="31" t="str">
-        <f>VLOOKUP(B11,Mansfield!$D$1:$L$19,9,0)</f>
-        <v>ALTO TANK 160 1.6</v>
-      </c>
-      <c r="D11" s="31">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="33">
-        <v>12</v>
-      </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="33">
+      <c r="J16" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="11">
         <v>1.6</v>
       </c>
-      <c r="M11" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="P11" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q11" s="34">
-        <v>0.41</v>
-      </c>
-      <c r="R11" s="31">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="33">
-        <v>12</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" s="33">
-        <v>1.28</v>
-      </c>
-      <c r="M12" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="N12" s="31"/>
-      <c r="O12" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="P12" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q12" s="34">
-        <v>0.41</v>
-      </c>
-      <c r="R12" s="31">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="33">
-        <v>12</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="33">
-        <v>1.28</v>
-      </c>
-      <c r="M13" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="P13" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q13" s="34">
-        <v>0.41</v>
-      </c>
-      <c r="R13" s="31">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="31" t="str">
-        <f>VLOOKUP(B14,Mansfield!$D$1:$L$19,9,0)</f>
-        <v>ALTO BOWL 130 1.6</v>
-      </c>
-      <c r="D14" s="31">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="33">
-        <v>12</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="33">
-        <v>1.6</v>
-      </c>
-      <c r="M14" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="P14" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q14" s="34">
-        <v>0.41</v>
-      </c>
-      <c r="R14" s="31">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="31" t="str">
-        <f>VLOOKUP(B15,Mansfield!$D$1:$L$19,9,0)</f>
-        <v>ALTO BOWL 151 EL ADA 1.6</v>
-      </c>
-      <c r="D15" s="31">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="I15" s="33">
-        <v>12</v>
-      </c>
-      <c r="J15" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="M15" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="P15" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q15" s="34">
-        <v>0.41</v>
-      </c>
-      <c r="R15" s="31">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="31" t="str">
-        <f>VLOOKUP(B16,Mansfield!$D$1:$L$19,9,0)</f>
-        <v xml:space="preserve">SUMMIT TANK 386      </v>
-      </c>
-      <c r="D16" s="31">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33">
-        <v>1.6</v>
-      </c>
-      <c r="M16" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="P16" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q16" s="34">
-        <v>0.41</v>
-      </c>
-      <c r="R16" s="31">
-        <v>132</v>
-      </c>
+      <c r="M16" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="O16" s="13"/>
+      <c r="P16" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>0.34</v>
+      </c>
+      <c r="R16" s="11"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="12" t="str">
-        <f>VLOOKUP(B17,Mansfield!$D$1:$L$19,9,0)</f>
-        <v>QUANTUM 148123 1.6 EL  SMARTHEIGHT Combo</v>
-      </c>
-      <c r="D17" s="12">
-        <f t="shared" si="0"/>
+      <c r="B17" s="11">
+        <v>123010000</v>
+      </c>
+      <c r="C17" s="11" t="str">
+        <f>VLOOKUP(B17,Mansfield!$D$1:$L$18,9,0)</f>
+        <v xml:space="preserve">Quantum 1,6 tank </v>
+      </c>
+      <c r="D17" s="11">
+        <f>COUNTIF($B$2:$B$51,B17)</f>
         <v>2</v>
       </c>
-      <c r="E17" s="13">
-        <v>2467016</v>
-      </c>
-      <c r="F17" s="12" t="s">
+      <c r="E17" s="16">
+        <v>4142016</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="12">
-        <v>12</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" s="12">
+      <c r="G17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="11">
         <v>1.6</v>
       </c>
-      <c r="M17" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="O17" s="14"/>
-      <c r="P17" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q17" s="25">
+      <c r="M17" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="O17" s="13"/>
+      <c r="P17" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q17" s="21">
         <v>0.34</v>
       </c>
-      <c r="R17" s="12"/>
+      <c r="R17" s="11"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="12" t="str">
-        <f>VLOOKUP(B18,Mansfield!$D$1:$L$19,9,0)</f>
-        <v>QUANTUM TANK  123 LH</v>
-      </c>
-      <c r="D18" s="12">
-        <f t="shared" si="0"/>
+      <c r="B18" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="11" t="str">
+        <f>VLOOKUP(B18,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>COMMERCIAL BOWL 1319 EL ADA  1.28</v>
+      </c>
+      <c r="D18" s="11">
+        <f>COUNTIF($B$2:$B$51,B18)</f>
         <v>2</v>
       </c>
-      <c r="E18" s="17">
-        <v>4142016</v>
-      </c>
-      <c r="F18" s="12" t="s">
+      <c r="E18" s="16">
+        <v>3043001</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="12" t="s">
+      <c r="G18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="O18" s="14"/>
-      <c r="P18" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q18" s="25">
+      <c r="I18" s="14">
+        <v>12</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q18" s="21">
         <v>0.34</v>
       </c>
-      <c r="R18" s="12"/>
+      <c r="R18" s="11"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="12" t="str">
-        <f>VLOOKUP(B19,Mansfield!$D$1:$L$19,9,0)</f>
-        <v>COMMERCIAL BOWL 1319 EL ADA  1.28</v>
-      </c>
-      <c r="D19" s="12">
-        <f t="shared" si="0"/>
+      <c r="B19" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="11" t="str">
+        <f>VLOOKUP(B19,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>ALTO TANK 3173 CTL 1.28</v>
+      </c>
+      <c r="D19" s="11">
+        <f>COUNTIF($B$2:$B$51,B19)</f>
         <v>2</v>
       </c>
-      <c r="E19" s="17">
-        <v>3043001</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="12" t="s">
+      <c r="E19" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="14"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="17">
+        <v>1.28</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>0.34</v>
+      </c>
+      <c r="R19" s="11"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="15">
+        <v>160010007</v>
+      </c>
+      <c r="C20" s="11" t="str">
+        <f>VLOOKUP(B20,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>ALTO TANK 160 1.6</v>
+      </c>
+      <c r="D20" s="11">
+        <f>COUNTIF($B$2:$B$51,B20)</f>
+        <v>2</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>0.34</v>
+      </c>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="11" t="str">
+        <f>VLOOKUP(B21,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>ALTO BOWL 137 1.6</v>
+      </c>
+      <c r="D21" s="11">
+        <f>COUNTIF($B$2:$B$51,B21)</f>
+        <v>2</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="14">
         <v>12</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="17">
+        <v>1.28</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q21" s="21">
+        <v>0.34</v>
+      </c>
+      <c r="R21" s="11"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="11" t="str">
+        <f>VLOOKUP(B22,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>ALTO BOWL 135 EL 1.6</v>
+      </c>
+      <c r="D22" s="11">
+        <f>COUNTIF($B$2:$B$51,B22)</f>
+        <v>2</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="14">
+        <v>12</v>
+      </c>
+      <c r="J22" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K22" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" s="17">
+        <v>1.28</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q22" s="21">
+        <v>0.34</v>
+      </c>
+      <c r="R22" s="11"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="11" t="str">
+        <f>VLOOKUP(B23,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>ALTO BOWL 130 1.6</v>
+      </c>
+      <c r="D23" s="11">
+        <f>COUNTIF($B$2:$B$51,B23)</f>
+        <v>2</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="14">
+        <v>12</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q19" s="25">
+      <c r="L23" s="14">
+        <v>1.28</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q23" s="21">
         <v>0.34</v>
       </c>
-      <c r="R19" s="12"/>
+      <c r="R23" s="11"/>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19">
-        <f t="shared" si="0"/>
+      <c r="B24" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="11" t="str">
+        <f>VLOOKUP(B24,Mansfield!$D$1:$L$18,9,0)</f>
+        <v xml:space="preserve">SUMMIT TANK 386      </v>
+      </c>
+      <c r="D24" s="11">
+        <f>COUNTIF($B$2:$B$51,B24)</f>
         <v>2</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="21">
-        <v>1.28</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="N20" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q20" s="26">
+      <c r="E24" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q24" s="21">
         <v>0.34</v>
       </c>
-      <c r="R20" s="19"/>
-    </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="16">
-        <v>160010007</v>
-      </c>
-      <c r="C21" s="12" t="str">
-        <f>VLOOKUP(B21,Mansfield!$D$1:$L$19,9,0)</f>
-        <v>ALTO TANK 160 1.6</v>
-      </c>
-      <c r="D21" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="15">
-        <v>1.6</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="N21" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q21" s="25">
-        <v>0.34</v>
-      </c>
-      <c r="R21" s="12"/>
-    </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="21">
-        <v>12</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L22" s="21">
-        <v>1.28</v>
-      </c>
-      <c r="M22" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="N22" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q22" s="26">
-        <v>0.34</v>
-      </c>
-      <c r="R22" s="19"/>
-    </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="21">
-        <v>12</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L23" s="21">
-        <v>1.28</v>
-      </c>
-      <c r="M23" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="N23" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q23" s="26">
-        <v>0.34</v>
-      </c>
-      <c r="R23" s="19"/>
-    </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="12" t="str">
-        <f>VLOOKUP(B24,Mansfield!$D$1:$L$19,9,0)</f>
-        <v>ALTO BOWL 130 1.6</v>
-      </c>
-      <c r="D24" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="15">
-        <v>12</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L24" s="15">
-        <v>1.28</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="N24" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q24" s="25">
-        <v>0.34</v>
-      </c>
-      <c r="R24" s="12"/>
+      <c r="R24" s="11"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="12" t="str">
-        <f>VLOOKUP(B25,Mansfield!$D$1:$L$19,9,0)</f>
-        <v>ALTO BOWL 151 EL ADA 1.6</v>
-      </c>
-      <c r="D25" s="12">
-        <f t="shared" si="0"/>
+      <c r="A25" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="11" t="str">
+        <f>VLOOKUP(B25,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>COMMERCIAL BOWL 1319 EL ADA  1.28</v>
+      </c>
+      <c r="D25" s="11">
+        <f>COUNTIF($B$2:$B$51,B25)</f>
         <v>2</v>
       </c>
-      <c r="E25" s="17">
-        <v>3703100</v>
-      </c>
-      <c r="F25" s="12" t="s">
+      <c r="E25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I25" s="15">
-        <v>12</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L25" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="N25" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q25" s="25">
-        <v>0.34</v>
-      </c>
-      <c r="R25" s="12"/>
+      <c r="G25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="14">
+        <v>10</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="14">
+        <v>1.28</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q25" s="21">
+        <v>0.41</v>
+      </c>
+      <c r="R25" s="11"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="12" t="str">
-        <f>VLOOKUP(B26,Mansfield!$D$1:$L$19,9,0)</f>
-        <v xml:space="preserve">SUMMIT TANK 386      </v>
-      </c>
-      <c r="D26" s="12">
-        <f t="shared" si="0"/>
+      <c r="A26" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="11" t="str">
+        <f>VLOOKUP(B26,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>Alto 137/160 ADA EL 1.6 Combo</v>
+      </c>
+      <c r="D26" s="11">
+        <f>COUNTIF($B$2:$B$51,B26)</f>
         <v>2</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="12" t="s">
+      <c r="E26" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="15">
-        <v>1.6</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="N26" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q26" s="25">
-        <v>0.34</v>
-      </c>
-      <c r="R26" s="12"/>
+      <c r="H26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="14">
+        <v>12</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L26" s="14">
+        <v>1.28</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q26" s="21">
+        <v>0.41</v>
+      </c>
+      <c r="R26" s="11"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="12" t="str">
-        <f>VLOOKUP(B27,Mansfield!$D$1:$L$19,9,0)</f>
-        <v>COMMERCIAL BOWL 1319 EL ADA  1.28</v>
-      </c>
-      <c r="D27" s="12">
-        <f t="shared" si="0"/>
+      <c r="B27" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C27" s="11" t="str">
+        <f>VLOOKUP(B27,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>HET 3489-V El 1.28 Combo </v>
+      </c>
+      <c r="D27" s="11">
+        <f>COUNTIF($B$2:$B$51,B27)</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="14">
+        <v>12</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L27" s="14">
+        <v>1.28</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q27" s="21">
+        <v>0.41</v>
+      </c>
+      <c r="R27" s="11"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="8" t="str">
+        <f>VLOOKUP(B28,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>237 Lav</v>
+      </c>
+      <c r="D28" s="8">
+        <f>COUNTIF($B$2:$B$51,B28)</f>
         <v>2</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I27" s="15">
-        <v>10</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="15">
-        <v>1.28</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="N27" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q27" s="25">
+      <c r="E28" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="O28" s="9"/>
+      <c r="P28" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q28" s="22">
         <v>0.41</v>
       </c>
-      <c r="R27" s="12"/>
+      <c r="R28" s="3"/>
     </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="12" t="str">
-        <f>VLOOKUP(B28,Mansfield!$D$1:$L$19,9,0)</f>
-        <v>Alto 137/160 ADA EL 1.6 Combo</v>
-      </c>
-      <c r="D28" s="12">
-        <f t="shared" si="0"/>
+      <c r="B29" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="8" t="str">
+        <f>VLOOKUP(B29,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>217 Lav</v>
+      </c>
+      <c r="D29" s="8">
+        <f>COUNTIF($B$2:$B$51,B29)</f>
         <v>2</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="15">
-        <v>12</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L28" s="15">
-        <v>1.28</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="N28" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q28" s="25">
+      <c r="E29" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="O29" s="9"/>
+      <c r="P29" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q29" s="22">
         <v>0.41</v>
       </c>
-      <c r="R28" s="12"/>
+      <c r="R29" s="3"/>
     </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+    <row r="30" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="12" t="str">
-        <f>VLOOKUP(B29,Mansfield!$D$1:$L$19,9,0)</f>
-        <v>HET 3489-V El 1.28 Combo </v>
-      </c>
-      <c r="D29" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I29" s="15">
-        <v>12</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L29" s="15">
-        <v>1.28</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="N29" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q29" s="25">
+      <c r="B30" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="8" t="str">
+        <f>VLOOKUP(B30,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>292 Lav</v>
+      </c>
+      <c r="D30" s="8">
+        <f>COUNTIF($B$2:$B$51,B30)</f>
+        <v>2</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q30" s="45">
         <v>0.41</v>
       </c>
-      <c r="R29" s="12"/>
+      <c r="R30" s="8"/>
     </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="9" t="str">
-        <f>VLOOKUP(B30,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>237 Lav</v>
-      </c>
-      <c r="D30" s="9">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="N30" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="O30" s="10"/>
-      <c r="P30" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q30" s="27">
-        <v>0.41</v>
-      </c>
-      <c r="R30" s="3"/>
-    </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f>VLOOKUP(B31,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>217 Lav</v>
-      </c>
-      <c r="D31" s="9">
-        <f t="shared" si="0"/>
+      <c r="B31" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="8" t="str">
+        <f>VLOOKUP(B31,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>328 4" LAV</v>
+      </c>
+      <c r="D31" s="8">
+        <f>COUNTIF($B$2:$B$51,B31)</f>
         <v>2</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G31" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>289</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N31" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="O31" s="10"/>
+        <v>167</v>
+      </c>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
       <c r="P31" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q31" s="27">
+        <v>230</v>
+      </c>
+      <c r="Q31" s="22">
         <v>0.41</v>
       </c>
-      <c r="R31" s="3"/>
+      <c r="R31" s="3">
+        <v>592</v>
+      </c>
     </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f>VLOOKUP(B32,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>292 Lav</v>
-      </c>
-      <c r="D32" s="9">
-        <f t="shared" si="0"/>
+      <c r="B32" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="8" t="str">
+        <f>VLOOKUP(B32,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>218 COVINGTON LAV</v>
+      </c>
+      <c r="D32" s="8">
+        <f>COUNTIF($B$2:$B$51,B32)</f>
         <v>2</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G32" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>287</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="O32" s="3"/>
+      <c r="M32" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="O32" s="9"/>
       <c r="P32" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q32" s="27">
+        <v>230</v>
+      </c>
+      <c r="Q32" s="22">
         <v>0.41</v>
       </c>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f>VLOOKUP(B33,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>328 4" LAV</v>
-      </c>
-      <c r="D33" s="9">
-        <f t="shared" si="0"/>
+      <c r="B33" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="8" t="str">
+        <f>VLOOKUP(B33,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>348 4" LAV</v>
+      </c>
+      <c r="D33" s="8">
+        <f>COUNTIF($B$2:$B$51,B33)</f>
         <v>2</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>136</v>
+        <v>290</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G33" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>289</v>
+      </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="N33" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="O33" s="10"/>
+        <v>169</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="O33" s="9"/>
       <c r="P33" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q33" s="27">
+        <v>230</v>
+      </c>
+      <c r="Q33" s="22">
         <v>0.41</v>
       </c>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f>VLOOKUP(B34,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>218 COVINGTON LAV</v>
-      </c>
-      <c r="D34" s="9">
-        <f t="shared" ref="D34:D50" si="1">COUNTIF($B$2:$B$50,B34)</f>
+      <c r="B34" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="8" t="str">
+        <f>VLOOKUP(B34,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>272 4" LAV</v>
+      </c>
+      <c r="D34" s="8">
+        <f>COUNTIF($B$2:$B$51,B34)</f>
         <v>2</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>137</v>
+        <v>291</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G34" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>289</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="N34" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="O34" s="10"/>
+        <v>170</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="O34" s="3"/>
       <c r="P34" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q34" s="27">
+        <v>230</v>
+      </c>
+      <c r="Q34" s="22">
         <v>0.41</v>
       </c>
       <c r="R34" s="3"/>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f>VLOOKUP(B35,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>239 4" MS ROUND LAV</v>
-      </c>
-      <c r="D35" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B35" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="8" t="str">
+        <f>VLOOKUP(B35,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>251 4" LAV</v>
+      </c>
+      <c r="D35" s="8">
+        <f>COUNTIF($B$2:$B$51,B35)</f>
+        <v>2</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G35" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>286</v>
+      </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="O35" s="10"/>
+        <v>164</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="O35" s="9"/>
       <c r="P35" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q35" s="27">
+        <v>230</v>
+      </c>
+      <c r="Q35" s="22">
         <v>0.41</v>
       </c>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f>VLOOKUP(B36,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>348 4" LAV</v>
-      </c>
-      <c r="D36" s="9">
-        <f t="shared" si="1"/>
+      <c r="B36" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="8" t="str">
+        <f>VLOOKUP(B36,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>234 BRENTWOOD LAV</v>
+      </c>
+      <c r="D36" s="8">
+        <f>COUNTIF($B$2:$B$51,B36)</f>
         <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G36" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>287</v>
+      </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="N36" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="O36" s="10"/>
+        <v>171</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="O36" s="9"/>
       <c r="P36" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q36" s="27">
+        <v>230</v>
+      </c>
+      <c r="Q36" s="22">
         <v>0.41</v>
       </c>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f>VLOOKUP(B37,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>272 4" LAV</v>
-      </c>
-      <c r="D37" s="9">
-        <f t="shared" si="1"/>
+      <c r="B37" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" s="8" t="str">
+        <f>VLOOKUP(B37,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>328 8" LAV</v>
+      </c>
+      <c r="D37" s="8">
+        <f>COUNTIF($B$2:$B$51,B37)</f>
         <v>2</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>140</v>
+        <v>295</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G37" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>289</v>
+      </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O37" s="3"/>
+        <v>172</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="O37" s="9"/>
       <c r="P37" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q37" s="27">
+        <v>230</v>
+      </c>
+      <c r="Q37" s="22">
         <v>0.41</v>
       </c>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f>VLOOKUP(B38,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>251 4" LAV</v>
-      </c>
-      <c r="D38" s="9">
-        <f t="shared" si="1"/>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="18" t="str">
+        <f>VLOOKUP(B38,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>237 Lav</v>
+      </c>
+      <c r="D38" s="18">
+        <f>COUNTIF($B$2:$B$51,B38)</f>
         <v>2</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="N38" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="O38" s="10"/>
-      <c r="P38" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q38" s="27">
-        <v>0.41</v>
+      <c r="E38" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="N38" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q38" s="23">
+        <v>0.34</v>
       </c>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f>VLOOKUP(B39,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>234 BRENTWOOD LAV</v>
-      </c>
-      <c r="D39" s="9">
-        <f t="shared" si="1"/>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="18" t="str">
+        <f>VLOOKUP(B39,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>217 Lav</v>
+      </c>
+      <c r="D39" s="18">
+        <f>COUNTIF($B$2:$B$51,B39)</f>
         <v>2</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="N39" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="O39" s="10"/>
-      <c r="P39" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q39" s="27">
-        <v>0.41</v>
+      <c r="E39" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="N39" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q39" s="23">
+        <v>0.34</v>
       </c>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f>VLOOKUP(B40,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>328 8" LAV</v>
-      </c>
-      <c r="D40" s="9">
-        <f t="shared" si="1"/>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="18" t="str">
+        <f>VLOOKUP(B40,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>292 Lav</v>
+      </c>
+      <c r="D40" s="18">
+        <f>COUNTIF($B$2:$B$51,B40)</f>
         <v>2</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="N40" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="O40" s="10"/>
-      <c r="P40" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q40" s="27">
-        <v>0.41</v>
+      <c r="E40" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="N40" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q40" s="23">
+        <v>0.34</v>
       </c>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C41" s="22" t="str">
-        <f>VLOOKUP(B41,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>237 Lav</v>
-      </c>
-      <c r="D41" s="22">
-        <f t="shared" si="1"/>
+      <c r="B41" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="18" t="str">
+        <f>VLOOKUP(B41,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>328 4" LAV</v>
+      </c>
+      <c r="D41" s="18">
+        <f>COUNTIF($B$2:$B$51,B41)</f>
         <v>2</v>
       </c>
-      <c r="E41" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="N41" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q41" s="28">
+      <c r="E41" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="N41" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q41" s="23">
         <v>0.34</v>
       </c>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="18" t="str">
+        <f>VLOOKUP(B42,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>218 COVINGTON LAV</v>
+      </c>
+      <c r="D42" s="18">
+        <f>COUNTIF($B$2:$B$51,B42)</f>
+        <v>2</v>
+      </c>
+      <c r="E42" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="C42" s="22" t="str">
-        <f>VLOOKUP(B42,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>217 Lav</v>
-      </c>
-      <c r="D42" s="22">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="N42" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q42" s="28">
+      <c r="F42" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="N42" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q42" s="23">
         <v>0.34</v>
       </c>
       <c r="R42" s="3"/>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="18" t="str">
+        <f>VLOOKUP(B43,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>348 4" LAV</v>
+      </c>
+      <c r="D43" s="18">
+        <f>COUNTIF($B$2:$B$51,B43)</f>
+        <v>2</v>
+      </c>
+      <c r="E43" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="C43" s="22" t="str">
-        <f>VLOOKUP(B43,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>292 Lav</v>
-      </c>
-      <c r="D43" s="22">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="N43" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q43" s="28">
+      <c r="F43" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="N43" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q43" s="23">
         <v>0.34</v>
       </c>
       <c r="R43" s="3"/>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="18" t="str">
+        <f>VLOOKUP(B44,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>272 4" LAV</v>
+      </c>
+      <c r="D44" s="18">
+        <f>COUNTIF($B$2:$B$51,B44)</f>
+        <v>2</v>
+      </c>
+      <c r="E44" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="C44" s="22" t="str">
-        <f>VLOOKUP(B44,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>328 4" LAV</v>
-      </c>
-      <c r="D44" s="22">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="N44" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q44" s="28">
+      <c r="F44" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="N44" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q44" s="23">
         <v>0.34</v>
       </c>
       <c r="R44" s="3"/>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" s="22" t="str">
-        <f>VLOOKUP(B45,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>218 COVINGTON LAV</v>
-      </c>
-      <c r="D45" s="22">
-        <f t="shared" si="1"/>
+      <c r="B45" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="18" t="str">
+        <f>VLOOKUP(B45,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>251 4" LAV</v>
+      </c>
+      <c r="D45" s="18">
+        <f>COUNTIF($B$2:$B$51,B45)</f>
         <v>2</v>
       </c>
-      <c r="E45" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="N45" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q45" s="28">
+      <c r="E45" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="N45" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O45" s="20"/>
+      <c r="P45" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q45" s="23">
         <v>0.34</v>
       </c>
       <c r="R45" s="3"/>
     </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="22" t="str">
-        <f>VLOOKUP(B46,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>348 4" LAV</v>
-      </c>
-      <c r="D46" s="22">
-        <f t="shared" si="1"/>
+      <c r="B46" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="18" t="str">
+        <f>VLOOKUP(B46,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>234 BRENTWOOD LAV</v>
+      </c>
+      <c r="D46" s="18">
+        <f>COUNTIF($B$2:$B$51,B46)</f>
         <v>2</v>
       </c>
-      <c r="E46" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="N46" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q46" s="28">
+      <c r="E46" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="N46" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q46" s="23">
         <v>0.34</v>
       </c>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="C47" s="22" t="str">
-        <f>VLOOKUP(B47,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>272 4" LAV</v>
-      </c>
-      <c r="D47" s="22">
-        <f t="shared" si="1"/>
+      <c r="B47" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="18" t="str">
+        <f>VLOOKUP(B47,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>328 8" LAV</v>
+      </c>
+      <c r="D47" s="18">
+        <f>COUNTIF($B$2:$B$51,B47)</f>
         <v>2</v>
       </c>
-      <c r="E47" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="N47" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q47" s="28">
+      <c r="E47" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="N47" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q47" s="23">
         <v>0.34</v>
       </c>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+    <row r="48" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C48" s="22" t="str">
-        <f>VLOOKUP(B48,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>251 4" LAV</v>
-      </c>
-      <c r="D48" s="22">
-        <f t="shared" si="1"/>
+      <c r="B48" s="38">
+        <v>155010000</v>
+      </c>
+      <c r="C48" s="44" t="str">
+        <f>VLOOKUP(B48,Mansfield!$D$1:$L$47,9,0)</f>
+        <v xml:space="preserve">TANK 155 LH QTM 1.28GPF WHT                                                                         </v>
+      </c>
+      <c r="D48" s="38">
+        <f>COUNTIF($B$2:$B$51,B48)</f>
         <v>2</v>
       </c>
-      <c r="E48" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="F48" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="N48" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="O48" s="24"/>
-      <c r="P48" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q48" s="28">
+      <c r="E48" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="F48" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="I48" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J48" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="K48" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="L48" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="M48" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="N48" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="O48" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="P48" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q48" s="40">
         <v>0.34</v>
       </c>
-      <c r="R48" s="3"/>
+      <c r="R48" s="38"/>
     </row>
-    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
+    <row r="49" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="C49" s="22" t="str">
-        <f>VLOOKUP(B49,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>234 BRENTWOOD LAV</v>
-      </c>
-      <c r="D49" s="22">
-        <f t="shared" si="1"/>
+      <c r="B49" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="44" t="str">
+        <f>VLOOKUP(B49,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>Summit 384/386  ADA 1.28 Combo</v>
+      </c>
+      <c r="D49" s="38">
+        <f>COUNTIF($B$2:$B$51,B49)</f>
         <v>2</v>
       </c>
-      <c r="E49" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="N49" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q49" s="28">
+      <c r="E49" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="I49" s="38">
+        <v>12</v>
+      </c>
+      <c r="J49" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="K49" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="L49" s="38">
+        <v>1.28</v>
+      </c>
+      <c r="M49" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="N49" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="O49" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="P49" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q49" s="40">
         <v>0.34</v>
       </c>
-      <c r="R49" s="3"/>
+      <c r="R49" s="38"/>
     </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C50" s="22" t="str">
-        <f>VLOOKUP(B50,Mansfield!$D$1:$L$49,9,0)</f>
-        <v>328 8" LAV</v>
-      </c>
-      <c r="D50" s="22">
-        <f t="shared" si="1"/>
+    <row r="50" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="38">
+        <v>155010000</v>
+      </c>
+      <c r="C50" s="44" t="str">
+        <f>VLOOKUP(B50,Mansfield!$D$1:$L$47,9,0)</f>
+        <v xml:space="preserve">TANK 155 LH QTM 1.28GPF WHT                                                                         </v>
+      </c>
+      <c r="D50" s="38">
+        <f>COUNTIF($B$2:$B$51,B50)</f>
         <v>2</v>
       </c>
-      <c r="E50" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="N50" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q50" s="28">
-        <v>0.34</v>
-      </c>
-      <c r="R50" s="3"/>
+      <c r="E50" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="F50" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="I50" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J50" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="K50" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="L50" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="M50" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="P50" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q50" s="40">
+        <v>0.41</v>
+      </c>
+      <c r="R50" s="38">
+        <v>308</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R50" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Commercial"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R50" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}"/>
   <hyperlinks>
     <hyperlink ref="N5" r:id="rId1" xr:uid="{EF7953C9-ED02-4DDB-9445-D95A01E86511}"/>
-    <hyperlink ref="N17" r:id="rId2" xr:uid="{CD91D937-81FC-495B-9B8D-2E8D7673C161}"/>
-    <hyperlink ref="N18" r:id="rId3" xr:uid="{F8CC36D8-B3D6-4CE7-8BB1-39588FC65DFD}"/>
-    <hyperlink ref="N48" r:id="rId4" xr:uid="{E3B9BAE2-78EC-4625-BD19-698C4A48EC97}"/>
+    <hyperlink ref="N16" r:id="rId2" xr:uid="{CD91D937-81FC-495B-9B8D-2E8D7673C161}"/>
+    <hyperlink ref="N17" r:id="rId3" xr:uid="{F8CC36D8-B3D6-4CE7-8BB1-39588FC65DFD}"/>
+    <hyperlink ref="N45" r:id="rId4" xr:uid="{E3B9BAE2-78EC-4625-BD19-698C4A48EC97}"/>
     <hyperlink ref="N3" r:id="rId5" xr:uid="{EF43BBC5-D734-48E3-8E51-41FA4C5BBAAC}"/>
     <hyperlink ref="N4" r:id="rId6" xr:uid="{22484C09-4856-4889-8D85-F3AB32A71518}"/>
     <hyperlink ref="N8" r:id="rId7" xr:uid="{6A10DF77-5DF5-4F15-83CF-4EE626A1CEE3}"/>
-    <hyperlink ref="N30" r:id="rId8" xr:uid="{F37460DF-2564-4429-91B1-6BA15AE0C40D}"/>
-    <hyperlink ref="N31" r:id="rId9" xr:uid="{5FA15A89-8D97-4347-8409-801BF0EB34DA}"/>
-    <hyperlink ref="N33" r:id="rId10" xr:uid="{3F809B5C-0F80-4242-A83A-CB2D74BB3A0E}"/>
-    <hyperlink ref="N34" r:id="rId11" xr:uid="{6D20289D-9F93-42B1-A99D-4583DD5D70FA}"/>
-    <hyperlink ref="N35" r:id="rId12" xr:uid="{F473458B-5628-44DC-BD66-D3DDD7DD07A2}"/>
-    <hyperlink ref="N36" r:id="rId13" xr:uid="{2B8A67F9-2D5C-4A93-9C82-E5B32B266FA4}"/>
-    <hyperlink ref="N38" r:id="rId14" xr:uid="{1515F505-E4F5-43A7-A068-D4C92341112C}"/>
-    <hyperlink ref="N39" r:id="rId15" xr:uid="{1E8E0998-C4EC-48BC-8445-39D26C94D065}"/>
-    <hyperlink ref="N40" r:id="rId16" xr:uid="{6C553BF5-CDFB-415A-8EA1-065521322AC3}"/>
-    <hyperlink ref="O12" r:id="rId17" xr:uid="{B3A4AC13-7BED-45E9-A2E7-413F39FCC9AC}"/>
-    <hyperlink ref="N20" r:id="rId18" xr:uid="{733DEA3E-9B23-4503-A490-0AB978FEFE69}"/>
-    <hyperlink ref="N21" r:id="rId19" xr:uid="{2DAD8D07-0D2B-4F9B-8144-3DE45BAA9CC2}"/>
-    <hyperlink ref="N6" r:id="rId20" xr:uid="{3360E79D-3758-4E75-B584-1F6C54804F8E}"/>
-    <hyperlink ref="N50" r:id="rId21" xr:uid="{0FEA31B0-3DE4-45A4-A8D7-5CAE3AD57EAE}"/>
+    <hyperlink ref="N33" r:id="rId8" xr:uid="{2B8A67F9-2D5C-4A93-9C82-E5B32B266FA4}"/>
+    <hyperlink ref="N35" r:id="rId9" xr:uid="{1515F505-E4F5-43A7-A068-D4C92341112C}"/>
+    <hyperlink ref="N36" r:id="rId10" xr:uid="{1E8E0998-C4EC-48BC-8445-39D26C94D065}"/>
+    <hyperlink ref="N37" r:id="rId11" xr:uid="{6C553BF5-CDFB-415A-8EA1-065521322AC3}"/>
+    <hyperlink ref="O12" r:id="rId12" xr:uid="{B3A4AC13-7BED-45E9-A2E7-413F39FCC9AC}"/>
+    <hyperlink ref="N19" r:id="rId13" xr:uid="{733DEA3E-9B23-4503-A490-0AB978FEFE69}"/>
+    <hyperlink ref="N6" r:id="rId14" xr:uid="{3360E79D-3758-4E75-B584-1F6C54804F8E}"/>
+    <hyperlink ref="N47" r:id="rId15" xr:uid="{0FEA31B0-3DE4-45A4-A8D7-5CAE3AD57EAE}"/>
+    <hyperlink ref="O49" r:id="rId16" xr:uid="{3418ECFB-1A01-4FF7-8F2E-EE819BC0FF76}"/>
+    <hyperlink ref="N29" r:id="rId17" xr:uid="{5FA15A89-8D97-4347-8409-801BF0EB34DA}"/>
+    <hyperlink ref="N28" r:id="rId18" xr:uid="{F37460DF-2564-4429-91B1-6BA15AE0C40D}"/>
+    <hyperlink ref="N32" r:id="rId19" xr:uid="{6D20289D-9F93-42B1-A99D-4583DD5D70FA}"/>
+    <hyperlink ref="N43" r:id="rId20" xr:uid="{23AD542D-23DD-43CE-9D11-54573641EF81}"/>
+    <hyperlink ref="N20" r:id="rId21" display="https://www.americanstandard-us.com/Floor-Standing-Toilets/Colony-16-gpf-60-Lpf-12-Inch-Rough-Tank/BONE-4192A004021" xr:uid="{2DAD8D07-0D2B-4F9B-8144-3DE45BAA9CC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
@@ -7606,10 +7690,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C581B3-4A49-4D7E-AF67-B0CA84DD1A3A}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7623,9 +7707,10 @@
     <col min="14" max="14" width="184.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -7645,10 +7730,10 @@
         <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>13</v>
@@ -7666,7 +7751,7 @@
         <v>17</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>18</v>
@@ -7681,45 +7766,45 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H2" s="3">
         <v>12</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K2" s="4">
         <v>1.6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10" t="s">
-        <v>262</v>
+        <v>95</v>
+      </c>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9" t="s">
+        <v>243</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="P2" s="3">
         <v>0.42749999999999999</v>
@@ -7729,45 +7814,45 @@
         <v>206.63</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H3" s="3">
         <v>12</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="K3" s="4">
         <v>1.6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="P3" s="3">
         <v>0.42749999999999999</v>
@@ -7777,45 +7862,45 @@
         <v>224.85999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H4" s="3">
         <v>12</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" s="4">
         <v>1.6</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="P4" s="3">
         <v>0.42749999999999999</v>
@@ -7825,91 +7910,96 @@
         <v>317.63</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="9" t="s">
+    <row r="5" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="10">
+        <v>12</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="35">
+        <v>1.28</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10">
+        <v>354.87</v>
+      </c>
+      <c r="S5" s="36" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="3">
-        <v>12</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1.28</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0.42749999999999999</v>
-      </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3">
-        <v>354.87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="9" t="s">
-        <v>95</v>
+      <c r="D6" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H6" s="3">
         <v>12</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" s="4">
         <v>1.28</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="P6" s="3">
         <v>0.42749999999999999</v>
@@ -7919,45 +8009,45 @@
         <v>357.52</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="9" t="s">
-        <v>57</v>
+      <c r="D7" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H7" s="3">
         <v>12</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7" s="4">
         <v>1.6</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="P7" s="3">
         <v>0.42749999999999999</v>
@@ -7967,350 +8057,356 @@
         <v>644.74</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="3" t="s">
+    <row r="8" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H8" s="3">
+      <c r="F8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="10">
         <v>12</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="K8" s="10">
         <v>1.28</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="L8" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="P8" s="10">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="8">
+      <c r="Q8" s="10"/>
+      <c r="R8" s="37">
         <v>52.257166153334992</v>
       </c>
+      <c r="S8" s="36" t="s">
+        <v>293</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="P9" s="3">
+    <row r="9" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="P9" s="10">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="8">
+      <c r="Q9" s="10"/>
+      <c r="R9" s="37">
         <v>90.068346141637491</v>
       </c>
+      <c r="S9" s="36" t="s">
+        <v>293</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="9" t="s">
-        <v>89</v>
+      <c r="D10" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H10" s="3">
         <v>12</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="K10" s="3">
         <v>1.28</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="P10" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q10" s="3"/>
-      <c r="R10" s="8">
+      <c r="R10" s="7">
         <v>39.382151105261244</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="9" t="s">
-        <v>91</v>
+      <c r="D11" s="8">
+        <v>123010000</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="P11" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q11" s="3"/>
-      <c r="R11" s="8">
+      <c r="R11" s="7">
         <v>165.65897915102249</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="3" t="s">
+    <row r="12" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="25">
+        <v>10</v>
+      </c>
+      <c r="I12" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="J12" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="25">
+        <v>1.28</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="P12" s="8">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="8">
-        <v>41.3095536973387</v>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="7">
+        <v>117.11139459698248</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="29">
-        <v>160010007</v>
+      <c r="D13" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="P13" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q13" s="3"/>
-      <c r="R13" s="8">
-        <v>41.309324999999994</v>
+      <c r="R13" s="7">
+        <v>41.3095536973387</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="9" t="s">
-        <v>58</v>
+      <c r="D14" s="24">
+        <v>160010007</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="3">
-        <v>12</v>
+      <c r="H14" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1.6</v>
+        <v>47</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>292</v>
+        <v>216</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="P14" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q14" s="3"/>
-      <c r="R14" s="8">
-        <v>94.481695102577731</v>
+      <c r="R14" s="7">
+        <v>41.309324999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="9" t="s">
-        <v>59</v>
+      <c r="D15" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>29</v>
@@ -8319,46 +8415,46 @@
         <v>12</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="K15" s="3">
         <v>1.6</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>121</v>
+        <v>269</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="P15" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q15" s="3"/>
-      <c r="R15" s="8">
-        <v>54.817767294848409</v>
+      <c r="R15" s="7">
+        <v>94.481695102577731</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="9" t="s">
-        <v>60</v>
+      <c r="D16" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>29</v>
@@ -8367,187 +8463,175 @@
         <v>12</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="K16" s="3">
         <v>1.6</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>293</v>
+        <v>115</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="P16" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q16" s="3"/>
-      <c r="R16" s="8">
-        <v>47.024419817793579</v>
+      <c r="R16" s="7">
+        <v>54.817767294848409</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="9" t="s">
-        <v>93</v>
+      <c r="D17" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>119</v>
+        <v>29</v>
+      </c>
+      <c r="H17" s="3">
+        <v>12</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>49</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="K17" s="3">
         <v>1.6</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="P17" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q17" s="3"/>
-      <c r="R17" s="8">
-        <v>212.23939813904951</v>
+      <c r="R17" s="7">
+        <v>47.024419817793579</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="9" t="s">
-        <v>94</v>
+      <c r="D18" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="P18" s="3">
         <v>0.42749999999999999</v>
       </c>
       <c r="Q18" s="3"/>
-      <c r="R18" s="8">
+      <c r="R18" s="7">
         <v>49.064810425312494</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H19" s="6">
-        <v>10</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" s="6">
-        <v>1.28</v>
-      </c>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
       <c r="L19" s="3" t="s">
-        <v>123</v>
+        <v>240</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="P19" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="8">
-        <v>117.11139459698248</v>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="33">
+        <v>52.942869297499996</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="7" t="s">
-        <v>149</v>
+      <c r="D20" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -8556,34 +8640,34 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="P20" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="38">
-        <v>52.942869297499996</v>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="33">
+        <v>85.042520952999979</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="7" t="s">
-        <v>150</v>
+      <c r="D21" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -8592,34 +8676,34 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="P21" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="38">
-        <v>85.042520952999979</v>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="33">
+        <v>157.47435999099997</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="7" t="s">
-        <v>151</v>
+      <c r="D22" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -8628,34 +8712,34 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>260</v>
+        <v>132</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="P22" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="38">
-        <v>157.47435999099997</v>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="33">
+        <v>216.42350989999997</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="7" t="s">
-        <v>152</v>
+      <c r="D23" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -8664,34 +8748,34 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3" t="s">
-        <v>143</v>
+        <v>242</v>
       </c>
       <c r="M23" s="3"/>
-      <c r="N23" s="3" t="s">
-        <v>280</v>
+      <c r="N23" s="9" t="s">
+        <v>261</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="P23" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="38">
-        <v>216.42350989999997</v>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="33">
+        <v>143.22306508899996</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="7" t="s">
-        <v>153</v>
+      <c r="D24" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -8700,34 +8784,34 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="M24" s="3"/>
-      <c r="N24" s="10" t="s">
-        <v>281</v>
+      <c r="N24" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="P24" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="38">
-        <v>143.22306508899996</v>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="33">
+        <v>127.29442705849998</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="7" t="s">
-        <v>154</v>
+      <c r="D25" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -8736,34 +8820,34 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="P25" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="38">
-        <v>53.863614850499999</v>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="33">
+        <v>112.84723806849998</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="7" t="s">
-        <v>155</v>
+      <c r="D26" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -8772,34 +8856,34 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3" t="s">
-        <v>294</v>
+        <v>134</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="P26" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="38">
-        <v>127.29442705849998</v>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="33">
+        <v>96.55129862299998</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="7" t="s">
-        <v>156</v>
+      <c r="D27" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -8808,34 +8892,34 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="P27" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="38">
-        <v>112.84723806849998</v>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="33">
+        <v>179.00866749999997</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="7" t="s">
-        <v>157</v>
+      <c r="D28" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -8844,105 +8928,73 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="P28" s="3">
         <v>0.42749999999999999</v>
       </c>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="38">
-        <v>96.55129862299998</v>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="33">
+        <v>216.42350989999997</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0.42749999999999999</v>
-      </c>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="38">
-        <v>179.00866749999997</v>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10">
+        <v>155010000</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" s="10">
+        <v>1.28</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="36" t="s">
+        <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="P30" s="3">
-        <v>0.42749999999999999</v>
-      </c>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="38">
-        <v>216.42350989999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q31" s="39"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q32" s="39"/>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q30" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R30" xr:uid="{85C581B3-4A49-4D7E-AF67-B0CA84DD1A3A}"/>
+  <autoFilter ref="A1:R28" xr:uid="{85C581B3-4A49-4D7E-AF67-B0CA84DD1A3A}"/>
   <hyperlinks>
-    <hyperlink ref="N24" r:id="rId1" xr:uid="{1EF3E070-C7E3-490E-964F-83955FC35B0B}"/>
+    <hyperlink ref="N23" r:id="rId1" xr:uid="{1EF3E070-C7E3-490E-964F-83955FC35B0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -8950,15 +9002,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C72B216-7B6C-43B6-A943-98341DCFCDB0}">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBDF5173-B602-479E-9B9F-AF7329AFC369}">
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.140625" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
@@ -8968,22 +9021,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" t="s">
         <v>214</v>
-      </c>
-      <c r="B1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F1" t="s">
-        <v>228</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
@@ -8991,16 +9044,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="E2">
         <v>110</v>
@@ -9015,16 +9068,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C3">
         <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E3">
         <v>96.63</v>
@@ -9039,16 +9092,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C4">
         <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="E4">
         <v>128.22999999999999</v>
@@ -9063,16 +9116,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C5">
         <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="F5">
         <v>0.42749999999999999</v>
@@ -9084,16 +9137,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C6">
         <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="F6">
         <v>0.42749999999999999</v>
@@ -9105,16 +9158,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C7">
         <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="F7">
         <v>0.42749999999999999</v>
@@ -9126,16 +9179,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C8">
         <v>3151</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="F8">
         <v>0.42749999999999999</v>
@@ -9147,16 +9200,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C9">
         <v>3486</v>
       </c>
       <c r="D9" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="F9">
         <v>0.42749999999999999</v>
@@ -9168,16 +9221,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C10">
         <v>384</v>
       </c>
       <c r="D10" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="F10">
         <v>0.42749999999999999</v>
@@ -9189,13 +9242,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>386</v>
       </c>
       <c r="D11" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="F11">
         <v>0.42749999999999999</v>
@@ -9207,16 +9260,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C12">
         <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="F12">
         <v>0.42749999999999999</v>
@@ -9228,13 +9281,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="F13">
         <v>0.42749999999999999</v>
@@ -9244,10 +9297,121 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="D17" s="46">
+        <f>COUNTIF($B$17:$B$17,B17)</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="I17" s="26">
+        <v>12</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="N17" s="26"/>
+      <c r="O17" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="P17" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q17" s="29">
+        <v>0.41</v>
+      </c>
+      <c r="R17" s="26">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="D18" s="46">
+        <f>COUNTIF($B$18:$B$18,B18)</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="47">
+        <v>2878100</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="11">
+        <v>12</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>0.34</v>
+      </c>
+      <c r="R18" s="11"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O17" r:id="rId1" xr:uid="{B565251D-A3C2-4118-A6AD-CCBDBF11704D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/XX_Master_database/Wholesaler_Database.xlsx
+++ b/XX_Master_database/Wholesaler_Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/01_APP_Dash/01_APP_Production/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/00_Scrapping_git/XX_Master_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1718" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38585AF7-133C-4CA6-9061-985FDD8215ED}"/>
+  <xr:revisionPtr revIDLastSave="1723" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B516CE46-6284-4561-BC83-16F1A4593D24}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BB750D66-C71B-4412-8809-92E47E37BD8E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB750D66-C71B-4412-8809-92E47E37BD8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Competitors" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Competitors!$A$1:$R$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Competitors!$A$1:$R$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mansfield!$A$1:$R$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1097,7 +1097,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1166,6 +1166,14 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -5163,11 +5171,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N76" sqref="N76"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5258,7 +5266,7 @@
         <v>Alto 130/160 RF 1.6 Combo</v>
       </c>
       <c r="D2" s="11">
-        <f>COUNTIF($B$2:$B$51,B2)</f>
+        <f>COUNTIF($B$2:$B$50,B2)</f>
         <v>2</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -5313,7 +5321,7 @@
         <v>Alto 135/160  El 1.6 Combo</v>
       </c>
       <c r="D3" s="11">
-        <f>COUNTIF($B$2:$B$51,B3)</f>
+        <f>COUNTIF($B$2:$B$50,B3)</f>
         <v>2</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -5368,7 +5376,7 @@
         <v>Summit 384/386  ADA 1.28 Combo</v>
       </c>
       <c r="D4" s="11">
-        <f>COUNTIF($B$2:$B$51,B4)</f>
+        <f>COUNTIF($B$2:$B$50,B4)</f>
         <v>2</v>
       </c>
       <c r="E4" s="12" t="s">
@@ -5423,7 +5431,7 @@
         <v>Alto 130/160 RF 1.6 Combo</v>
       </c>
       <c r="D5" s="11">
-        <f>COUNTIF($B$2:$B$51,B5)</f>
+        <f>COUNTIF($B$2:$B$50,B5)</f>
         <v>2</v>
       </c>
       <c r="E5" s="12" t="s">
@@ -5478,7 +5486,7 @@
         <v>Alto 135/160  El 1.6 Combo</v>
       </c>
       <c r="D6" s="11">
-        <f>COUNTIF($B$2:$B$51,B6)</f>
+        <f>COUNTIF($B$2:$B$50,B6)</f>
         <v>2</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -5533,7 +5541,7 @@
         <v>Alto 137/160 ADA EL 1.6 Combo</v>
       </c>
       <c r="D7" s="11">
-        <f>COUNTIF($B$2:$B$51,B7)</f>
+        <f>COUNTIF($B$2:$B$50,B7)</f>
         <v>2</v>
       </c>
       <c r="E7" s="12" t="s">
@@ -5588,7 +5596,7 @@
         <v>QUANTUM 148123 1.6 EL  SMARTHEIGHT Combo</v>
       </c>
       <c r="D8" s="11">
-        <f>COUNTIF($B$2:$B$51,B8)</f>
+        <f>COUNTIF($B$2:$B$50,B8)</f>
         <v>2</v>
       </c>
       <c r="E8" s="12" t="s">
@@ -5643,7 +5651,7 @@
         <v xml:space="preserve">Quantum 1,6 tank </v>
       </c>
       <c r="D9" s="11">
-        <f>COUNTIF($B$2:$B$51,B9)</f>
+        <f>COUNTIF($B$2:$B$50,B9)</f>
         <v>2</v>
       </c>
       <c r="E9" s="12" t="s">
@@ -5696,8 +5704,8 @@
         <v>ALTO TANK 3173 CTL 1.28</v>
       </c>
       <c r="D10" s="26">
-        <f>COUNTIF($B$2:$B$51,B10)</f>
-        <v>2</v>
+        <f>COUNTIF($B$2:$B$50,B10)</f>
+        <v>1</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>120</v>
@@ -5748,7 +5756,7 @@
         <v>ALTO TANK 160 1.6</v>
       </c>
       <c r="D11" s="26">
-        <f>COUNTIF($B$2:$B$51,B11)</f>
+        <f>COUNTIF($B$2:$B$50,B11)</f>
         <v>2</v>
       </c>
       <c r="E11" s="27" t="s">
@@ -5800,7 +5808,7 @@
         <v>ALTO BOWL 137 1.6</v>
       </c>
       <c r="D12" s="26">
-        <f>COUNTIF($B$2:$B$51,B12)</f>
+        <f>COUNTIF($B$2:$B$50,B12)</f>
         <v>2</v>
       </c>
       <c r="E12" s="27" t="s">
@@ -5856,7 +5864,7 @@
         <v>ALTO BOWL 135 EL 1.6</v>
       </c>
       <c r="D13" s="26">
-        <f>COUNTIF($B$2:$B$51,B13)</f>
+        <f>COUNTIF($B$2:$B$50,B13)</f>
         <v>2</v>
       </c>
       <c r="E13" s="27" t="s">
@@ -5912,7 +5920,7 @@
         <v>ALTO BOWL 130 1.6</v>
       </c>
       <c r="D14" s="26">
-        <f>COUNTIF($B$2:$B$51,B14)</f>
+        <f>COUNTIF($B$2:$B$50,B14)</f>
         <v>2</v>
       </c>
       <c r="E14" s="27" t="s">
@@ -5968,7 +5976,7 @@
         <v xml:space="preserve">SUMMIT TANK 386      </v>
       </c>
       <c r="D15" s="26">
-        <f>COUNTIF($B$2:$B$51,B15)</f>
+        <f>COUNTIF($B$2:$B$50,B15)</f>
         <v>2</v>
       </c>
       <c r="E15" s="27" t="s">
@@ -6018,7 +6026,7 @@
         <v>QUANTUM 148123 1.6 EL  SMARTHEIGHT Combo</v>
       </c>
       <c r="D16" s="11">
-        <f>COUNTIF($B$2:$B$51,B16)</f>
+        <f>COUNTIF($B$2:$B$50,B16)</f>
         <v>2</v>
       </c>
       <c r="E16" s="12">
@@ -6072,7 +6080,7 @@
         <v xml:space="preserve">Quantum 1,6 tank </v>
       </c>
       <c r="D17" s="11">
-        <f>COUNTIF($B$2:$B$51,B17)</f>
+        <f>COUNTIF($B$2:$B$50,B17)</f>
         <v>2</v>
       </c>
       <c r="E17" s="16">
@@ -6120,7 +6128,7 @@
         <v>COMMERCIAL BOWL 1319 EL ADA  1.28</v>
       </c>
       <c r="D18" s="11">
-        <f>COUNTIF($B$2:$B$51,B18)</f>
+        <f>COUNTIF($B$2:$B$50,B18)</f>
         <v>2</v>
       </c>
       <c r="E18" s="16">
@@ -6166,19 +6174,19 @@
       <c r="A19" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>55</v>
+      <c r="B19" s="15">
+        <v>160010007</v>
       </c>
       <c r="C19" s="11" t="str">
         <f>VLOOKUP(B19,Mansfield!$D$1:$L$18,9,0)</f>
-        <v>ALTO TANK 3173 CTL 1.28</v>
+        <v>ALTO TANK 160 1.6</v>
       </c>
       <c r="D19" s="11">
-        <f>COUNTIF($B$2:$B$51,B19)</f>
+        <f>COUNTIF($B$2:$B$50,B19)</f>
         <v>2</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>36</v>
+      <c r="E19" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>29</v>
@@ -6189,17 +6197,17 @@
       <c r="H19" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="14"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="17">
-        <v>1.28</v>
+      <c r="L19" s="14">
+        <v>1.6</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="N19" s="11" t="s">
-        <v>72</v>
+        <v>105</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>296</v>
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11" t="s">
@@ -6214,40 +6222,46 @@
       <c r="A20" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="15">
-        <v>160010007</v>
+      <c r="B20" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="C20" s="11" t="str">
         <f>VLOOKUP(B20,Mansfield!$D$1:$L$18,9,0)</f>
-        <v>ALTO TANK 160 1.6</v>
+        <v>ALTO BOWL 137 1.6</v>
       </c>
       <c r="D20" s="11">
-        <f>COUNTIF($B$2:$B$51,B20)</f>
+        <f>COUNTIF($B$2:$B$50,B20)</f>
         <v>2</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>37</v>
+      <c r="E20" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>29</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="14">
-        <v>1.6</v>
+      <c r="I20" s="14">
+        <v>12</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="17">
+        <v>1.28</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>296</v>
+        <v>121</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="11" t="s">
@@ -6263,18 +6277,18 @@
         <v>6</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="11" t="str">
         <f>VLOOKUP(B21,Mansfield!$D$1:$L$18,9,0)</f>
-        <v>ALTO BOWL 137 1.6</v>
+        <v>ALTO BOWL 135 EL 1.6</v>
       </c>
       <c r="D21" s="11">
-        <f>COUNTIF($B$2:$B$51,B21)</f>
+        <f>COUNTIF($B$2:$B$50,B21)</f>
         <v>2</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>29</v>
@@ -6289,7 +6303,7 @@
         <v>12</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>50</v>
@@ -6298,10 +6312,10 @@
         <v>1.28</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11" t="s">
@@ -6317,18 +6331,18 @@
         <v>6</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" s="11" t="str">
         <f>VLOOKUP(B22,Mansfield!$D$1:$L$18,9,0)</f>
-        <v>ALTO BOWL 135 EL 1.6</v>
+        <v>ALTO BOWL 130 1.6</v>
       </c>
       <c r="D22" s="11">
-        <f>COUNTIF($B$2:$B$51,B22)</f>
+        <f>COUNTIF($B$2:$B$50,B22)</f>
         <v>2</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>39</v>
+      <c r="E22" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>29</v>
@@ -6346,16 +6360,16 @@
         <v>49</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L22" s="17">
+        <v>51</v>
+      </c>
+      <c r="L22" s="14">
         <v>1.28</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11" t="s">
@@ -6371,45 +6385,39 @@
         <v>6</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="C23" s="11" t="str">
         <f>VLOOKUP(B23,Mansfield!$D$1:$L$18,9,0)</f>
-        <v>ALTO BOWL 130 1.6</v>
+        <v xml:space="preserve">SUMMIT TANK 386      </v>
       </c>
       <c r="D23" s="11">
-        <f>COUNTIF($B$2:$B$51,B23)</f>
+        <f>COUNTIF($B$2:$B$50,B23)</f>
         <v>2</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="14">
-        <v>12</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>51</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
       <c r="L23" s="14">
-        <v>1.28</v>
+        <v>1.6</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11" t="s">
@@ -6422,49 +6430,55 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C24" s="11" t="str">
         <f>VLOOKUP(B24,Mansfield!$D$1:$L$18,9,0)</f>
-        <v xml:space="preserve">SUMMIT TANK 386      </v>
+        <v>COMMERCIAL BOWL 1319 EL ADA  1.28</v>
       </c>
       <c r="D24" s="11">
-        <f>COUNTIF($B$2:$B$51,B24)</f>
+        <f>COUNTIF($B$2:$B$50,B24)</f>
         <v>2</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
+        <v>63</v>
+      </c>
+      <c r="I24" s="14">
+        <v>10</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="L24" s="14">
-        <v>1.6</v>
+        <v>1.28</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O24" s="11"/>
       <c r="P24" s="11" t="s">
         <v>230</v>
       </c>
       <c r="Q24" s="21">
-        <v>0.34</v>
+        <v>0.41</v>
       </c>
       <c r="R24" s="11"/>
     </row>
@@ -6473,30 +6487,30 @@
         <v>4</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="C25" s="11" t="str">
         <f>VLOOKUP(B25,Mansfield!$D$1:$L$18,9,0)</f>
-        <v>COMMERCIAL BOWL 1319 EL ADA  1.28</v>
+        <v>Alto 137/160 ADA EL 1.6 Combo</v>
       </c>
       <c r="D25" s="11">
-        <f>COUNTIF($B$2:$B$51,B25)</f>
+        <f>COUNTIF($B$2:$B$50,B25)</f>
         <v>2</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I25" s="14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J25" s="11" t="s">
         <v>48</v>
@@ -6508,10 +6522,10 @@
         <v>1.28</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>98</v>
+        <v>297</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>69</v>
+        <v>298</v>
       </c>
       <c r="O25" s="11"/>
       <c r="P25" s="11" t="s">
@@ -6527,18 +6541,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="C26" s="11" t="str">
         <f>VLOOKUP(B26,Mansfield!$D$1:$L$18,9,0)</f>
-        <v>Alto 137/160 ADA EL 1.6 Combo</v>
+        <v>HET 3489-V El 1.28 Combo </v>
       </c>
       <c r="D26" s="11">
-        <f>COUNTIF($B$2:$B$51,B26)</f>
-        <v>2</v>
+        <f>COUNTIF($B$2:$B$50,B26)</f>
+        <v>1</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>29</v>
@@ -6553,7 +6567,7 @@
         <v>12</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26" s="11" t="s">
         <v>50</v>
@@ -6562,10 +6576,10 @@
         <v>1.28</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>297</v>
+        <v>99</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="11" t="s">
@@ -6577,82 +6591,72 @@
       <c r="R26" s="11"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="C27" s="11" t="str">
-        <f>VLOOKUP(B27,Mansfield!$D$1:$L$18,9,0)</f>
-        <v>HET 3489-V El 1.28 Combo </v>
-      </c>
-      <c r="D27" s="11">
-        <f>COUNTIF($B$2:$B$51,B27)</f>
-        <v>1</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I27" s="14">
-        <v>12</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L27" s="14">
-        <v>1.28</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="N27" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11" t="s">
+      <c r="B27" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="8" t="str">
+        <f>VLOOKUP(B27,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>237 Lav</v>
+      </c>
+      <c r="D27" s="8">
+        <f>COUNTIF($B$2:$B$50,B27)</f>
+        <v>2</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="O27" s="9"/>
+      <c r="P27" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="Q27" s="21">
+      <c r="Q27" s="22">
         <v>0.41</v>
       </c>
-      <c r="R27" s="11"/>
+      <c r="R27" s="3"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C28" s="8" t="str">
         <f>VLOOKUP(B28,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>237 Lav</v>
+        <v>217 Lav</v>
       </c>
       <c r="D28" s="8">
-        <f>COUNTIF($B$2:$B$51,B28)</f>
+        <f>COUNTIF($B$2:$B$50,B28)</f>
         <v>2</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -6660,10 +6664,10 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O28" s="9"/>
       <c r="P28" s="3" t="s">
@@ -6674,117 +6678,117 @@
       </c>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>138</v>
+      <c r="B29" s="24" t="s">
+        <v>139</v>
       </c>
       <c r="C29" s="8" t="str">
         <f>VLOOKUP(B29,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>217 Lav</v>
+        <v>292 Lav</v>
       </c>
       <c r="D29" s="8">
-        <f>COUNTIF($B$2:$B$51,B29)</f>
+        <f>COUNTIF($B$2:$B$50,B29)</f>
         <v>2</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="O29" s="9"/>
-      <c r="P29" s="3" t="s">
+      <c r="G29" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="Q29" s="22">
+      <c r="Q29" s="45">
         <v>0.41</v>
       </c>
-      <c r="R29" s="3"/>
+      <c r="R29" s="8"/>
     </row>
-    <row r="30" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="24" t="s">
-        <v>139</v>
+      <c r="B30" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="C30" s="8" t="str">
         <f>VLOOKUP(B30,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>292 Lav</v>
+        <v>328 4" LAV</v>
       </c>
       <c r="D30" s="8">
-        <f>COUNTIF($B$2:$B$51,B30)</f>
+        <f>COUNTIF($B$2:$B$50,B30)</f>
         <v>2</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F30" s="8" t="s">
+      <c r="E30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8" t="s">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="Q30" s="45">
+      <c r="Q30" s="22">
         <v>0.41</v>
       </c>
-      <c r="R30" s="8"/>
+      <c r="R30" s="3">
+        <v>592</v>
+      </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C31" s="8" t="str">
         <f>VLOOKUP(B31,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>328 4" LAV</v>
+        <v>218 COVINGTON LAV</v>
       </c>
       <c r="D31" s="8">
-        <f>COUNTIF($B$2:$B$51,B31)</f>
+        <f>COUNTIF($B$2:$B$50,B31)</f>
         <v>2</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>289</v>
+      <c r="G31" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -6792,9 +6796,11 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="N31" s="9"/>
+        <v>168</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>226</v>
+      </c>
       <c r="O31" s="9"/>
       <c r="P31" s="3" t="s">
         <v>230</v>
@@ -6802,33 +6808,31 @@
       <c r="Q31" s="22">
         <v>0.41</v>
       </c>
-      <c r="R31" s="3">
-        <v>592</v>
-      </c>
+      <c r="R31" s="3"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C32" s="8" t="str">
         <f>VLOOKUP(B32,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>218 COVINGTON LAV</v>
+        <v>348 4" LAV</v>
       </c>
       <c r="D32" s="8">
-        <f>COUNTIF($B$2:$B$51,B32)</f>
+        <f>COUNTIF($B$2:$B$50,B32)</f>
         <v>2</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -6836,10 +6840,10 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O32" s="9"/>
       <c r="P32" s="3" t="s">
@@ -6855,18 +6859,18 @@
         <v>4</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C33" s="8" t="str">
         <f>VLOOKUP(B33,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>348 4" LAV</v>
+        <v>272 4" LAV</v>
       </c>
       <c r="D33" s="8">
-        <f>COUNTIF($B$2:$B$51,B33)</f>
+        <f>COUNTIF($B$2:$B$50,B33)</f>
         <v>2</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>126</v>
@@ -6880,12 +6884,12 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="N33" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="O33" s="9"/>
+        <v>170</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="O33" s="3"/>
       <c r="P33" s="3" t="s">
         <v>230</v>
       </c>
@@ -6899,24 +6903,24 @@
         <v>4</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C34" s="8" t="str">
         <f>VLOOKUP(B34,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>272 4" LAV</v>
+        <v>251 4" LAV</v>
       </c>
       <c r="D34" s="8">
-        <f>COUNTIF($B$2:$B$51,B34)</f>
+        <f>COUNTIF($B$2:$B$50,B34)</f>
         <v>2</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>291</v>
+        <v>127</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -6924,12 +6928,12 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="O34" s="3"/>
+        <v>164</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="O34" s="9"/>
       <c r="P34" s="3" t="s">
         <v>230</v>
       </c>
@@ -6943,24 +6947,24 @@
         <v>4</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C35" s="8" t="str">
         <f>VLOOKUP(B35,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>251 4" LAV</v>
+        <v>234 BRENTWOOD LAV</v>
       </c>
       <c r="D35" s="8">
-        <f>COUNTIF($B$2:$B$51,B35)</f>
+        <f>COUNTIF($B$2:$B$50,B35)</f>
         <v>2</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -6968,10 +6972,10 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="O35" s="9"/>
       <c r="P35" s="3" t="s">
@@ -6987,24 +6991,24 @@
         <v>4</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C36" s="8" t="str">
         <f>VLOOKUP(B36,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>234 BRENTWOOD LAV</v>
+        <v>328 8" LAV</v>
       </c>
       <c r="D36" s="8">
-        <f>COUNTIF($B$2:$B$51,B36)</f>
+        <f>COUNTIF($B$2:$B$50,B36)</f>
         <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>131</v>
+        <v>295</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -7012,10 +7016,10 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O36" s="9"/>
       <c r="P36" s="3" t="s">
@@ -7027,46 +7031,44 @@
       <c r="R36" s="3"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C37" s="8" t="str">
+      <c r="A37" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="18" t="str">
         <f>VLOOKUP(B37,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>328 8" LAV</v>
-      </c>
-      <c r="D37" s="8">
-        <f>COUNTIF($B$2:$B$51,B37)</f>
+        <v>237 Lav</v>
+      </c>
+      <c r="D37" s="18">
+        <f>COUNTIF($B$2:$B$50,B37)</f>
         <v>2</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="E37" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="O37" s="9"/>
-      <c r="P37" s="3" t="s">
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="Q37" s="22">
-        <v>0.41</v>
+      <c r="Q37" s="23">
+        <v>0.34</v>
       </c>
       <c r="R37" s="3"/>
     </row>
@@ -7075,18 +7077,18 @@
         <v>6</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C38" s="18" t="str">
         <f>VLOOKUP(B38,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>237 Lav</v>
+        <v>217 Lav</v>
       </c>
       <c r="D38" s="18">
-        <f>COUNTIF($B$2:$B$51,B38)</f>
+        <f>COUNTIF($B$2:$B$50,B38)</f>
         <v>2</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>126</v>
@@ -7098,10 +7100,10 @@
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
       <c r="M38" s="18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N38" s="18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O38" s="18"/>
       <c r="P38" s="18" t="s">
@@ -7117,18 +7119,18 @@
         <v>6</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C39" s="18" t="str">
         <f>VLOOKUP(B39,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>217 Lav</v>
+        <v>292 Lav</v>
       </c>
       <c r="D39" s="18">
-        <f>COUNTIF($B$2:$B$51,B39)</f>
+        <f>COUNTIF($B$2:$B$50,B39)</f>
         <v>2</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>126</v>
@@ -7140,10 +7142,10 @@
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
       <c r="M39" s="18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N39" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O39" s="18"/>
       <c r="P39" s="18" t="s">
@@ -7159,18 +7161,18 @@
         <v>6</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C40" s="18" t="str">
         <f>VLOOKUP(B40,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>292 Lav</v>
+        <v>328 4" LAV</v>
       </c>
       <c r="D40" s="18">
-        <f>COUNTIF($B$2:$B$51,B40)</f>
+        <f>COUNTIF($B$2:$B$50,B40)</f>
         <v>2</v>
       </c>
-      <c r="E40" s="18" t="s">
-        <v>149</v>
+      <c r="E40" s="19" t="s">
+        <v>178</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>126</v>
@@ -7182,10 +7184,10 @@
       <c r="K40" s="18"/>
       <c r="L40" s="18"/>
       <c r="M40" s="18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N40" s="18" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O40" s="18"/>
       <c r="P40" s="18" t="s">
@@ -7201,18 +7203,18 @@
         <v>6</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C41" s="18" t="str">
         <f>VLOOKUP(B41,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>328 4" LAV</v>
+        <v>218 COVINGTON LAV</v>
       </c>
       <c r="D41" s="18">
-        <f>COUNTIF($B$2:$B$51,B41)</f>
+        <f>COUNTIF($B$2:$B$50,B41)</f>
         <v>2</v>
       </c>
-      <c r="E41" s="19" t="s">
-        <v>178</v>
+      <c r="E41" s="18" t="s">
+        <v>150</v>
       </c>
       <c r="F41" s="18" t="s">
         <v>126</v>
@@ -7224,10 +7226,10 @@
       <c r="K41" s="18"/>
       <c r="L41" s="18"/>
       <c r="M41" s="18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N41" s="18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O41" s="18"/>
       <c r="P41" s="18" t="s">
@@ -7243,18 +7245,18 @@
         <v>6</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C42" s="18" t="str">
         <f>VLOOKUP(B42,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>218 COVINGTON LAV</v>
+        <v>348 4" LAV</v>
       </c>
       <c r="D42" s="18">
-        <f>COUNTIF($B$2:$B$51,B42)</f>
+        <f>COUNTIF($B$2:$B$50,B42)</f>
         <v>2</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F42" s="18" t="s">
         <v>126</v>
@@ -7266,10 +7268,10 @@
       <c r="K42" s="18"/>
       <c r="L42" s="18"/>
       <c r="M42" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="N42" s="18" t="s">
-        <v>180</v>
+        <v>160</v>
+      </c>
+      <c r="N42" s="20" t="s">
+        <v>294</v>
       </c>
       <c r="O42" s="18"/>
       <c r="P42" s="18" t="s">
@@ -7285,18 +7287,18 @@
         <v>6</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C43" s="18" t="str">
         <f>VLOOKUP(B43,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>348 4" LAV</v>
+        <v>272 4" LAV</v>
       </c>
       <c r="D43" s="18">
-        <f>COUNTIF($B$2:$B$51,B43)</f>
+        <f>COUNTIF($B$2:$B$50,B43)</f>
         <v>2</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>126</v>
@@ -7308,10 +7310,10 @@
       <c r="K43" s="18"/>
       <c r="L43" s="18"/>
       <c r="M43" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="N43" s="20" t="s">
-        <v>294</v>
+        <v>161</v>
+      </c>
+      <c r="N43" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="O43" s="18"/>
       <c r="P43" s="18" t="s">
@@ -7327,18 +7329,18 @@
         <v>6</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C44" s="18" t="str">
         <f>VLOOKUP(B44,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>272 4" LAV</v>
+        <v>251 4" LAV</v>
       </c>
       <c r="D44" s="18">
-        <f>COUNTIF($B$2:$B$51,B44)</f>
+        <f>COUNTIF($B$2:$B$50,B44)</f>
         <v>2</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F44" s="18" t="s">
         <v>126</v>
@@ -7350,12 +7352,12 @@
       <c r="K44" s="18"/>
       <c r="L44" s="18"/>
       <c r="M44" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="N44" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="O44" s="18"/>
+        <v>155</v>
+      </c>
+      <c r="N44" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O44" s="20"/>
       <c r="P44" s="18" t="s">
         <v>230</v>
       </c>
@@ -7369,18 +7371,18 @@
         <v>6</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C45" s="18" t="str">
         <f>VLOOKUP(B45,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>251 4" LAV</v>
+        <v>234 BRENTWOOD LAV</v>
       </c>
       <c r="D45" s="18">
-        <f>COUNTIF($B$2:$B$51,B45)</f>
+        <f>COUNTIF($B$2:$B$50,B45)</f>
         <v>2</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>126</v>
@@ -7392,12 +7394,12 @@
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
       <c r="M45" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="N45" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="O45" s="20"/>
+        <v>162</v>
+      </c>
+      <c r="N45" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="O45" s="18"/>
       <c r="P45" s="18" t="s">
         <v>230</v>
       </c>
@@ -7411,18 +7413,18 @@
         <v>6</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C46" s="18" t="str">
         <f>VLOOKUP(B46,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>234 BRENTWOOD LAV</v>
+        <v>328 8" LAV</v>
       </c>
       <c r="D46" s="18">
-        <f>COUNTIF($B$2:$B$51,B46)</f>
+        <f>COUNTIF($B$2:$B$50,B46)</f>
         <v>2</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F46" s="18" t="s">
         <v>126</v>
@@ -7434,10 +7436,10 @@
       <c r="K46" s="18"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="N46" s="18" t="s">
-        <v>182</v>
+        <v>163</v>
+      </c>
+      <c r="N46" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="O46" s="18"/>
       <c r="P46" s="18" t="s">
@@ -7448,95 +7450,109 @@
       </c>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
+    <row r="47" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C47" s="18" t="str">
+      <c r="B47" s="38">
+        <v>155010000</v>
+      </c>
+      <c r="C47" s="44" t="str">
         <f>VLOOKUP(B47,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>328 8" LAV</v>
-      </c>
-      <c r="D47" s="18">
-        <f>COUNTIF($B$2:$B$51,B47)</f>
+        <v xml:space="preserve">TANK 155 LH QTM 1.28GPF WHT                                                                         </v>
+      </c>
+      <c r="D47" s="38">
+        <f>COUNTIF($B$2:$B$50,B47)</f>
         <v>2</v>
       </c>
-      <c r="E47" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="N47" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18" t="s">
+      <c r="E47" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="H47" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="I47" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J47" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="K47" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="L47" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="M47" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="N47" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="O47" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="P47" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="Q47" s="23">
+      <c r="Q47" s="40">
         <v>0.34</v>
       </c>
-      <c r="R47" s="3"/>
+      <c r="R47" s="38"/>
     </row>
     <row r="48" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="38">
-        <v>155010000</v>
+      <c r="B48" s="38" t="s">
+        <v>91</v>
       </c>
       <c r="C48" s="44" t="str">
         <f>VLOOKUP(B48,Mansfield!$D$1:$L$47,9,0)</f>
-        <v xml:space="preserve">TANK 155 LH QTM 1.28GPF WHT                                                                         </v>
+        <v>Summit 384/386  ADA 1.28 Combo</v>
       </c>
       <c r="D48" s="38">
-        <f>COUNTIF($B$2:$B$51,B48)</f>
+        <f>COUNTIF($B$2:$B$50,B48)</f>
         <v>2</v>
       </c>
-      <c r="E48" s="39" t="s">
-        <v>275</v>
+      <c r="E48" s="42" t="s">
+        <v>278</v>
       </c>
       <c r="F48" s="38" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G48" s="38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H48" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="I48" s="38" t="s">
-        <v>47</v>
+        <v>279</v>
+      </c>
+      <c r="I48" s="38">
+        <v>12</v>
       </c>
       <c r="J48" s="38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K48" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="L48" s="38" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="L48" s="38">
+        <v>1.28</v>
       </c>
       <c r="M48" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="N48" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="O48" s="38" t="s">
-        <v>277</v>
+        <v>280</v>
+      </c>
+      <c r="N48" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="O48" s="43" t="s">
+        <v>282</v>
       </c>
       <c r="P48" s="38" t="s">
         <v>230</v>
@@ -7548,143 +7564,86 @@
     </row>
     <row r="49" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="38" t="s">
-        <v>91</v>
+        <v>4</v>
+      </c>
+      <c r="B49" s="38">
+        <v>155010000</v>
       </c>
       <c r="C49" s="44" t="str">
         <f>VLOOKUP(B49,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>Summit 384/386  ADA 1.28 Combo</v>
+        <v xml:space="preserve">TANK 155 LH QTM 1.28GPF WHT                                                                         </v>
       </c>
       <c r="D49" s="38">
-        <f>COUNTIF($B$2:$B$51,B49)</f>
+        <f>COUNTIF($B$2:$B$50,B49)</f>
         <v>2</v>
       </c>
-      <c r="E49" s="42" t="s">
-        <v>278</v>
+      <c r="E49" s="39" t="s">
+        <v>284</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G49" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="I49" s="38">
-        <v>12</v>
+        <v>188</v>
+      </c>
+      <c r="I49" s="38" t="s">
+        <v>47</v>
       </c>
       <c r="J49" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K49" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="L49" s="38">
-        <v>1.28</v>
+        <v>47</v>
+      </c>
+      <c r="L49" s="38" t="s">
+        <v>47</v>
       </c>
       <c r="M49" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="N49" s="43" t="s">
-        <v>281</v>
-      </c>
-      <c r="O49" s="43" t="s">
-        <v>282</v>
+        <v>190</v>
+      </c>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38" t="s">
+        <v>285</v>
       </c>
       <c r="P49" s="38" t="s">
         <v>230</v>
       </c>
       <c r="Q49" s="40">
-        <v>0.34</v>
-      </c>
-      <c r="R49" s="38"/>
-    </row>
-    <row r="50" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="38">
-        <v>155010000</v>
-      </c>
-      <c r="C50" s="44" t="str">
-        <f>VLOOKUP(B50,Mansfield!$D$1:$L$47,9,0)</f>
-        <v xml:space="preserve">TANK 155 LH QTM 1.28GPF WHT                                                                         </v>
-      </c>
-      <c r="D50" s="38">
-        <f>COUNTIF($B$2:$B$51,B50)</f>
-        <v>2</v>
-      </c>
-      <c r="E50" s="39" t="s">
-        <v>284</v>
-      </c>
-      <c r="F50" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="H50" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="I50" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="J50" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="K50" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="L50" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="M50" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="P50" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q50" s="40">
         <v>0.41</v>
       </c>
-      <c r="R50" s="38">
+      <c r="R49" s="38">
         <v>308</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R50" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}"/>
+  <autoFilter ref="A1:R49" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}"/>
   <hyperlinks>
     <hyperlink ref="N5" r:id="rId1" xr:uid="{EF7953C9-ED02-4DDB-9445-D95A01E86511}"/>
     <hyperlink ref="N16" r:id="rId2" xr:uid="{CD91D937-81FC-495B-9B8D-2E8D7673C161}"/>
     <hyperlink ref="N17" r:id="rId3" xr:uid="{F8CC36D8-B3D6-4CE7-8BB1-39588FC65DFD}"/>
-    <hyperlink ref="N45" r:id="rId4" xr:uid="{E3B9BAE2-78EC-4625-BD19-698C4A48EC97}"/>
+    <hyperlink ref="N44" r:id="rId4" xr:uid="{E3B9BAE2-78EC-4625-BD19-698C4A48EC97}"/>
     <hyperlink ref="N3" r:id="rId5" xr:uid="{EF43BBC5-D734-48E3-8E51-41FA4C5BBAAC}"/>
     <hyperlink ref="N4" r:id="rId6" xr:uid="{22484C09-4856-4889-8D85-F3AB32A71518}"/>
     <hyperlink ref="N8" r:id="rId7" xr:uid="{6A10DF77-5DF5-4F15-83CF-4EE626A1CEE3}"/>
-    <hyperlink ref="N33" r:id="rId8" xr:uid="{2B8A67F9-2D5C-4A93-9C82-E5B32B266FA4}"/>
-    <hyperlink ref="N35" r:id="rId9" xr:uid="{1515F505-E4F5-43A7-A068-D4C92341112C}"/>
-    <hyperlink ref="N36" r:id="rId10" xr:uid="{1E8E0998-C4EC-48BC-8445-39D26C94D065}"/>
-    <hyperlink ref="N37" r:id="rId11" xr:uid="{6C553BF5-CDFB-415A-8EA1-065521322AC3}"/>
+    <hyperlink ref="N32" r:id="rId8" xr:uid="{2B8A67F9-2D5C-4A93-9C82-E5B32B266FA4}"/>
+    <hyperlink ref="N34" r:id="rId9" xr:uid="{1515F505-E4F5-43A7-A068-D4C92341112C}"/>
+    <hyperlink ref="N35" r:id="rId10" xr:uid="{1E8E0998-C4EC-48BC-8445-39D26C94D065}"/>
+    <hyperlink ref="N36" r:id="rId11" xr:uid="{6C553BF5-CDFB-415A-8EA1-065521322AC3}"/>
     <hyperlink ref="O12" r:id="rId12" xr:uid="{B3A4AC13-7BED-45E9-A2E7-413F39FCC9AC}"/>
-    <hyperlink ref="N19" r:id="rId13" xr:uid="{733DEA3E-9B23-4503-A490-0AB978FEFE69}"/>
-    <hyperlink ref="N6" r:id="rId14" xr:uid="{3360E79D-3758-4E75-B584-1F6C54804F8E}"/>
-    <hyperlink ref="N47" r:id="rId15" xr:uid="{0FEA31B0-3DE4-45A4-A8D7-5CAE3AD57EAE}"/>
-    <hyperlink ref="O49" r:id="rId16" xr:uid="{3418ECFB-1A01-4FF7-8F2E-EE819BC0FF76}"/>
-    <hyperlink ref="N29" r:id="rId17" xr:uid="{5FA15A89-8D97-4347-8409-801BF0EB34DA}"/>
-    <hyperlink ref="N28" r:id="rId18" xr:uid="{F37460DF-2564-4429-91B1-6BA15AE0C40D}"/>
-    <hyperlink ref="N32" r:id="rId19" xr:uid="{6D20289D-9F93-42B1-A99D-4583DD5D70FA}"/>
-    <hyperlink ref="N43" r:id="rId20" xr:uid="{23AD542D-23DD-43CE-9D11-54573641EF81}"/>
-    <hyperlink ref="N20" r:id="rId21" display="https://www.americanstandard-us.com/Floor-Standing-Toilets/Colony-16-gpf-60-Lpf-12-Inch-Rough-Tank/BONE-4192A004021" xr:uid="{2DAD8D07-0D2B-4F9B-8144-3DE45BAA9CC2}"/>
+    <hyperlink ref="N6" r:id="rId13" xr:uid="{3360E79D-3758-4E75-B584-1F6C54804F8E}"/>
+    <hyperlink ref="N46" r:id="rId14" xr:uid="{0FEA31B0-3DE4-45A4-A8D7-5CAE3AD57EAE}"/>
+    <hyperlink ref="O48" r:id="rId15" xr:uid="{3418ECFB-1A01-4FF7-8F2E-EE819BC0FF76}"/>
+    <hyperlink ref="N28" r:id="rId16" xr:uid="{5FA15A89-8D97-4347-8409-801BF0EB34DA}"/>
+    <hyperlink ref="N27" r:id="rId17" xr:uid="{F37460DF-2564-4429-91B1-6BA15AE0C40D}"/>
+    <hyperlink ref="N31" r:id="rId18" xr:uid="{6D20289D-9F93-42B1-A99D-4583DD5D70FA}"/>
+    <hyperlink ref="N42" r:id="rId19" xr:uid="{23AD542D-23DD-43CE-9D11-54573641EF81}"/>
+    <hyperlink ref="N19" r:id="rId20" display="https://www.americanstandard-us.com/Floor-Standing-Toilets/Colony-16-gpf-60-Lpf-12-Inch-Rough-Tank/BONE-4192A004021" xr:uid="{2DAD8D07-0D2B-4F9B-8144-3DE45BAA9CC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -9003,10 +8962,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBDF5173-B602-479E-9B9F-AF7329AFC369}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9405,13 +9364,62 @@
       </c>
       <c r="R18" s="11"/>
     </row>
+    <row r="21" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="10" t="str">
+        <f>VLOOKUP(B21,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>ALTO TANK 3173 CTL 1.28</v>
+      </c>
+      <c r="D21" s="10">
+        <f>COUNTIF($B$21:$B$21,B21)</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="49"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="50">
+        <v>1.28</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q21" s="51">
+        <v>0.34</v>
+      </c>
+      <c r="R21" s="10"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="O17" r:id="rId1" xr:uid="{B565251D-A3C2-4118-A6AD-CCBDBF11704D}"/>
+    <hyperlink ref="N21" r:id="rId2" xr:uid="{733DEA3E-9B23-4503-A490-0AB978FEFE69}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/XX_Master_database/Wholesaler_Database.xlsx
+++ b/XX_Master_database/Wholesaler_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/00_Scrapping_git/XX_Master_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1723" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B516CE46-6284-4561-BC83-16F1A4593D24}"/>
+  <xr:revisionPtr revIDLastSave="1741" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D3C73C7-42EE-477B-BBDF-F25965657DE6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB750D66-C71B-4412-8809-92E47E37BD8E}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Competitors!$A$1:$R$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Competitors!$B$1:$S$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mansfield!$A$1:$R$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="302">
   <si>
     <t>GMX20902</t>
   </si>
@@ -940,6 +940,15 @@
   </si>
   <si>
     <t>https://www.gerber-us.com/maxwell-1-6-gpf-12-rough-in-two-piece-elongated-ergoheight-toilet/products/us-GMX20918</t>
+  </si>
+  <si>
+    <t>Scrap</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1106,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1174,6 +1183,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -5171,2479 +5183,2682 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="60.140625" customWidth="1"/>
-    <col min="14" max="14" width="169" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="105.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="60.109375" customWidth="1"/>
+    <col min="15" max="15" width="169" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="105.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="11" t="str">
-        <f>VLOOKUP(B2,Mansfield!$D$1:$L$18,9,0)</f>
+      <c r="D2" s="11" t="str">
+        <f>VLOOKUP(C2,Mansfield!$D$1:$L$18,9,0)</f>
         <v>Alto 130/160 RF 1.6 Combo</v>
       </c>
-      <c r="D2" s="11">
-        <f>COUNTIF($B$2:$B$50,B2)</f>
+      <c r="E2" s="11">
+        <f t="shared" ref="E2:E50" si="0">COUNTIF($C$2:$C$51,C2)</f>
         <v>2</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="11" t="str">
-        <f>VLOOKUP(E2,[1]query!$D:$O,4,0)</f>
+      <c r="I2" s="11" t="str">
+        <f>VLOOKUP(F2,[1]query!$D:$O,4,0)</f>
         <v>Maxwell</v>
       </c>
-      <c r="I2" s="14">
+      <c r="J2" s="14">
         <v>12</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="14">
+      <c r="M2" s="14">
         <v>1.6</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="Q2" s="21">
+      <c r="R2" s="21">
         <v>0.41</v>
       </c>
-      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="11" t="str">
-        <f>VLOOKUP(B3,Mansfield!$D$1:$L$18,9,0)</f>
+      <c r="D3" s="11" t="str">
+        <f>VLOOKUP(C3,Mansfield!$D$1:$L$18,9,0)</f>
         <v>Alto 135/160  El 1.6 Combo</v>
       </c>
-      <c r="D3" s="11">
-        <f>COUNTIF($B$2:$B$50,B3)</f>
+      <c r="E3" s="11">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="11" t="str">
-        <f>VLOOKUP(E3,[1]query!$D:$O,4,0)</f>
+      <c r="I3" s="11" t="str">
+        <f>VLOOKUP(F3,[1]query!$D:$O,4,0)</f>
         <v>Maxwell</v>
       </c>
-      <c r="I3" s="14">
+      <c r="J3" s="14">
         <v>12</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="14">
+      <c r="M3" s="14">
         <v>1.6</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="O3" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="13"/>
+      <c r="Q3" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="R3" s="21">
         <v>0.41</v>
       </c>
-      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="11" t="str">
-        <f>VLOOKUP(B4,Mansfield!$D$1:$L$18,9,0)</f>
+      <c r="D4" s="11" t="str">
+        <f>VLOOKUP(C4,Mansfield!$D$1:$L$18,9,0)</f>
         <v>Summit 384/386  ADA 1.28 Combo</v>
       </c>
-      <c r="D4" s="11">
-        <f>COUNTIF($B$2:$B$50,B4)</f>
+      <c r="E4" s="11">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="11" t="str">
-        <f>VLOOKUP(E4,[1]query!$D:$O,4,0)</f>
+      <c r="I4" s="11" t="str">
+        <f>VLOOKUP(F4,[1]query!$D:$O,4,0)</f>
         <v>Viper</v>
       </c>
-      <c r="I4" s="14">
+      <c r="J4" s="14">
         <v>12</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="14">
+      <c r="M4" s="14">
         <v>1.6</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="N4" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="O4" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="13"/>
+      <c r="Q4" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="R4" s="21">
         <v>0.41</v>
       </c>
-      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="11" t="str">
-        <f>VLOOKUP(B5,Mansfield!$D$1:$L$18,9,0)</f>
+      <c r="D5" s="11" t="str">
+        <f>VLOOKUP(C5,Mansfield!$D$1:$L$18,9,0)</f>
         <v>Alto 130/160 RF 1.6 Combo</v>
       </c>
-      <c r="D5" s="11">
-        <f>COUNTIF($B$2:$B$50,B5)</f>
+      <c r="E5" s="11">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="11" t="str">
-        <f>VLOOKUP(E5,[1]query!$D:$O,4,0)</f>
+      <c r="I5" s="11" t="str">
+        <f>VLOOKUP(F5,[1]query!$D:$O,4,0)</f>
         <v>Reliant</v>
       </c>
-      <c r="I5" s="14">
+      <c r="J5" s="14">
         <v>12</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="14">
+      <c r="M5" s="14">
         <v>1.28</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="N5" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="O5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="13"/>
+      <c r="Q5" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="R5" s="21">
         <v>0.34</v>
       </c>
-      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="11" t="str">
-        <f>VLOOKUP(B6,Mansfield!$D$1:$L$18,9,0)</f>
+      <c r="D6" s="11" t="str">
+        <f>VLOOKUP(C6,Mansfield!$D$1:$L$18,9,0)</f>
         <v>Alto 135/160  El 1.6 Combo</v>
       </c>
-      <c r="D6" s="11">
-        <f>COUNTIF($B$2:$B$50,B6)</f>
+      <c r="E6" s="11">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="G6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="11" t="str">
-        <f>VLOOKUP(E6,[1]query!$D:$O,4,0)</f>
+      <c r="I6" s="11" t="str">
+        <f>VLOOKUP(F6,[1]query!$D:$O,4,0)</f>
         <v>Reliant</v>
       </c>
-      <c r="I6" s="14">
+      <c r="J6" s="14">
         <v>12</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="14">
+      <c r="M6" s="14">
         <v>1.28</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="N6" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="O6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="R6" s="21">
         <v>0.34</v>
       </c>
-      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="11" t="str">
-        <f>VLOOKUP(B7,Mansfield!$D$1:$L$18,9,0)</f>
+      <c r="D7" s="11" t="str">
+        <f>VLOOKUP(C7,Mansfield!$D$1:$L$18,9,0)</f>
         <v>Alto 137/160 ADA EL 1.6 Combo</v>
       </c>
-      <c r="D7" s="11">
-        <f>COUNTIF($B$2:$B$50,B7)</f>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="11" t="str">
-        <f>VLOOKUP(E7,[1]query!$D:$O,4,0)</f>
+      <c r="I7" s="11" t="str">
+        <f>VLOOKUP(F7,[1]query!$D:$O,4,0)</f>
         <v>Reliant</v>
       </c>
-      <c r="I7" s="14">
+      <c r="J7" s="14">
         <v>12</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="L7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="14">
+      <c r="M7" s="14">
         <v>1.28</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="N7" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="O7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="R7" s="21">
         <v>0.34</v>
       </c>
-      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="11" t="str">
-        <f>VLOOKUP(B8,Mansfield!$D$1:$L$18,9,0)</f>
+      <c r="D8" s="11" t="str">
+        <f>VLOOKUP(C8,Mansfield!$D$1:$L$18,9,0)</f>
         <v>QUANTUM 148123 1.6 EL  SMARTHEIGHT Combo</v>
       </c>
-      <c r="D8" s="11">
-        <f>COUNTIF($B$2:$B$50,B8)</f>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="G8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="11" t="str">
-        <f>VLOOKUP(E8,[1]query!$D:$O,4,0)</f>
+      <c r="I8" s="11" t="str">
+        <f>VLOOKUP(F8,[1]query!$D:$O,4,0)</f>
         <v>Ultra Flush</v>
       </c>
-      <c r="I8" s="14">
+      <c r="J8" s="14">
         <v>12</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="14">
+      <c r="M8" s="14">
         <v>1.6</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="N8" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="O8" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="O8" s="13"/>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="13"/>
+      <c r="Q8" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="R8" s="21">
         <v>0.34</v>
       </c>
-      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="11">
+      <c r="C9" s="11">
         <v>123010000</v>
       </c>
-      <c r="C9" s="11" t="str">
-        <f>VLOOKUP(B9,Mansfield!$D$1:$L$18,9,0)</f>
+      <c r="D9" s="11" t="str">
+        <f>VLOOKUP(C9,Mansfield!$D$1:$L$18,9,0)</f>
         <v xml:space="preserve">Quantum 1,6 tank </v>
       </c>
-      <c r="D9" s="11">
-        <f>COUNTIF($B$2:$B$50,B9)</f>
+      <c r="E9" s="11">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="11" t="str">
-        <f>VLOOKUP(E9,[1]query!$D:$O,4,0)</f>
+      <c r="I9" s="11" t="str">
+        <f>VLOOKUP(F9,[1]query!$D:$O,4,0)</f>
         <v>Ultra Flush</v>
       </c>
-      <c r="I9" s="14">
+      <c r="J9" s="14">
         <v>12</v>
       </c>
-      <c r="J9" s="11"/>
       <c r="K9" s="11"/>
-      <c r="L9" s="14">
+      <c r="L9" s="11"/>
+      <c r="M9" s="14">
         <v>1.6</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="N9" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="13"/>
+      <c r="P9" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="Q9" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="R9" s="21">
         <v>0.41</v>
       </c>
-      <c r="R9" s="11">
+      <c r="S9" s="11">
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="C10" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="26" t="str">
-        <f>VLOOKUP(B10,Mansfield!$D$1:$L$18,9,0)</f>
+      <c r="D10" s="26" t="str">
+        <f>VLOOKUP(C10,Mansfield!$D$1:$L$18,9,0)</f>
         <v>ALTO TANK 3173 CTL 1.28</v>
       </c>
-      <c r="D10" s="26">
-        <f>COUNTIF($B$2:$B$50,B10)</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F10" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="G10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="H10" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="I10" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="28">
+      <c r="J10" s="28">
         <v>12</v>
       </c>
-      <c r="J10" s="26"/>
       <c r="K10" s="26"/>
-      <c r="L10" s="28">
+      <c r="L10" s="26"/>
+      <c r="M10" s="28">
         <v>1.28</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="N10" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26" t="s">
+      <c r="O10" s="26"/>
+      <c r="P10" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="P10" s="26" t="s">
+      <c r="Q10" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="Q10" s="29">
+      <c r="R10" s="29">
         <v>0.41</v>
       </c>
-      <c r="R10" s="26">
+      <c r="S10" s="26">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="31">
+      <c r="C11" s="31">
         <v>160010007</v>
       </c>
-      <c r="C11" s="26" t="str">
-        <f>VLOOKUP(B11,Mansfield!$D$1:$L$18,9,0)</f>
+      <c r="D11" s="26" t="str">
+        <f>VLOOKUP(C11,Mansfield!$D$1:$L$18,9,0)</f>
         <v>ALTO TANK 160 1.6</v>
       </c>
-      <c r="D11" s="26">
-        <f>COUNTIF($B$2:$B$50,B11)</f>
+      <c r="E11" s="26">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="F11" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="G11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="H11" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="I11" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="28">
+      <c r="J11" s="28">
         <v>12</v>
       </c>
-      <c r="J11" s="26"/>
       <c r="K11" s="26"/>
-      <c r="L11" s="28">
+      <c r="L11" s="26"/>
+      <c r="M11" s="28">
         <v>1.6</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="N11" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26" t="s">
+      <c r="O11" s="26"/>
+      <c r="P11" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="P11" s="26" t="s">
+      <c r="Q11" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="Q11" s="29">
+      <c r="R11" s="29">
         <v>0.41</v>
       </c>
-      <c r="R11" s="26">
+      <c r="S11" s="26">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B12" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="C12" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="26" t="str">
-        <f>VLOOKUP(B12,Mansfield!$D$1:$L$18,9,0)</f>
+      <c r="D12" s="26" t="str">
+        <f>VLOOKUP(C12,Mansfield!$D$1:$L$18,9,0)</f>
         <v>ALTO BOWL 137 1.6</v>
       </c>
-      <c r="D12" s="26">
-        <f>COUNTIF($B$2:$B$50,B12)</f>
+      <c r="E12" s="26">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="F12" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="G12" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="H12" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="I12" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="28">
+      <c r="J12" s="28">
         <v>12</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="K12" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="26" t="s">
+      <c r="L12" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="L12" s="28">
+      <c r="M12" s="28">
         <v>1.28</v>
       </c>
-      <c r="M12" s="26" t="s">
+      <c r="N12" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="N12" s="26"/>
-      <c r="O12" s="32" t="s">
+      <c r="O12" s="26"/>
+      <c r="P12" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="P12" s="26" t="s">
+      <c r="Q12" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="Q12" s="29">
+      <c r="R12" s="29">
         <v>0.41</v>
       </c>
-      <c r="R12" s="26">
+      <c r="S12" s="26">
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+    <row r="13" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="C13" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="26" t="str">
-        <f>VLOOKUP(B13,Mansfield!$D$1:$L$18,9,0)</f>
+      <c r="D13" s="26" t="str">
+        <f>VLOOKUP(C13,Mansfield!$D$1:$L$18,9,0)</f>
         <v>ALTO BOWL 135 EL 1.6</v>
       </c>
-      <c r="D13" s="26">
-        <f>COUNTIF($B$2:$B$50,B13)</f>
+      <c r="E13" s="26">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="F13" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="G13" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="H13" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="I13" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="28">
+      <c r="J13" s="28">
         <v>12</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="K13" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="28" t="s">
+      <c r="L13" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="28">
+      <c r="M13" s="28">
         <v>1.28</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="N13" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26" t="s">
+      <c r="O13" s="26"/>
+      <c r="P13" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="P13" s="26" t="s">
+      <c r="Q13" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="Q13" s="29">
+      <c r="R13" s="29">
         <v>0.41</v>
       </c>
-      <c r="R13" s="26">
+      <c r="S13" s="26">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+    <row r="14" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B14" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="C14" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="26" t="str">
-        <f>VLOOKUP(B14,Mansfield!$D$1:$L$18,9,0)</f>
+      <c r="D14" s="26" t="str">
+        <f>VLOOKUP(C14,Mansfield!$D$1:$L$18,9,0)</f>
         <v>ALTO BOWL 130 1.6</v>
       </c>
-      <c r="D14" s="26">
-        <f>COUNTIF($B$2:$B$50,B14)</f>
+      <c r="E14" s="26">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="F14" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="G14" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="H14" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="I14" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="28">
+      <c r="J14" s="28">
         <v>12</v>
       </c>
-      <c r="J14" s="28" t="s">
+      <c r="K14" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="28" t="s">
+      <c r="L14" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="L14" s="28">
+      <c r="M14" s="28">
         <v>1.6</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="N14" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26" t="s">
+      <c r="O14" s="26"/>
+      <c r="P14" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="P14" s="26" t="s">
+      <c r="Q14" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="Q14" s="29">
+      <c r="R14" s="29">
         <v>0.41</v>
       </c>
-      <c r="R14" s="26">
+      <c r="S14" s="26">
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B15" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="C15" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="26" t="str">
-        <f>VLOOKUP(B15,Mansfield!$D$1:$L$18,9,0)</f>
+      <c r="D15" s="26" t="str">
+        <f>VLOOKUP(C15,Mansfield!$D$1:$L$18,9,0)</f>
         <v xml:space="preserve">SUMMIT TANK 386      </v>
       </c>
-      <c r="D15" s="26">
-        <f>COUNTIF($B$2:$B$50,B15)</f>
+      <c r="E15" s="26">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="F15" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="G15" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="H15" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="I15" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="28"/>
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
-      <c r="L15" s="28">
+      <c r="L15" s="28"/>
+      <c r="M15" s="28">
         <v>1.6</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="N15" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26" t="s">
+      <c r="O15" s="26"/>
+      <c r="P15" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="P15" s="26" t="s">
+      <c r="Q15" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="Q15" s="29">
+      <c r="R15" s="29">
         <v>0.41</v>
       </c>
-      <c r="R15" s="26">
+      <c r="S15" s="26">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="11" t="str">
-        <f>VLOOKUP(B16,Mansfield!$D$1:$L$18,9,0)</f>
+      <c r="D16" s="11" t="str">
+        <f>VLOOKUP(C16,Mansfield!$D$1:$L$18,9,0)</f>
         <v>QUANTUM 148123 1.6 EL  SMARTHEIGHT Combo</v>
       </c>
-      <c r="D16" s="11">
-        <f>COUNTIF($B$2:$B$50,B16)</f>
+      <c r="E16" s="11">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E16" s="12">
+      <c r="F16" s="12">
         <v>2467016</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="G16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="H16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="I16" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="11">
+      <c r="J16" s="11">
         <v>12</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="K16" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="L16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L16" s="11">
+      <c r="M16" s="11">
         <v>1.6</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="N16" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="N16" s="13" t="s">
+      <c r="O16" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="O16" s="13"/>
-      <c r="P16" s="11" t="s">
+      <c r="P16" s="13"/>
+      <c r="Q16" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="Q16" s="21">
+      <c r="R16" s="21">
         <v>0.34</v>
       </c>
-      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="11">
+      <c r="C17" s="11">
         <v>123010000</v>
       </c>
-      <c r="C17" s="11" t="str">
-        <f>VLOOKUP(B17,Mansfield!$D$1:$L$18,9,0)</f>
+      <c r="D17" s="11" t="str">
+        <f>VLOOKUP(C17,Mansfield!$D$1:$L$18,9,0)</f>
         <v xml:space="preserve">Quantum 1,6 tank </v>
       </c>
-      <c r="D17" s="11">
-        <f>COUNTIF($B$2:$B$50,B17)</f>
+      <c r="E17" s="11">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E17" s="16">
+      <c r="F17" s="16">
         <v>4142016</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="G17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="H17" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="I17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="11">
+      <c r="J17" s="15"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="11">
         <v>1.6</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="N17" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="N17" s="13" t="s">
+      <c r="O17" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="O17" s="13"/>
-      <c r="P17" s="11" t="s">
+      <c r="P17" s="13"/>
+      <c r="Q17" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="Q17" s="21">
+      <c r="R17" s="21">
         <v>0.34</v>
       </c>
-      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="11" t="str">
-        <f>VLOOKUP(B18,Mansfield!$D$1:$L$18,9,0)</f>
+      <c r="D18" s="11" t="str">
+        <f>VLOOKUP(C18,Mansfield!$D$1:$L$18,9,0)</f>
         <v>COMMERCIAL BOWL 1319 EL ADA  1.28</v>
       </c>
-      <c r="D18" s="11">
-        <f>COUNTIF($B$2:$B$50,B18)</f>
+      <c r="E18" s="11">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E18" s="16">
+      <c r="F18" s="16">
         <v>3043001</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="G18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="I18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="14">
+      <c r="J18" s="14">
         <v>12</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="K18" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="L18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="M18" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="N18" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="O18" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="Q18" s="21">
+      <c r="R18" s="21">
         <v>0.34</v>
       </c>
-      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="15">
+      <c r="C19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="10" t="str">
+        <f>VLOOKUP(C19,Mansfield!$D$1:$L$18,9,0)</f>
+        <v>ALTO TANK 3173 CTL 1.28</v>
+      </c>
+      <c r="E19" s="10">
+        <f>COUNTIF($B$21:$B$21,C19)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="49"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="50">
+        <v>1.28</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="R19" s="51">
+        <v>0.34</v>
+      </c>
+      <c r="S19" s="10"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="15">
         <v>160010007</v>
       </c>
-      <c r="C19" s="11" t="str">
-        <f>VLOOKUP(B19,Mansfield!$D$1:$L$18,9,0)</f>
+      <c r="D20" s="11" t="str">
+        <f>VLOOKUP(C20,Mansfield!$D$1:$L$18,9,0)</f>
         <v>ALTO TANK 160 1.6</v>
       </c>
-      <c r="D19" s="11">
-        <f>COUNTIF($B$2:$B$50,B19)</f>
+      <c r="E20" s="11">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="F20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="G20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="H20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="I20" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="14">
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="14">
         <v>1.6</v>
       </c>
-      <c r="M19" s="11" t="s">
+      <c r="N20" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="N19" s="13" t="s">
+      <c r="O20" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11" t="s">
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="Q19" s="21">
+      <c r="R20" s="21">
         <v>0.34</v>
       </c>
-      <c r="R19" s="11"/>
+      <c r="S20" s="11"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="11" t="str">
-        <f>VLOOKUP(B20,Mansfield!$D$1:$L$18,9,0)</f>
+      <c r="D21" s="11" t="str">
+        <f>VLOOKUP(C21,Mansfield!$D$1:$L$18,9,0)</f>
         <v>ALTO BOWL 137 1.6</v>
       </c>
-      <c r="D20" s="11">
-        <f>COUNTIF($B$2:$B$50,B20)</f>
+      <c r="E21" s="11">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="F21" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="G21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="H21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="I21" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="14">
+      <c r="J21" s="14">
         <v>12</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="K21" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="L21" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L20" s="17">
+      <c r="M21" s="17">
         <v>1.28</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="N21" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="O21" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11" t="s">
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="Q20" s="21">
+      <c r="R21" s="21">
         <v>0.34</v>
       </c>
-      <c r="R20" s="11"/>
+      <c r="S21" s="11"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="11" t="str">
-        <f>VLOOKUP(B21,Mansfield!$D$1:$L$18,9,0)</f>
+      <c r="D22" s="11" t="str">
+        <f>VLOOKUP(C22,Mansfield!$D$1:$L$18,9,0)</f>
         <v>ALTO BOWL 135 EL 1.6</v>
       </c>
-      <c r="D21" s="11">
-        <f>COUNTIF($B$2:$B$50,B21)</f>
+      <c r="E22" s="11">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="F22" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="G22" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="H22" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="I22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="14">
+      <c r="J22" s="14">
         <v>12</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="K22" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="L22" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L21" s="17">
+      <c r="M22" s="17">
         <v>1.28</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="N22" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="O22" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11" t="s">
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="Q21" s="21">
+      <c r="R22" s="21">
         <v>0.34</v>
       </c>
-      <c r="R21" s="11"/>
+      <c r="S22" s="11"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="11" t="str">
-        <f>VLOOKUP(B22,Mansfield!$D$1:$L$18,9,0)</f>
+      <c r="D23" s="11" t="str">
+        <f>VLOOKUP(C23,Mansfield!$D$1:$L$18,9,0)</f>
         <v>ALTO BOWL 130 1.6</v>
       </c>
-      <c r="D22" s="11">
-        <f>COUNTIF($B$2:$B$50,B22)</f>
+      <c r="E23" s="11">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="F23" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="G23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="I23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="14">
+      <c r="J23" s="14">
         <v>12</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="K23" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="L23" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L22" s="14">
+      <c r="M23" s="14">
         <v>1.28</v>
       </c>
-      <c r="M22" s="11" t="s">
+      <c r="N23" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="N22" s="11" t="s">
+      <c r="O23" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11" t="s">
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="Q22" s="21">
+      <c r="R23" s="21">
         <v>0.34</v>
       </c>
-      <c r="R22" s="11"/>
+      <c r="S23" s="11"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="11" t="str">
-        <f>VLOOKUP(B23,Mansfield!$D$1:$L$18,9,0)</f>
+      <c r="D24" s="11" t="str">
+        <f>VLOOKUP(C24,Mansfield!$D$1:$L$18,9,0)</f>
         <v xml:space="preserve">SUMMIT TANK 386      </v>
       </c>
-      <c r="D23" s="11">
-        <f>COUNTIF($B$2:$B$50,B23)</f>
+      <c r="E24" s="11">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="F24" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="G24" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="H24" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="I24" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="14">
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="14">
         <v>1.6</v>
       </c>
-      <c r="M23" s="11" t="s">
+      <c r="N24" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="N23" s="11" t="s">
+      <c r="O24" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11" t="s">
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="Q23" s="21">
+      <c r="R24" s="21">
         <v>0.34</v>
       </c>
-      <c r="R23" s="11"/>
+      <c r="S24" s="11"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="11" t="str">
-        <f>VLOOKUP(B24,Mansfield!$D$1:$L$18,9,0)</f>
+      <c r="D25" s="11" t="str">
+        <f>VLOOKUP(C25,Mansfield!$D$1:$L$18,9,0)</f>
         <v>COMMERCIAL BOWL 1319 EL ADA  1.28</v>
       </c>
-      <c r="D24" s="11">
-        <f>COUNTIF($B$2:$B$50,B24)</f>
+      <c r="E25" s="11">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="F25" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="G25" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="H25" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="I25" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="14">
+      <c r="J25" s="14">
         <v>10</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="K25" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="L25" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L24" s="14">
+      <c r="M25" s="14">
         <v>1.28</v>
       </c>
-      <c r="M24" s="11" t="s">
+      <c r="N25" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="N24" s="11" t="s">
+      <c r="O25" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11" t="s">
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="Q24" s="21">
+      <c r="R25" s="21">
         <v>0.41</v>
       </c>
-      <c r="R24" s="11"/>
+      <c r="S25" s="11"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="11" t="str">
-        <f>VLOOKUP(B25,Mansfield!$D$1:$L$18,9,0)</f>
+      <c r="D26" s="11" t="str">
+        <f>VLOOKUP(C26,Mansfield!$D$1:$L$18,9,0)</f>
         <v>Alto 137/160 ADA EL 1.6 Combo</v>
       </c>
-      <c r="D25" s="11">
-        <f>COUNTIF($B$2:$B$50,B25)</f>
+      <c r="E26" s="11">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="F26" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="G26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="H26" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="I26" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I25" s="14">
+      <c r="J26" s="14">
         <v>12</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="K26" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="L26" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L25" s="14">
+      <c r="M26" s="14">
         <v>1.28</v>
       </c>
-      <c r="M25" s="11" t="s">
+      <c r="N26" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="N25" s="11" t="s">
+      <c r="O26" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11" t="s">
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="Q25" s="21">
+      <c r="R26" s="21">
         <v>0.41</v>
       </c>
-      <c r="R25" s="11"/>
+      <c r="S26" s="11"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="C26" s="11" t="str">
-        <f>VLOOKUP(B26,Mansfield!$D$1:$L$18,9,0)</f>
+      <c r="D27" s="11" t="str">
+        <f>VLOOKUP(C27,Mansfield!$D$1:$L$18,9,0)</f>
         <v>HET 3489-V El 1.28 Combo </v>
       </c>
-      <c r="D26" s="11">
-        <f>COUNTIF($B$2:$B$50,B26)</f>
+      <c r="E27" s="11">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="F27" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="G27" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="H27" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="I27" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="14">
+      <c r="J27" s="14">
         <v>12</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="K27" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="L27" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L26" s="14">
+      <c r="M27" s="14">
         <v>1.28</v>
       </c>
-      <c r="M26" s="11" t="s">
+      <c r="N27" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="N26" s="11" t="s">
+      <c r="O27" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11" t="s">
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="Q26" s="21">
+      <c r="R27" s="21">
         <v>0.41</v>
       </c>
-      <c r="R26" s="11"/>
+      <c r="S27" s="11"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="8" t="str">
-        <f>VLOOKUP(B27,Mansfield!$D$1:$L$47,9,0)</f>
+      <c r="D28" s="8" t="str">
+        <f>VLOOKUP(C28,Mansfield!$D$1:$L$47,9,0)</f>
         <v>237 Lav</v>
       </c>
-      <c r="D27" s="8">
-        <f>COUNTIF($B$2:$B$50,B27)</f>
+      <c r="E28" s="8">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="N27" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="O27" s="9"/>
-      <c r="P27" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q27" s="22">
-        <v>0.41</v>
-      </c>
-      <c r="R27" s="3"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="8" t="str">
-        <f>VLOOKUP(B28,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>217 Lav</v>
-      </c>
-      <c r="D28" s="8">
-        <f>COUNTIF($B$2:$B$50,B28)</f>
-        <v>2</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="3" t="s">
+      <c r="M28" s="3"/>
+      <c r="N28" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="R28" s="22">
+        <v>0.41</v>
+      </c>
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="8" t="str">
+        <f>VLOOKUP(C29,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>217 Lav</v>
+      </c>
+      <c r="E29" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="N28" s="9" t="s">
+      <c r="O29" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="O28" s="9"/>
-      <c r="P28" s="3" t="s">
+      <c r="P29" s="9"/>
+      <c r="Q29" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="Q28" s="22">
+      <c r="R29" s="22">
         <v>0.41</v>
       </c>
-      <c r="R28" s="3"/>
+      <c r="S29" s="3"/>
     </row>
-    <row r="29" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+    <row r="30" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="C30" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="8" t="str">
-        <f>VLOOKUP(B29,Mansfield!$D$1:$L$47,9,0)</f>
+      <c r="D30" s="8" t="str">
+        <f>VLOOKUP(C30,Mansfield!$D$1:$L$47,9,0)</f>
         <v>292 Lav</v>
       </c>
-      <c r="D29" s="8">
-        <f>COUNTIF($B$2:$B$50,B29)</f>
+      <c r="E30" s="8">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="F30" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="G30" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="H30" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8" t="s">
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="N29" s="8" t="s">
+      <c r="O30" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8" t="s">
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="Q29" s="45">
+      <c r="R30" s="45">
         <v>0.41</v>
       </c>
-      <c r="R29" s="8"/>
+      <c r="S30" s="8"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="8" t="str">
-        <f>VLOOKUP(B30,Mansfield!$D$1:$L$47,9,0)</f>
+      <c r="D31" s="8" t="str">
+        <f>VLOOKUP(C31,Mansfield!$D$1:$L$47,9,0)</f>
         <v>328 4" LAV</v>
       </c>
-      <c r="D30" s="8">
-        <f>COUNTIF($B$2:$B$50,B30)</f>
+      <c r="E31" s="8">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="H31" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q30" s="22">
-        <v>0.41</v>
-      </c>
-      <c r="R30" s="3">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" s="8" t="str">
-        <f>VLOOKUP(B31,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>218 COVINGTON LAV</v>
-      </c>
-      <c r="D31" s="8">
-        <f>COUNTIF($B$2:$B$50,B31)</f>
-        <v>2</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="N31" s="9" t="s">
-        <v>226</v>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="O31" s="9"/>
-      <c r="P31" s="3" t="s">
+      <c r="P31" s="9"/>
+      <c r="Q31" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="Q31" s="22">
+      <c r="R31" s="22">
         <v>0.41</v>
       </c>
-      <c r="R31" s="3"/>
+      <c r="S31" s="3">
+        <v>592</v>
+      </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C32" s="8" t="str">
-        <f>VLOOKUP(B32,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>348 4" LAV</v>
-      </c>
-      <c r="D32" s="8">
-        <f>COUNTIF($B$2:$B$50,B32)</f>
+      <c r="C32" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="8" t="str">
+        <f>VLOOKUP(C32,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>218 COVINGTON LAV</v>
+      </c>
+      <c r="E32" s="8">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>290</v>
-      </c>
       <c r="F32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="H32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>287</v>
+      </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="N32" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="O32" s="9"/>
-      <c r="P32" s="3" t="s">
+      <c r="M32" s="3"/>
+      <c r="N32" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="Q32" s="22">
+      <c r="R32" s="22">
         <v>0.41</v>
       </c>
-      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C33" s="8" t="str">
-        <f>VLOOKUP(B33,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>272 4" LAV</v>
-      </c>
-      <c r="D33" s="8">
-        <f>COUNTIF($B$2:$B$50,B33)</f>
+      <c r="C33" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="8" t="str">
+        <f>VLOOKUP(C33,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>348 4" LAV</v>
+      </c>
+      <c r="E33" s="8">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>291</v>
-      </c>
       <c r="F33" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="3" t="s">
-        <v>170</v>
-      </c>
+      <c r="M33" s="3"/>
       <c r="N33" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="Q33" s="22">
+      <c r="R33" s="22">
         <v>0.41</v>
       </c>
-      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C34" s="8" t="str">
-        <f>VLOOKUP(B34,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>251 4" LAV</v>
-      </c>
-      <c r="D34" s="8">
-        <f>COUNTIF($B$2:$B$50,B34)</f>
+      <c r="C34" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="8" t="str">
+        <f>VLOOKUP(C34,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>272 4" LAV</v>
+      </c>
+      <c r="E34" s="8">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="F34" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="H34" s="3"/>
+      <c r="H34" s="3" t="s">
+        <v>289</v>
+      </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
-      <c r="M34" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="N34" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="O34" s="9"/>
-      <c r="P34" s="3" t="s">
+      <c r="M34" s="3"/>
+      <c r="N34" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="Q34" s="22">
+      <c r="R34" s="22">
         <v>0.41</v>
       </c>
-      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" s="8" t="str">
-        <f>VLOOKUP(B35,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>234 BRENTWOOD LAV</v>
-      </c>
-      <c r="D35" s="8">
-        <f>COUNTIF($B$2:$B$50,B35)</f>
+      <c r="C35" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="8" t="str">
+        <f>VLOOKUP(C35,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>251 4" LAV</v>
+      </c>
+      <c r="E35" s="8">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="F35" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="H35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>286</v>
+      </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
-      <c r="M35" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="N35" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="O35" s="9"/>
-      <c r="P35" s="3" t="s">
+      <c r="M35" s="3"/>
+      <c r="N35" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="Q35" s="22">
+      <c r="R35" s="22">
         <v>0.41</v>
       </c>
-      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C36" s="8" t="str">
-        <f>VLOOKUP(B36,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>328 8" LAV</v>
-      </c>
-      <c r="D36" s="8">
-        <f>COUNTIF($B$2:$B$50,B36)</f>
+      <c r="C36" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="8" t="str">
+        <f>VLOOKUP(C36,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>234 BRENTWOOD LAV</v>
+      </c>
+      <c r="E36" s="8">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>295</v>
-      </c>
       <c r="F36" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="H36" s="3"/>
+      <c r="H36" s="3" t="s">
+        <v>287</v>
+      </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
-      <c r="M36" s="3" t="s">
+      <c r="M36" s="3"/>
+      <c r="N36" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="R36" s="22">
+        <v>0.41</v>
+      </c>
+      <c r="S36" s="3"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="8" t="str">
+        <f>VLOOKUP(C37,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>328 8" LAV</v>
+      </c>
+      <c r="E37" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="N36" s="9" t="s">
+      <c r="O37" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="O36" s="9"/>
-      <c r="P36" s="3" t="s">
+      <c r="P37" s="9"/>
+      <c r="Q37" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="Q36" s="22">
+      <c r="R37" s="22">
         <v>0.41</v>
       </c>
-      <c r="R36" s="3"/>
+      <c r="S37" s="3"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B38" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="C38" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="18" t="str">
-        <f>VLOOKUP(B37,Mansfield!$D$1:$L$47,9,0)</f>
+      <c r="D38" s="18" t="str">
+        <f>VLOOKUP(C38,Mansfield!$D$1:$L$47,9,0)</f>
         <v>237 Lav</v>
       </c>
-      <c r="D37" s="18">
-        <f>COUNTIF($B$2:$B$50,B37)</f>
+      <c r="E38" s="18">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="F38" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="G38" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="N37" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q37" s="23">
-        <v>0.34</v>
-      </c>
-      <c r="R37" s="3"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" s="18" t="str">
-        <f>VLOOKUP(B38,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>217 Lav</v>
-      </c>
-      <c r="D38" s="18">
-        <f>COUNTIF($B$2:$B$50,B38)</f>
-        <v>2</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="G38" s="18"/>
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
-      <c r="M38" s="18" t="s">
-        <v>156</v>
-      </c>
+      <c r="M38" s="18"/>
       <c r="N38" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="O38" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="Q38" s="23">
+      <c r="R38" s="23">
         <v>0.34</v>
       </c>
-      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B39" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C39" s="18" t="str">
-        <f>VLOOKUP(B39,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>292 Lav</v>
-      </c>
-      <c r="D39" s="18">
-        <f>COUNTIF($B$2:$B$50,B39)</f>
+      <c r="C39" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="18" t="str">
+        <f>VLOOKUP(C39,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>217 Lav</v>
+      </c>
+      <c r="E39" s="18">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E39" s="18" t="s">
-        <v>149</v>
-      </c>
       <c r="F39" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G39" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G39" s="18"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
-      <c r="M39" s="18" t="s">
-        <v>157</v>
-      </c>
+      <c r="M39" s="18"/>
       <c r="N39" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="O39" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="Q39" s="23">
+      <c r="R39" s="23">
         <v>0.34</v>
       </c>
-      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C40" s="18" t="str">
-        <f>VLOOKUP(B40,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>328 4" LAV</v>
-      </c>
-      <c r="D40" s="18">
-        <f>COUNTIF($B$2:$B$50,B40)</f>
+      <c r="C40" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="18" t="str">
+        <f>VLOOKUP(C40,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>292 Lav</v>
+      </c>
+      <c r="E40" s="18">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E40" s="19" t="s">
-        <v>178</v>
-      </c>
       <c r="F40" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G40" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G40" s="18"/>
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
       <c r="K40" s="18"/>
       <c r="L40" s="18"/>
-      <c r="M40" s="18" t="s">
-        <v>158</v>
-      </c>
+      <c r="M40" s="18"/>
       <c r="N40" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="O40" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="Q40" s="23">
+      <c r="R40" s="23">
         <v>0.34</v>
       </c>
-      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B41" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" s="18" t="str">
-        <f>VLOOKUP(B41,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>218 COVINGTON LAV</v>
-      </c>
-      <c r="D41" s="18">
-        <f>COUNTIF($B$2:$B$50,B41)</f>
+      <c r="C41" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="18" t="str">
+        <f>VLOOKUP(C41,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>328 4" LAV</v>
+      </c>
+      <c r="E41" s="18">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E41" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G41" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G41" s="18"/>
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
       <c r="K41" s="18"/>
       <c r="L41" s="18"/>
-      <c r="M41" s="18" t="s">
-        <v>159</v>
-      </c>
+      <c r="M41" s="18"/>
       <c r="N41" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="O41" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="Q41" s="23">
+      <c r="R41" s="23">
         <v>0.34</v>
       </c>
-      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B42" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C42" s="18" t="str">
-        <f>VLOOKUP(B42,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>348 4" LAV</v>
-      </c>
-      <c r="D42" s="18">
-        <f>COUNTIF($B$2:$B$50,B42)</f>
+      <c r="C42" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="18" t="str">
+        <f>VLOOKUP(C42,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>218 COVINGTON LAV</v>
+      </c>
+      <c r="E42" s="18">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E42" s="18" t="s">
-        <v>151</v>
-      </c>
       <c r="F42" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G42" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G42" s="18"/>
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
       <c r="K42" s="18"/>
       <c r="L42" s="18"/>
-      <c r="M42" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="N42" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18" t="s">
+      <c r="M42" s="18"/>
+      <c r="N42" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O42" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="Q42" s="23">
+      <c r="R42" s="23">
         <v>0.34</v>
       </c>
-      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C43" s="18" t="str">
-        <f>VLOOKUP(B43,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>272 4" LAV</v>
-      </c>
-      <c r="D43" s="18">
-        <f>COUNTIF($B$2:$B$50,B43)</f>
+      <c r="C43" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="18" t="str">
+        <f>VLOOKUP(C43,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>348 4" LAV</v>
+      </c>
+      <c r="E43" s="18">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E43" s="18" t="s">
-        <v>152</v>
-      </c>
       <c r="F43" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G43" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G43" s="18"/>
       <c r="H43" s="18"/>
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
       <c r="K43" s="18"/>
       <c r="L43" s="18"/>
-      <c r="M43" s="18" t="s">
-        <v>161</v>
-      </c>
+      <c r="M43" s="18"/>
       <c r="N43" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="O43" s="18"/>
-      <c r="P43" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="O43" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="Q43" s="23">
+      <c r="R43" s="23">
         <v>0.34</v>
       </c>
-      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B44" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C44" s="18" t="str">
-        <f>VLOOKUP(B44,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>251 4" LAV</v>
-      </c>
-      <c r="D44" s="18">
-        <f>COUNTIF($B$2:$B$50,B44)</f>
+      <c r="C44" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="18" t="str">
+        <f>VLOOKUP(C44,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>272 4" LAV</v>
+      </c>
+      <c r="E44" s="18">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E44" s="18" t="s">
-        <v>147</v>
-      </c>
       <c r="F44" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G44" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G44" s="18"/>
       <c r="H44" s="18"/>
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
       <c r="K44" s="18"/>
       <c r="L44" s="18"/>
-      <c r="M44" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="N44" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="O44" s="20"/>
-      <c r="P44" s="18" t="s">
+      <c r="M44" s="18"/>
+      <c r="N44" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="O44" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="Q44" s="23">
+      <c r="R44" s="23">
         <v>0.34</v>
       </c>
-      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B45" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" s="18" t="str">
-        <f>VLOOKUP(B45,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>234 BRENTWOOD LAV</v>
-      </c>
-      <c r="D45" s="18">
-        <f>COUNTIF($B$2:$B$50,B45)</f>
+      <c r="C45" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="18" t="str">
+        <f>VLOOKUP(C45,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>251 4" LAV</v>
+      </c>
+      <c r="E45" s="18">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E45" s="18" t="s">
-        <v>153</v>
-      </c>
       <c r="F45" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G45" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G45" s="18"/>
       <c r="H45" s="18"/>
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
-      <c r="M45" s="18" t="s">
-        <v>162</v>
-      </c>
+      <c r="M45" s="18"/>
       <c r="N45" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="O45" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="Q45" s="23">
+      <c r="R45" s="23">
         <v>0.34</v>
       </c>
-      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" s="18" t="str">
-        <f>VLOOKUP(B46,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>328 8" LAV</v>
-      </c>
-      <c r="D46" s="18">
-        <f>COUNTIF($B$2:$B$50,B46)</f>
+      <c r="C46" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="18" t="str">
+        <f>VLOOKUP(C46,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>234 BRENTWOOD LAV</v>
+      </c>
+      <c r="E46" s="18">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E46" s="18" t="s">
-        <v>154</v>
-      </c>
       <c r="F46" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G46" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G46" s="18"/>
       <c r="H46" s="18"/>
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
       <c r="K46" s="18"/>
       <c r="L46" s="18"/>
-      <c r="M46" s="18" t="s">
+      <c r="M46" s="18"/>
+      <c r="N46" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="O46" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="R46" s="23">
+        <v>0.34</v>
+      </c>
+      <c r="S46" s="3"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="18" t="str">
+        <f>VLOOKUP(C47,Mansfield!$D$1:$L$47,9,0)</f>
+        <v>328 8" LAV</v>
+      </c>
+      <c r="E47" s="18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="N46" s="20" t="s">
+      <c r="O47" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18" t="s">
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="Q46" s="23">
+      <c r="R47" s="23">
         <v>0.34</v>
       </c>
-      <c r="R46" s="3"/>
+      <c r="S47" s="3"/>
     </row>
-    <row r="47" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
+    <row r="48" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B48" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="38">
+      <c r="C48" s="38">
         <v>155010000</v>
       </c>
-      <c r="C47" s="44" t="str">
-        <f>VLOOKUP(B47,Mansfield!$D$1:$L$47,9,0)</f>
+      <c r="D48" s="44" t="str">
+        <f>VLOOKUP(C48,Mansfield!$D$1:$L$47,9,0)</f>
         <v xml:space="preserve">TANK 155 LH QTM 1.28GPF WHT                                                                         </v>
       </c>
-      <c r="D47" s="38">
-        <f>COUNTIF($B$2:$B$50,B47)</f>
+      <c r="E48" s="38">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E47" s="39" t="s">
+      <c r="F48" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="F47" s="38" t="s">
+      <c r="G48" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G47" s="38" t="s">
+      <c r="H48" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="H47" s="38" t="s">
+      <c r="I48" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="I47" s="38" t="s">
+      <c r="J48" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="J47" s="38" t="s">
+      <c r="K48" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="K47" s="38" t="s">
+      <c r="L48" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="L47" s="38" t="s">
+      <c r="M48" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="M47" s="38" t="s">
+      <c r="N48" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="N47" s="38" t="s">
+      <c r="O48" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="O47" s="38" t="s">
+      <c r="P48" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="P47" s="38" t="s">
+      <c r="Q48" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="Q47" s="40">
+      <c r="R48" s="40">
         <v>0.34</v>
       </c>
-      <c r="R47" s="38"/>
+      <c r="S48" s="38"/>
     </row>
-    <row r="48" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="s">
+    <row r="49" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B49" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="C49" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="44" t="str">
-        <f>VLOOKUP(B48,Mansfield!$D$1:$L$47,9,0)</f>
+      <c r="D49" s="44" t="str">
+        <f>VLOOKUP(C49,Mansfield!$D$1:$L$47,9,0)</f>
         <v>Summit 384/386  ADA 1.28 Combo</v>
       </c>
-      <c r="D48" s="38">
-        <f>COUNTIF($B$2:$B$50,B48)</f>
+      <c r="E49" s="38">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E48" s="42" t="s">
+      <c r="F49" s="42" t="s">
         <v>278</v>
       </c>
-      <c r="F48" s="38" t="s">
+      <c r="G49" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="G48" s="38" t="s">
+      <c r="H49" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="H48" s="38" t="s">
+      <c r="I49" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="I48" s="38">
+      <c r="J49" s="38">
         <v>12</v>
       </c>
-      <c r="J48" s="38" t="s">
+      <c r="K49" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="K48" s="38" t="s">
+      <c r="L49" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="L48" s="38">
+      <c r="M49" s="38">
         <v>1.28</v>
       </c>
-      <c r="M48" s="38" t="s">
+      <c r="N49" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="N48" s="43" t="s">
+      <c r="O49" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="O48" s="43" t="s">
+      <c r="P49" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="P48" s="38" t="s">
+      <c r="Q49" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="Q48" s="40">
+      <c r="R49" s="40">
         <v>0.34</v>
       </c>
-      <c r="R48" s="38"/>
+      <c r="S49" s="38"/>
     </row>
-    <row r="49" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="38" t="s">
+    <row r="50" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B50" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="38">
+      <c r="C50" s="38">
         <v>155010000</v>
       </c>
-      <c r="C49" s="44" t="str">
-        <f>VLOOKUP(B49,Mansfield!$D$1:$L$47,9,0)</f>
+      <c r="D50" s="44" t="str">
+        <f>VLOOKUP(C50,Mansfield!$D$1:$L$47,9,0)</f>
         <v xml:space="preserve">TANK 155 LH QTM 1.28GPF WHT                                                                         </v>
       </c>
-      <c r="D49" s="38">
-        <f>COUNTIF($B$2:$B$50,B49)</f>
+      <c r="E50" s="38">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="F50" s="39" t="s">
         <v>284</v>
       </c>
-      <c r="F49" s="38" t="s">
+      <c r="G50" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="38" t="s">
+      <c r="H50" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="H49" s="38" t="s">
+      <c r="I50" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="I49" s="38" t="s">
+      <c r="J50" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="J49" s="38" t="s">
+      <c r="K50" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="K49" s="38" t="s">
+      <c r="L50" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="L49" s="38" t="s">
+      <c r="M50" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="M49" s="38" t="s">
+      <c r="N50" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38" t="s">
+      <c r="O50" s="38"/>
+      <c r="P50" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="P49" s="38" t="s">
+      <c r="Q50" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="Q49" s="40">
+      <c r="R50" s="40">
         <v>0.41</v>
       </c>
-      <c r="R49" s="38">
+      <c r="S50" s="38">
         <v>308</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R49" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}"/>
+  <autoFilter ref="B1:S50" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}"/>
   <hyperlinks>
-    <hyperlink ref="N5" r:id="rId1" xr:uid="{EF7953C9-ED02-4DDB-9445-D95A01E86511}"/>
-    <hyperlink ref="N16" r:id="rId2" xr:uid="{CD91D937-81FC-495B-9B8D-2E8D7673C161}"/>
-    <hyperlink ref="N17" r:id="rId3" xr:uid="{F8CC36D8-B3D6-4CE7-8BB1-39588FC65DFD}"/>
-    <hyperlink ref="N44" r:id="rId4" xr:uid="{E3B9BAE2-78EC-4625-BD19-698C4A48EC97}"/>
-    <hyperlink ref="N3" r:id="rId5" xr:uid="{EF43BBC5-D734-48E3-8E51-41FA4C5BBAAC}"/>
-    <hyperlink ref="N4" r:id="rId6" xr:uid="{22484C09-4856-4889-8D85-F3AB32A71518}"/>
-    <hyperlink ref="N8" r:id="rId7" xr:uid="{6A10DF77-5DF5-4F15-83CF-4EE626A1CEE3}"/>
-    <hyperlink ref="N32" r:id="rId8" xr:uid="{2B8A67F9-2D5C-4A93-9C82-E5B32B266FA4}"/>
-    <hyperlink ref="N34" r:id="rId9" xr:uid="{1515F505-E4F5-43A7-A068-D4C92341112C}"/>
-    <hyperlink ref="N35" r:id="rId10" xr:uid="{1E8E0998-C4EC-48BC-8445-39D26C94D065}"/>
-    <hyperlink ref="N36" r:id="rId11" xr:uid="{6C553BF5-CDFB-415A-8EA1-065521322AC3}"/>
-    <hyperlink ref="O12" r:id="rId12" xr:uid="{B3A4AC13-7BED-45E9-A2E7-413F39FCC9AC}"/>
-    <hyperlink ref="N6" r:id="rId13" xr:uid="{3360E79D-3758-4E75-B584-1F6C54804F8E}"/>
-    <hyperlink ref="N46" r:id="rId14" xr:uid="{0FEA31B0-3DE4-45A4-A8D7-5CAE3AD57EAE}"/>
-    <hyperlink ref="O48" r:id="rId15" xr:uid="{3418ECFB-1A01-4FF7-8F2E-EE819BC0FF76}"/>
-    <hyperlink ref="N28" r:id="rId16" xr:uid="{5FA15A89-8D97-4347-8409-801BF0EB34DA}"/>
-    <hyperlink ref="N27" r:id="rId17" xr:uid="{F37460DF-2564-4429-91B1-6BA15AE0C40D}"/>
-    <hyperlink ref="N31" r:id="rId18" xr:uid="{6D20289D-9F93-42B1-A99D-4583DD5D70FA}"/>
-    <hyperlink ref="N42" r:id="rId19" xr:uid="{23AD542D-23DD-43CE-9D11-54573641EF81}"/>
-    <hyperlink ref="N19" r:id="rId20" display="https://www.americanstandard-us.com/Floor-Standing-Toilets/Colony-16-gpf-60-Lpf-12-Inch-Rough-Tank/BONE-4192A004021" xr:uid="{2DAD8D07-0D2B-4F9B-8144-3DE45BAA9CC2}"/>
+    <hyperlink ref="O5" r:id="rId1" xr:uid="{EF7953C9-ED02-4DDB-9445-D95A01E86511}"/>
+    <hyperlink ref="O16" r:id="rId2" xr:uid="{CD91D937-81FC-495B-9B8D-2E8D7673C161}"/>
+    <hyperlink ref="O17" r:id="rId3" xr:uid="{F8CC36D8-B3D6-4CE7-8BB1-39588FC65DFD}"/>
+    <hyperlink ref="O45" r:id="rId4" xr:uid="{E3B9BAE2-78EC-4625-BD19-698C4A48EC97}"/>
+    <hyperlink ref="O3" r:id="rId5" xr:uid="{EF43BBC5-D734-48E3-8E51-41FA4C5BBAAC}"/>
+    <hyperlink ref="O4" r:id="rId6" xr:uid="{22484C09-4856-4889-8D85-F3AB32A71518}"/>
+    <hyperlink ref="O8" r:id="rId7" xr:uid="{6A10DF77-5DF5-4F15-83CF-4EE626A1CEE3}"/>
+    <hyperlink ref="O33" r:id="rId8" xr:uid="{2B8A67F9-2D5C-4A93-9C82-E5B32B266FA4}"/>
+    <hyperlink ref="O35" r:id="rId9" xr:uid="{1515F505-E4F5-43A7-A068-D4C92341112C}"/>
+    <hyperlink ref="O36" r:id="rId10" xr:uid="{1E8E0998-C4EC-48BC-8445-39D26C94D065}"/>
+    <hyperlink ref="O37" r:id="rId11" xr:uid="{6C553BF5-CDFB-415A-8EA1-065521322AC3}"/>
+    <hyperlink ref="P12" r:id="rId12" xr:uid="{B3A4AC13-7BED-45E9-A2E7-413F39FCC9AC}"/>
+    <hyperlink ref="O6" r:id="rId13" xr:uid="{3360E79D-3758-4E75-B584-1F6C54804F8E}"/>
+    <hyperlink ref="O47" r:id="rId14" xr:uid="{0FEA31B0-3DE4-45A4-A8D7-5CAE3AD57EAE}"/>
+    <hyperlink ref="P49" r:id="rId15" xr:uid="{3418ECFB-1A01-4FF7-8F2E-EE819BC0FF76}"/>
+    <hyperlink ref="O29" r:id="rId16" xr:uid="{5FA15A89-8D97-4347-8409-801BF0EB34DA}"/>
+    <hyperlink ref="O28" r:id="rId17" xr:uid="{F37460DF-2564-4429-91B1-6BA15AE0C40D}"/>
+    <hyperlink ref="O32" r:id="rId18" xr:uid="{6D20289D-9F93-42B1-A99D-4583DD5D70FA}"/>
+    <hyperlink ref="O43" r:id="rId19" xr:uid="{23AD542D-23DD-43CE-9D11-54573641EF81}"/>
+    <hyperlink ref="O20" r:id="rId20" display="https://www.americanstandard-us.com/Floor-Standing-Toilets/Colony-16-gpf-60-Lpf-12-Inch-Rough-Tank/BONE-4192A004021" xr:uid="{2DAD8D07-0D2B-4F9B-8144-3DE45BAA9CC2}"/>
+    <hyperlink ref="O19" r:id="rId21" xr:uid="{33E3BD64-4671-4EAE-AE76-7BB763277D53}"/>
+    <hyperlink ref="O22" r:id="rId22" xr:uid="{C23D5593-2A03-4542-946A-8CDC001D918F}"/>
+    <hyperlink ref="O23" r:id="rId23" xr:uid="{09F05D35-B2A5-4E48-B6E8-748BF9AB43BB}"/>
+    <hyperlink ref="O24" r:id="rId24" xr:uid="{F3AB3D43-BD1C-44A0-8C36-6E28C0B99C1C}"/>
+    <hyperlink ref="O38" r:id="rId25" xr:uid="{06663D88-D93B-4EC1-B535-1E6191C89EA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
 
@@ -7655,21 +7870,21 @@
       <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="49.85546875" customWidth="1"/>
-    <col min="13" max="13" width="35.5703125" customWidth="1"/>
-    <col min="14" max="14" width="184.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="49.88671875" customWidth="1"/>
+    <col min="13" max="13" width="35.5546875" customWidth="1"/>
+    <col min="14" max="14" width="184.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -7725,7 +7940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -7773,7 +7988,7 @@
         <v>206.63</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
@@ -7821,7 +8036,7 @@
         <v>224.85999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
@@ -7869,7 +8084,7 @@
         <v>317.63</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>35</v>
       </c>
@@ -7920,7 +8135,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -7968,7 +8183,7 @@
         <v>357.52</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -8016,7 +8231,7 @@
         <v>644.74</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>34</v>
       </c>
@@ -8065,7 +8280,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>34</v>
       </c>
@@ -8114,7 +8329,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -8160,7 +8375,7 @@
         <v>39.382151105261244</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
@@ -8208,7 +8423,7 @@
         <v>165.65897915102249</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>34</v>
       </c>
@@ -8256,7 +8471,7 @@
         <v>117.11139459698248</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
@@ -8304,7 +8519,7 @@
         <v>41.3095536973387</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
@@ -8352,7 +8567,7 @@
         <v>41.309324999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -8400,7 +8615,7 @@
         <v>94.481695102577731</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
@@ -8448,7 +8663,7 @@
         <v>54.817767294848409</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -8496,7 +8711,7 @@
         <v>47.024419817793579</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
@@ -8544,7 +8759,7 @@
         <v>49.064810425312494</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
@@ -8580,7 +8795,7 @@
         <v>52.942869297499996</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
@@ -8616,7 +8831,7 @@
         <v>85.042520952999979</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
@@ -8652,7 +8867,7 @@
         <v>157.47435999099997</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
@@ -8688,7 +8903,7 @@
         <v>216.42350989999997</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>34</v>
       </c>
@@ -8724,7 +8939,7 @@
         <v>143.22306508899996</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
@@ -8760,7 +8975,7 @@
         <v>127.29442705849998</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
@@ -8796,7 +9011,7 @@
         <v>112.84723806849998</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>34</v>
       </c>
@@ -8832,7 +9047,7 @@
         <v>96.55129862299998</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
@@ -8868,7 +9083,7 @@
         <v>179.00866749999997</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>34</v>
       </c>
@@ -8904,7 +9119,7 @@
         <v>216.42350989999997</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>34</v>
       </c>
@@ -8947,7 +9162,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q30" s="34"/>
     </row>
   </sheetData>
@@ -8964,21 +9179,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBDF5173-B602-479E-9B9F-AF7329AFC369}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>200</v>
       </c>
@@ -9001,7 +9216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -9025,7 +9240,7 @@
         <v>47.024999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -9049,7 +9264,7 @@
         <v>41.309324999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -9073,7 +9288,7 @@
         <v>54.818324999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -9094,7 +9309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -9115,7 +9330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -9136,7 +9351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -9157,7 +9372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -9178,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -9199,7 +9414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -9217,7 +9432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -9238,7 +9453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -9256,7 +9471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>4</v>
       </c>
@@ -9311,7 +9526,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>6</v>
       </c>
@@ -9364,7 +9579,7 @@
       </c>
       <c r="R18" s="11"/>
     </row>
-    <row r="21" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>6</v>
       </c>

--- a/XX_Master_database/Wholesaler_Database.xlsx
+++ b/XX_Master_database/Wholesaler_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/00_Scrapping_git/XX_Master_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1741" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D3C73C7-42EE-477B-BBDF-F25965657DE6}"/>
+  <xr:revisionPtr revIDLastSave="1773" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42C8B289-C2FA-4BC0-8E2F-0F3FFCCD7796}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB750D66-C71B-4412-8809-92E47E37BD8E}"/>
   </bookViews>
@@ -1106,7 +1106,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1186,6 +1186,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -5185,9 +5197,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6236,8 +6248,8 @@
       </c>
       <c r="S18" s="11"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="52" t="s">
+    <row r="19" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="53" t="s">
         <v>301</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -6287,9 +6299,9 @@
       </c>
       <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="52" t="s">
-        <v>301</v>
+    <row r="20" spans="1:19" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="57" t="s">
+        <v>300</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>6</v>
@@ -6338,180 +6350,180 @@
       </c>
       <c r="S20" s="11"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="52" t="s">
+    <row r="21" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="11" t="str">
+      <c r="D21" s="10" t="str">
         <f>VLOOKUP(C21,Mansfield!$D$1:$L$18,9,0)</f>
         <v>ALTO BOWL 137 1.6</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="49">
         <v>12</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="50">
         <v>1.28</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="N21" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="O21" s="11" t="s">
+      <c r="O21" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11" t="s">
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="R21" s="21">
+      <c r="R21" s="51">
         <v>0.34</v>
       </c>
-      <c r="S21" s="11"/>
+      <c r="S21" s="10"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="52" t="s">
+    <row r="22" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="11" t="str">
+      <c r="D22" s="10" t="str">
         <f>VLOOKUP(C22,Mansfield!$D$1:$L$18,9,0)</f>
         <v>ALTO BOWL 135 EL 1.6</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="49">
         <v>12</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="L22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22" s="50">
         <v>1.28</v>
       </c>
-      <c r="N22" s="11" t="s">
+      <c r="N22" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="O22" s="13" t="s">
+      <c r="O22" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11" t="s">
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="R22" s="21">
+      <c r="R22" s="51">
         <v>0.34</v>
       </c>
-      <c r="S22" s="11"/>
+      <c r="S22" s="10"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="52" t="s">
+    <row r="23" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="11" t="str">
+      <c r="D23" s="10" t="str">
         <f>VLOOKUP(C23,Mansfield!$D$1:$L$18,9,0)</f>
         <v>ALTO BOWL 130 1.6</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="49">
         <v>12</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M23" s="14">
+      <c r="M23" s="49">
         <v>1.28</v>
       </c>
-      <c r="N23" s="11" t="s">
+      <c r="N23" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="O23" s="13" t="s">
+      <c r="O23" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11" t="s">
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="R23" s="21">
+      <c r="R23" s="51">
         <v>0.34</v>
       </c>
-      <c r="S23" s="11"/>
+      <c r="S23" s="10"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="52" t="s">
-        <v>301</v>
+    <row r="24" spans="1:19" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="57" t="s">
+        <v>300</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>6</v>
@@ -7246,95 +7258,95 @@
       </c>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A39" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="B39" s="18" t="s">
+    <row r="39" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="53" t="s">
+        <v>301</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="D39" s="18" t="str">
+      <c r="D39" s="10" t="str">
         <f>VLOOKUP(C39,Mansfield!$D$1:$L$47,9,0)</f>
         <v>217 Lav</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18" t="s">
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="O39" s="18" t="s">
+      <c r="O39" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18" t="s">
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="R39" s="23">
+      <c r="R39" s="51">
         <v>0.34</v>
       </c>
-      <c r="S39" s="3"/>
+      <c r="S39" s="10"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A40" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="B40" s="18" t="s">
+    <row r="40" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="53" t="s">
+        <v>301</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="D40" s="18" t="str">
+      <c r="D40" s="10" t="str">
         <f>VLOOKUP(C40,Mansfield!$D$1:$L$47,9,0)</f>
         <v>292 Lav</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18" t="s">
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="O40" s="18" t="s">
+      <c r="O40" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18" t="s">
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="R40" s="23">
+      <c r="R40" s="51">
         <v>0.34</v>
       </c>
-      <c r="S40" s="3"/>
+      <c r="S40" s="10"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="52" t="s">
@@ -7369,7 +7381,7 @@
       <c r="N41" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="O41" s="18" t="s">
+      <c r="O41" s="20" t="s">
         <v>179</v>
       </c>
       <c r="P41" s="18"/>
@@ -7381,50 +7393,50 @@
       </c>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="B42" s="18" t="s">
+    <row r="42" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="53" t="s">
+        <v>301</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="D42" s="18" t="str">
+      <c r="D42" s="10" t="str">
         <f>VLOOKUP(C42,Mansfield!$D$1:$L$47,9,0)</f>
         <v>218 COVINGTON LAV</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18" t="s">
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="O42" s="18" t="s">
+      <c r="O42" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18" t="s">
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="R42" s="23">
+      <c r="R42" s="51">
         <v>0.34</v>
       </c>
-      <c r="S42" s="3"/>
+      <c r="S42" s="10"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="52" t="s">
@@ -7504,7 +7516,7 @@
       <c r="N44" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="O44" s="18" t="s">
+      <c r="O44" s="20" t="s">
         <v>181</v>
       </c>
       <c r="P44" s="18"/>
@@ -7606,50 +7618,50 @@
       </c>
       <c r="S46" s="3"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="B47" s="18" t="s">
+    <row r="47" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="53" t="s">
+        <v>301</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="D47" s="18" t="str">
+      <c r="D47" s="10" t="str">
         <f>VLOOKUP(C47,Mansfield!$D$1:$L$47,9,0)</f>
         <v>328 8" LAV</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F47" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="G47" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18" t="s">
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="O47" s="20" t="s">
+      <c r="O47" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18" t="s">
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="R47" s="23">
+      <c r="R47" s="51">
         <v>0.34</v>
       </c>
-      <c r="S47" s="3"/>
+      <c r="S47" s="10"/>
     </row>
     <row r="48" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="52" t="s">
@@ -7696,7 +7708,7 @@
       <c r="N48" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="O48" s="38" t="s">
+      <c r="O48" s="43" t="s">
         <v>276</v>
       </c>
       <c r="P48" s="38" t="s">
@@ -7856,9 +7868,17 @@
     <hyperlink ref="O23" r:id="rId23" xr:uid="{09F05D35-B2A5-4E48-B6E8-748BF9AB43BB}"/>
     <hyperlink ref="O24" r:id="rId24" xr:uid="{F3AB3D43-BD1C-44A0-8C36-6E28C0B99C1C}"/>
     <hyperlink ref="O38" r:id="rId25" xr:uid="{06663D88-D93B-4EC1-B535-1E6191C89EA9}"/>
+    <hyperlink ref="O40" r:id="rId26" xr:uid="{6E0C75C5-1F7A-4071-ADAE-1CF020C2F9EA}"/>
+    <hyperlink ref="O39" r:id="rId27" xr:uid="{FACFE1F8-5F85-4B9D-AFAB-D773D6AAD787}"/>
+    <hyperlink ref="O41" r:id="rId28" xr:uid="{541A0D61-72E1-4242-A2E8-973299FDD89B}"/>
+    <hyperlink ref="O21" r:id="rId29" xr:uid="{1354D410-BA99-48DD-83C7-561831C1B078}"/>
+    <hyperlink ref="O42" r:id="rId30" xr:uid="{96320AFD-AC72-4F6C-BE73-F5E97E516E29}"/>
+    <hyperlink ref="O44" r:id="rId31" xr:uid="{015AFCB0-A3F6-4A61-9584-1FBCD46914BB}"/>
+    <hyperlink ref="O49" r:id="rId32" xr:uid="{81D52383-F4BF-4246-B0DC-B4684FAD3923}"/>
+    <hyperlink ref="O48" r:id="rId33" xr:uid="{560EFE6C-83A4-45DE-BCFB-1E5054B4EC0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
 

--- a/XX_Master_database/Wholesaler_Database.xlsx
+++ b/XX_Master_database/Wholesaler_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/00_Scrapping_git/XX_Master_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1773" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42C8B289-C2FA-4BC0-8E2F-0F3FFCCD7796}"/>
+  <xr:revisionPtr revIDLastSave="1788" documentId="8_{B63EC7D8-7803-4775-989F-2C2416119993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2576E4FC-BB43-4874-A1FD-70E44EE4DB4A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB750D66-C71B-4412-8809-92E47E37BD8E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BB750D66-C71B-4412-8809-92E47E37BD8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Competitors" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Competitors!$B$1:$S$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Competitors!$A$1:$S$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mansfield!$A$1:$R$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="303">
   <si>
     <t>GMX20902</t>
   </si>
@@ -933,22 +933,25 @@
     <t>G0022589</t>
   </si>
   <si>
+    <t>Maxwell  12 ADA EL 1.6 Combo</t>
+  </si>
+  <si>
+    <t>https://www.gerber-us.com/maxwell-1-6-gpf-12-rough-in-two-piece-elongated-ergoheight-toilet/products/us-GMX20918</t>
+  </si>
+  <si>
+    <t>Scrap</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
     <t>https://www.americanstandard-us.com/Floor-Standing-Toilets/Colony-16-gpf-60-Lpf-12-Inch-Rough-Tank/WHITE-4192A004020</t>
-  </si>
-  <si>
-    <t>Maxwell  12 ADA EL 1.6 Combo</t>
-  </si>
-  <si>
-    <t>https://www.gerber-us.com/maxwell-1-6-gpf-12-rough-in-two-piece-elongated-ergoheight-toilet/products/us-GMX20918</t>
-  </si>
-  <si>
-    <t>Scrap</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -5195,38 +5198,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}">
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47:XFD47"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="15" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="60.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="60.140625" customWidth="1"/>
     <col min="15" max="15" width="169" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="105.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="105.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -5281,9 +5284,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>4</v>
@@ -5296,7 +5299,7 @@
         <v>Alto 130/160 RF 1.6 Combo</v>
       </c>
       <c r="E2" s="11">
-        <f t="shared" ref="E2:E50" si="0">COUNTIF($C$2:$C$51,C2)</f>
+        <f t="shared" ref="E2:E18" si="0">COUNTIF($C$2:$C$50,C2)</f>
         <v>2</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -5339,9 +5342,9 @@
       </c>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>4</v>
@@ -5397,9 +5400,9 @@
       </c>
       <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>4</v>
@@ -5455,9 +5458,9 @@
       </c>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>6</v>
@@ -5504,7 +5507,7 @@
       <c r="O5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="13"/>
+      <c r="P5" s="11"/>
       <c r="Q5" s="11" t="s">
         <v>230</v>
       </c>
@@ -5513,9 +5516,9 @@
       </c>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>6</v>
@@ -5571,9 +5574,9 @@
       </c>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>6</v>
@@ -5629,9 +5632,9 @@
       </c>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>4</v>
@@ -5687,9 +5690,9 @@
       </c>
       <c r="S8" s="11"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>4</v>
@@ -5743,9 +5746,9 @@
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>4</v>
@@ -5798,9 +5801,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>4</v>
@@ -5853,9 +5856,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>4</v>
@@ -5912,9 +5915,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B13" s="26" t="s">
         <v>4</v>
@@ -5971,9 +5974,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>4</v>
@@ -6030,9 +6033,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>4</v>
@@ -6083,9 +6086,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>6</v>
@@ -6140,9 +6143,9 @@
       </c>
       <c r="S16" s="11"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>6</v>
@@ -6191,9 +6194,9 @@
       </c>
       <c r="S17" s="11"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>6</v>
@@ -6236,7 +6239,7 @@
       <c r="N18" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="O18" s="11" t="s">
+      <c r="O18" s="13" t="s">
         <v>71</v>
       </c>
       <c r="P18" s="11"/>
@@ -6248,9 +6251,9 @@
       </c>
       <c r="S18" s="11"/>
     </row>
-    <row r="19" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>6</v>
@@ -6299,9 +6302,9 @@
       </c>
       <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="1:19" s="58" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>6</v>
@@ -6314,7 +6317,7 @@
         <v>ALTO TANK 160 1.6</v>
       </c>
       <c r="E20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E20:E49" si="1">COUNTIF($C$2:$C$50,C20)</f>
         <v>2</v>
       </c>
       <c r="F20" s="12" t="s">
@@ -6339,7 +6342,7 @@
         <v>105</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="P20" s="11"/>
       <c r="Q20" s="11" t="s">
@@ -6350,9 +6353,9 @@
       </c>
       <c r="S20" s="11"/>
     </row>
-    <row r="21" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>6</v>
@@ -6365,7 +6368,7 @@
         <v>ALTO BOWL 137 1.6</v>
       </c>
       <c r="E21" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F21" s="48" t="s">
@@ -6407,9 +6410,9 @@
       </c>
       <c r="S21" s="10"/>
     </row>
-    <row r="22" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>6</v>
@@ -6422,7 +6425,7 @@
         <v>ALTO BOWL 135 EL 1.6</v>
       </c>
       <c r="E22" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F22" s="48" t="s">
@@ -6464,9 +6467,9 @@
       </c>
       <c r="S22" s="10"/>
     </row>
-    <row r="23" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>6</v>
@@ -6479,7 +6482,7 @@
         <v>ALTO BOWL 130 1.6</v>
       </c>
       <c r="E23" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F23" s="55" t="s">
@@ -6521,9 +6524,9 @@
       </c>
       <c r="S23" s="10"/>
     </row>
-    <row r="24" spans="1:19" s="58" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="57" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>6</v>
@@ -6536,7 +6539,7 @@
         <v xml:space="preserve">SUMMIT TANK 386      </v>
       </c>
       <c r="E24" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F24" s="12" t="s">
@@ -6572,9 +6575,9 @@
       </c>
       <c r="S24" s="11"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>4</v>
@@ -6587,7 +6590,7 @@
         <v>COMMERCIAL BOWL 1319 EL ADA  1.28</v>
       </c>
       <c r="E25" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F25" s="12" t="s">
@@ -6629,9 +6632,9 @@
       </c>
       <c r="S25" s="11"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>4</v>
@@ -6644,7 +6647,7 @@
         <v>Alto 137/160 ADA EL 1.6 Combo</v>
       </c>
       <c r="E26" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F26" s="12" t="s">
@@ -6672,10 +6675,10 @@
         <v>1.28</v>
       </c>
       <c r="N26" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="O26" s="11" t="s">
         <v>297</v>
-      </c>
-      <c r="O26" s="11" t="s">
-        <v>298</v>
       </c>
       <c r="P26" s="11"/>
       <c r="Q26" s="11" t="s">
@@ -6686,9 +6689,9 @@
       </c>
       <c r="S26" s="11"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>4</v>
@@ -6701,7 +6704,7 @@
         <v>HET 3489-V El 1.28 Combo </v>
       </c>
       <c r="E27" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F27" s="12" t="s">
@@ -6743,9 +6746,9 @@
       </c>
       <c r="S27" s="11"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>4</v>
@@ -6758,7 +6761,7 @@
         <v>237 Lav</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -6790,9 +6793,9 @@
       </c>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>4</v>
@@ -6805,7 +6808,7 @@
         <v>217 Lav</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -6837,9 +6840,9 @@
       </c>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>4</v>
@@ -6852,7 +6855,7 @@
         <v>292 Lav</v>
       </c>
       <c r="E30" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F30" s="8" t="s">
@@ -6884,9 +6887,9 @@
       </c>
       <c r="S30" s="8"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>4</v>
@@ -6899,7 +6902,7 @@
         <v>328 4" LAV</v>
       </c>
       <c r="E31" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -6931,9 +6934,9 @@
         <v>592</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>4</v>
@@ -6946,7 +6949,7 @@
         <v>218 COVINGTON LAV</v>
       </c>
       <c r="E32" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -6978,9 +6981,9 @@
       </c>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>4</v>
@@ -6993,7 +6996,7 @@
         <v>348 4" LAV</v>
       </c>
       <c r="E33" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -7025,9 +7028,9 @@
       </c>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>4</v>
@@ -7040,7 +7043,7 @@
         <v>272 4" LAV</v>
       </c>
       <c r="E34" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F34" s="3" t="s">
@@ -7072,9 +7075,9 @@
       </c>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>4</v>
@@ -7087,8 +7090,8 @@
         <v>251 4" LAV</v>
       </c>
       <c r="E35" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>127</v>
@@ -7119,9 +7122,9 @@
       </c>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>4</v>
@@ -7134,7 +7137,7 @@
         <v>234 BRENTWOOD LAV</v>
       </c>
       <c r="E36" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F36" s="3" t="s">
@@ -7166,9 +7169,9 @@
       </c>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>4</v>
@@ -7181,7 +7184,7 @@
         <v>328 8" LAV</v>
       </c>
       <c r="E37" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F37" s="3" t="s">
@@ -7213,9 +7216,9 @@
       </c>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>6</v>
@@ -7228,7 +7231,7 @@
         <v>237 Lav</v>
       </c>
       <c r="E38" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F38" s="18" t="s">
@@ -7258,9 +7261,9 @@
       </c>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>6</v>
@@ -7273,7 +7276,7 @@
         <v>217 Lav</v>
       </c>
       <c r="E39" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F39" s="10" t="s">
@@ -7303,9 +7306,9 @@
       </c>
       <c r="S39" s="10"/>
     </row>
-    <row r="40" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="53" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>6</v>
@@ -7318,7 +7321,7 @@
         <v>292 Lav</v>
       </c>
       <c r="E40" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F40" s="10" t="s">
@@ -7348,54 +7351,54 @@
       </c>
       <c r="S40" s="10"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="52" t="s">
+    <row r="41" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="D41" s="18" t="str">
+      <c r="D41" s="10" t="str">
         <f>VLOOKUP(C41,Mansfield!$D$1:$L$47,9,0)</f>
         <v>328 4" LAV</v>
       </c>
-      <c r="E41" s="18">
-        <f t="shared" si="0"/>
+      <c r="E41" s="10">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="G41" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18" t="s">
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="O41" s="20" t="s">
+      <c r="O41" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18" t="s">
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="R41" s="23">
+      <c r="R41" s="51">
         <v>0.34</v>
       </c>
-      <c r="S41" s="3"/>
+      <c r="S41" s="10"/>
     </row>
-    <row r="42" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="53" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>6</v>
@@ -7408,7 +7411,7 @@
         <v>218 COVINGTON LAV</v>
       </c>
       <c r="E42" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F42" s="10" t="s">
@@ -7438,9 +7441,9 @@
       </c>
       <c r="S42" s="10"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>6</v>
@@ -7453,7 +7456,7 @@
         <v>348 4" LAV</v>
       </c>
       <c r="E43" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F43" s="18" t="s">
@@ -7483,9 +7486,9 @@
       </c>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>6</v>
@@ -7498,7 +7501,7 @@
         <v>272 4" LAV</v>
       </c>
       <c r="E44" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F44" s="18" t="s">
@@ -7528,26 +7531,26 @@
       </c>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B45" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D45" s="18" t="str">
         <f>VLOOKUP(C45,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>251 4" LAV</v>
+        <v>234 BRENTWOOD LAV</v>
       </c>
       <c r="E45" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>126</v>
@@ -7559,12 +7562,12 @@
       <c r="L45" s="18"/>
       <c r="M45" s="18"/>
       <c r="N45" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="O45" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="P45" s="20"/>
+        <v>162</v>
+      </c>
+      <c r="O45" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="P45" s="18"/>
       <c r="Q45" s="18" t="s">
         <v>230</v>
       </c>
@@ -7573,146 +7576,160 @@
       </c>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" s="52" t="s">
+    <row r="46" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" s="18" t="str">
+      <c r="C46" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="10" t="str">
         <f>VLOOKUP(C46,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>234 BRENTWOOD LAV</v>
-      </c>
-      <c r="E46" s="18">
-        <f t="shared" si="0"/>
+        <v>328 8" LAV</v>
+      </c>
+      <c r="E46" s="10">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F46" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="G46" s="18" t="s">
+      <c r="F46" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="O46" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="18" t="s">
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="O46" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="R46" s="23">
+      <c r="R46" s="51">
         <v>0.34</v>
       </c>
-      <c r="S46" s="3"/>
+      <c r="S46" s="10"/>
     </row>
-    <row r="47" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="53" t="s">
-        <v>301</v>
-      </c>
-      <c r="B47" s="10" t="s">
+    <row r="47" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="B47" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="D47" s="10" t="str">
+      <c r="C47" s="38">
+        <v>155010000</v>
+      </c>
+      <c r="D47" s="44" t="str">
         <f>VLOOKUP(C47,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>328 8" LAV</v>
-      </c>
-      <c r="E47" s="10">
-        <f t="shared" si="0"/>
+        <v xml:space="preserve">TANK 155 LH QTM 1.28GPF WHT                                                                         </v>
+      </c>
+      <c r="E47" s="38">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F47" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="O47" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10" t="s">
+      <c r="F47" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="G47" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="J47" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="K47" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="L47" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="M47" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="N47" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="O47" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="P47" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q47" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="R47" s="51">
+      <c r="R47" s="40">
         <v>0.34</v>
       </c>
-      <c r="S47" s="10"/>
+      <c r="S47" s="38"/>
     </row>
-    <row r="48" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B48" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="38">
-        <v>155010000</v>
+      <c r="C48" s="38" t="s">
+        <v>91</v>
       </c>
       <c r="D48" s="44" t="str">
         <f>VLOOKUP(C48,Mansfield!$D$1:$L$47,9,0)</f>
-        <v xml:space="preserve">TANK 155 LH QTM 1.28GPF WHT                                                                         </v>
+        <v>Summit 384/386  ADA 1.28 Combo</v>
       </c>
       <c r="E48" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F48" s="39" t="s">
-        <v>275</v>
+      <c r="F48" s="42" t="s">
+        <v>278</v>
       </c>
       <c r="G48" s="38" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H48" s="38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I48" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="J48" s="38" t="s">
-        <v>47</v>
+        <v>279</v>
+      </c>
+      <c r="J48" s="38">
+        <v>12</v>
       </c>
       <c r="K48" s="38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L48" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="M48" s="38" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="M48" s="38">
+        <v>1.28</v>
       </c>
       <c r="N48" s="38" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="O48" s="43" t="s">
-        <v>276</v>
-      </c>
-      <c r="P48" s="38" t="s">
-        <v>277</v>
+        <v>281</v>
+      </c>
+      <c r="P48" s="43" t="s">
+        <v>282</v>
       </c>
       <c r="Q48" s="38" t="s">
         <v>230</v>
@@ -7722,160 +7739,101 @@
       </c>
       <c r="S48" s="38"/>
     </row>
-    <row r="49" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="38" t="s">
-        <v>91</v>
+        <v>4</v>
+      </c>
+      <c r="C49" s="38">
+        <v>155010000</v>
       </c>
       <c r="D49" s="44" t="str">
         <f>VLOOKUP(C49,Mansfield!$D$1:$L$47,9,0)</f>
-        <v>Summit 384/386  ADA 1.28 Combo</v>
+        <v xml:space="preserve">TANK 155 LH QTM 1.28GPF WHT                                                                         </v>
       </c>
       <c r="E49" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F49" s="42" t="s">
-        <v>278</v>
+      <c r="F49" s="39" t="s">
+        <v>284</v>
       </c>
       <c r="G49" s="38" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I49" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="J49" s="38">
-        <v>12</v>
+        <v>188</v>
+      </c>
+      <c r="J49" s="38" t="s">
+        <v>47</v>
       </c>
       <c r="K49" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L49" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="M49" s="38">
-        <v>1.28</v>
+        <v>47</v>
+      </c>
+      <c r="M49" s="38" t="s">
+        <v>47</v>
       </c>
       <c r="N49" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="O49" s="43" t="s">
-        <v>281</v>
-      </c>
-      <c r="P49" s="43" t="s">
-        <v>282</v>
+        <v>190</v>
+      </c>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38" t="s">
+        <v>285</v>
       </c>
       <c r="Q49" s="38" t="s">
         <v>230</v>
       </c>
       <c r="R49" s="40">
-        <v>0.34</v>
-      </c>
-      <c r="S49" s="38"/>
-    </row>
-    <row r="50" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="B50" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="38">
-        <v>155010000</v>
-      </c>
-      <c r="D50" s="44" t="str">
-        <f>VLOOKUP(C50,Mansfield!$D$1:$L$47,9,0)</f>
-        <v xml:space="preserve">TANK 155 LH QTM 1.28GPF WHT                                                                         </v>
-      </c>
-      <c r="E50" s="38">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F50" s="39" t="s">
-        <v>284</v>
-      </c>
-      <c r="G50" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H50" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="I50" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="J50" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="K50" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="L50" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="M50" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="N50" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q50" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="R50" s="40">
         <v>0.41</v>
       </c>
-      <c r="S50" s="38">
+      <c r="S49" s="38">
         <v>308</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:S50" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}"/>
+  <autoFilter ref="A1:S49" xr:uid="{EB033180-4452-49A4-8BEB-F48FDF308044}"/>
   <hyperlinks>
     <hyperlink ref="O5" r:id="rId1" xr:uid="{EF7953C9-ED02-4DDB-9445-D95A01E86511}"/>
     <hyperlink ref="O16" r:id="rId2" xr:uid="{CD91D937-81FC-495B-9B8D-2E8D7673C161}"/>
     <hyperlink ref="O17" r:id="rId3" xr:uid="{F8CC36D8-B3D6-4CE7-8BB1-39588FC65DFD}"/>
-    <hyperlink ref="O45" r:id="rId4" xr:uid="{E3B9BAE2-78EC-4625-BD19-698C4A48EC97}"/>
-    <hyperlink ref="O3" r:id="rId5" xr:uid="{EF43BBC5-D734-48E3-8E51-41FA4C5BBAAC}"/>
-    <hyperlink ref="O4" r:id="rId6" xr:uid="{22484C09-4856-4889-8D85-F3AB32A71518}"/>
-    <hyperlink ref="O8" r:id="rId7" xr:uid="{6A10DF77-5DF5-4F15-83CF-4EE626A1CEE3}"/>
-    <hyperlink ref="O33" r:id="rId8" xr:uid="{2B8A67F9-2D5C-4A93-9C82-E5B32B266FA4}"/>
-    <hyperlink ref="O35" r:id="rId9" xr:uid="{1515F505-E4F5-43A7-A068-D4C92341112C}"/>
-    <hyperlink ref="O36" r:id="rId10" xr:uid="{1E8E0998-C4EC-48BC-8445-39D26C94D065}"/>
-    <hyperlink ref="O37" r:id="rId11" xr:uid="{6C553BF5-CDFB-415A-8EA1-065521322AC3}"/>
-    <hyperlink ref="P12" r:id="rId12" xr:uid="{B3A4AC13-7BED-45E9-A2E7-413F39FCC9AC}"/>
-    <hyperlink ref="O6" r:id="rId13" xr:uid="{3360E79D-3758-4E75-B584-1F6C54804F8E}"/>
-    <hyperlink ref="O47" r:id="rId14" xr:uid="{0FEA31B0-3DE4-45A4-A8D7-5CAE3AD57EAE}"/>
-    <hyperlink ref="P49" r:id="rId15" xr:uid="{3418ECFB-1A01-4FF7-8F2E-EE819BC0FF76}"/>
-    <hyperlink ref="O29" r:id="rId16" xr:uid="{5FA15A89-8D97-4347-8409-801BF0EB34DA}"/>
-    <hyperlink ref="O28" r:id="rId17" xr:uid="{F37460DF-2564-4429-91B1-6BA15AE0C40D}"/>
-    <hyperlink ref="O32" r:id="rId18" xr:uid="{6D20289D-9F93-42B1-A99D-4583DD5D70FA}"/>
-    <hyperlink ref="O43" r:id="rId19" xr:uid="{23AD542D-23DD-43CE-9D11-54573641EF81}"/>
-    <hyperlink ref="O20" r:id="rId20" display="https://www.americanstandard-us.com/Floor-Standing-Toilets/Colony-16-gpf-60-Lpf-12-Inch-Rough-Tank/BONE-4192A004021" xr:uid="{2DAD8D07-0D2B-4F9B-8144-3DE45BAA9CC2}"/>
-    <hyperlink ref="O19" r:id="rId21" xr:uid="{33E3BD64-4671-4EAE-AE76-7BB763277D53}"/>
-    <hyperlink ref="O22" r:id="rId22" xr:uid="{C23D5593-2A03-4542-946A-8CDC001D918F}"/>
-    <hyperlink ref="O23" r:id="rId23" xr:uid="{09F05D35-B2A5-4E48-B6E8-748BF9AB43BB}"/>
-    <hyperlink ref="O24" r:id="rId24" xr:uid="{F3AB3D43-BD1C-44A0-8C36-6E28C0B99C1C}"/>
-    <hyperlink ref="O38" r:id="rId25" xr:uid="{06663D88-D93B-4EC1-B535-1E6191C89EA9}"/>
-    <hyperlink ref="O40" r:id="rId26" xr:uid="{6E0C75C5-1F7A-4071-ADAE-1CF020C2F9EA}"/>
-    <hyperlink ref="O39" r:id="rId27" xr:uid="{FACFE1F8-5F85-4B9D-AFAB-D773D6AAD787}"/>
-    <hyperlink ref="O41" r:id="rId28" xr:uid="{541A0D61-72E1-4242-A2E8-973299FDD89B}"/>
-    <hyperlink ref="O21" r:id="rId29" xr:uid="{1354D410-BA99-48DD-83C7-561831C1B078}"/>
-    <hyperlink ref="O42" r:id="rId30" xr:uid="{96320AFD-AC72-4F6C-BE73-F5E97E516E29}"/>
-    <hyperlink ref="O44" r:id="rId31" xr:uid="{015AFCB0-A3F6-4A61-9584-1FBCD46914BB}"/>
-    <hyperlink ref="O49" r:id="rId32" xr:uid="{81D52383-F4BF-4246-B0DC-B4684FAD3923}"/>
-    <hyperlink ref="O48" r:id="rId33" xr:uid="{560EFE6C-83A4-45DE-BCFB-1E5054B4EC0F}"/>
+    <hyperlink ref="O3" r:id="rId4" xr:uid="{EF43BBC5-D734-48E3-8E51-41FA4C5BBAAC}"/>
+    <hyperlink ref="O4" r:id="rId5" xr:uid="{22484C09-4856-4889-8D85-F3AB32A71518}"/>
+    <hyperlink ref="O8" r:id="rId6" xr:uid="{6A10DF77-5DF5-4F15-83CF-4EE626A1CEE3}"/>
+    <hyperlink ref="O33" r:id="rId7" xr:uid="{2B8A67F9-2D5C-4A93-9C82-E5B32B266FA4}"/>
+    <hyperlink ref="O35" r:id="rId8" xr:uid="{1515F505-E4F5-43A7-A068-D4C92341112C}"/>
+    <hyperlink ref="O36" r:id="rId9" xr:uid="{1E8E0998-C4EC-48BC-8445-39D26C94D065}"/>
+    <hyperlink ref="O37" r:id="rId10" xr:uid="{6C553BF5-CDFB-415A-8EA1-065521322AC3}"/>
+    <hyperlink ref="P12" r:id="rId11" xr:uid="{B3A4AC13-7BED-45E9-A2E7-413F39FCC9AC}"/>
+    <hyperlink ref="O6" r:id="rId12" xr:uid="{3360E79D-3758-4E75-B584-1F6C54804F8E}"/>
+    <hyperlink ref="O46" r:id="rId13" xr:uid="{0FEA31B0-3DE4-45A4-A8D7-5CAE3AD57EAE}"/>
+    <hyperlink ref="P48" r:id="rId14" xr:uid="{3418ECFB-1A01-4FF7-8F2E-EE819BC0FF76}"/>
+    <hyperlink ref="O29" r:id="rId15" xr:uid="{5FA15A89-8D97-4347-8409-801BF0EB34DA}"/>
+    <hyperlink ref="O28" r:id="rId16" xr:uid="{F37460DF-2564-4429-91B1-6BA15AE0C40D}"/>
+    <hyperlink ref="O32" r:id="rId17" xr:uid="{6D20289D-9F93-42B1-A99D-4583DD5D70FA}"/>
+    <hyperlink ref="O43" r:id="rId18" xr:uid="{23AD542D-23DD-43CE-9D11-54573641EF81}"/>
+    <hyperlink ref="O20" r:id="rId19" xr:uid="{2DAD8D07-0D2B-4F9B-8144-3DE45BAA9CC2}"/>
+    <hyperlink ref="O19" r:id="rId20" xr:uid="{33E3BD64-4671-4EAE-AE76-7BB763277D53}"/>
+    <hyperlink ref="O22" r:id="rId21" xr:uid="{C23D5593-2A03-4542-946A-8CDC001D918F}"/>
+    <hyperlink ref="O23" r:id="rId22" xr:uid="{09F05D35-B2A5-4E48-B6E8-748BF9AB43BB}"/>
+    <hyperlink ref="O24" r:id="rId23" xr:uid="{F3AB3D43-BD1C-44A0-8C36-6E28C0B99C1C}"/>
+    <hyperlink ref="O38" r:id="rId24" xr:uid="{06663D88-D93B-4EC1-B535-1E6191C89EA9}"/>
+    <hyperlink ref="O40" r:id="rId25" xr:uid="{6E0C75C5-1F7A-4071-ADAE-1CF020C2F9EA}"/>
+    <hyperlink ref="O39" r:id="rId26" xr:uid="{FACFE1F8-5F85-4B9D-AFAB-D773D6AAD787}"/>
+    <hyperlink ref="O41" r:id="rId27" xr:uid="{541A0D61-72E1-4242-A2E8-973299FDD89B}"/>
+    <hyperlink ref="O21" r:id="rId28" xr:uid="{1354D410-BA99-48DD-83C7-561831C1B078}"/>
+    <hyperlink ref="O42" r:id="rId29" xr:uid="{96320AFD-AC72-4F6C-BE73-F5E97E516E29}"/>
+    <hyperlink ref="O44" r:id="rId30" xr:uid="{015AFCB0-A3F6-4A61-9584-1FBCD46914BB}"/>
+    <hyperlink ref="O48" r:id="rId31" xr:uid="{81D52383-F4BF-4246-B0DC-B4684FAD3923}"/>
+    <hyperlink ref="O47" r:id="rId32" xr:uid="{560EFE6C-83A4-45DE-BCFB-1E5054B4EC0F}"/>
+    <hyperlink ref="O18" r:id="rId33" xr:uid="{0004B9D3-2268-42C6-B3E8-2BCB89325833}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
@@ -7890,21 +7848,21 @@
       <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="49.88671875" customWidth="1"/>
-    <col min="13" max="13" width="35.5546875" customWidth="1"/>
-    <col min="14" max="14" width="184.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="49.85546875" customWidth="1"/>
+    <col min="13" max="13" width="35.5703125" customWidth="1"/>
+    <col min="14" max="14" width="184.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -7960,7 +7918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -8008,7 +7966,7 @@
         <v>206.63</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
@@ -8056,7 +8014,7 @@
         <v>224.85999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
@@ -8104,7 +8062,7 @@
         <v>317.63</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>35</v>
       </c>
@@ -8155,7 +8113,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -8203,7 +8161,7 @@
         <v>357.52</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -8251,7 +8209,7 @@
         <v>644.74</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>34</v>
       </c>
@@ -8300,7 +8258,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>34</v>
       </c>
@@ -8349,7 +8307,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -8395,7 +8353,7 @@
         <v>39.382151105261244</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
@@ -8443,7 +8401,7 @@
         <v>165.65897915102249</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>34</v>
       </c>
@@ -8491,7 +8449,7 @@
         <v>117.11139459698248</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
@@ -8539,7 +8497,7 @@
         <v>41.3095536973387</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
@@ -8587,7 +8545,7 @@
         <v>41.309324999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -8635,7 +8593,7 @@
         <v>94.481695102577731</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
@@ -8683,7 +8641,7 @@
         <v>54.817767294848409</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -8731,7 +8689,7 @@
         <v>47.024419817793579</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
@@ -8779,7 +8737,7 @@
         <v>49.064810425312494</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
@@ -8815,7 +8773,7 @@
         <v>52.942869297499996</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
@@ -8851,7 +8809,7 @@
         <v>85.042520952999979</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
@@ -8887,7 +8845,7 @@
         <v>157.47435999099997</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
@@ -8923,7 +8881,7 @@
         <v>216.42350989999997</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>34</v>
       </c>
@@ -8959,7 +8917,7 @@
         <v>143.22306508899996</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
@@ -8995,7 +8953,7 @@
         <v>127.29442705849998</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
@@ -9031,7 +8989,7 @@
         <v>112.84723806849998</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>34</v>
       </c>
@@ -9067,7 +9025,7 @@
         <v>96.55129862299998</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
@@ -9103,7 +9061,7 @@
         <v>179.00866749999997</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>34</v>
       </c>
@@ -9139,7 +9097,7 @@
         <v>216.42350989999997</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>34</v>
       </c>
@@ -9182,7 +9140,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q30" s="34"/>
     </row>
   </sheetData>
@@ -9203,17 +9161,17 @@
       <selection activeCell="A21" sqref="A21:R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.109375" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>200</v>
       </c>
@@ -9236,7 +9194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -9260,7 +9218,7 @@
         <v>47.024999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -9284,7 +9242,7 @@
         <v>41.309324999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -9308,7 +9266,7 @@
         <v>54.818324999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -9329,7 +9287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -9350,7 +9308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -9371,7 +9329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -9392,7 +9350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -9413,7 +9371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -9434,7 +9392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -9452,7 +9410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -9473,7 +9431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -9491,7 +9449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>4</v>
       </c>
@@ -9546,7 +9504,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>6</v>
       </c>
@@ -9599,7 +9557,7 @@
       </c>
       <c r="R18" s="11"/>
     </row>
-    <row r="21" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
